--- a/results/momentum_portfolio_simulation_latest.xlsx
+++ b/results/momentum_portfolio_simulation_latest.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338.5945822955432</v>
+        <v>337.3990229127265</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72.82608695652173</v>
+        <v>73.33333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -1678,7 +1678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10028,19 +10028,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45904.04166666666</v>
+        <v>45904.5</v>
       </c>
       <c r="B182" t="n">
-        <v>210.3311257611887</v>
+        <v>210.678785187558</v>
       </c>
       <c r="C182" t="n">
-        <v>0.1726972041021781</v>
+        <v>0.2451262512624339</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9374810928807228</v>
+        <v>0.9398906254286059</v>
       </c>
       <c r="E182" t="n">
-        <v>-113400178.064949</v>
+        <v>-43670185.91383457</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.5279871343289081</v>
+        <v>-0.4796506200467515</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -10069,52 +10069,6 @@
         <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45904.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>210.678785187558</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.02232149702291508</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.8800462931706735</v>
-      </c>
-      <c r="E183" t="n">
-        <v>36566605.58385849</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.6000287611652175</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1400</v>
-      </c>
-      <c r="M183" t="n">
-        <v>20</v>
-      </c>
-      <c r="N183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11416,7 +11370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19766,36 +19720,36 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45904.04166666666</v>
+        <v>45904.5</v>
       </c>
       <c r="B182" t="n">
-        <v>3.370929063768648</v>
+        <v>3.384090214867991</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01137885242074566</v>
+        <v>0.0141207588997756</v>
       </c>
       <c r="D182" t="n">
-        <v>0.01512015138389753</v>
+        <v>0.01523011768478942</v>
       </c>
       <c r="E182" t="n">
-        <v>-4114239.6602422</v>
+        <v>9293727.262232423</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>HOLD</t>
         </is>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>3.384090214867991</v>
       </c>
       <c r="I182" t="n">
-        <v>-0.3889125367142985</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.1654989292944456</v>
+        <v>-0.04899275946288443</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -19807,52 +19761,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45904.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>3.384090214867991</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.00961930463643812</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.01472969150592962</v>
-      </c>
-      <c r="E183" t="n">
-        <v>16369275.79510951</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.2276078746627687</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -19867,7 +19775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21094,52 +21002,6 @@
         <v>10</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45904.04166666666</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3.370929063768648</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.01137885242074566</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.01512015138389753</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-4114239.6602422</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>SELL_VOLUME</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-0.3889125367142985</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-0.1654989292944456</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>700</v>
-      </c>
-      <c r="M27" t="n">
-        <v>10</v>
-      </c>
-      <c r="N27" t="n">
         <v>10</v>
       </c>
     </row>
@@ -21154,7 +21016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29504,19 +29366,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45904.04166666666</v>
+        <v>45904.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.3408742505062477</v>
+        <v>0.3407082815258368</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0005715819241287612</v>
+        <v>0.0005370050532098047</v>
       </c>
       <c r="D182" t="n">
-        <v>0.000457094454123135</v>
+        <v>0.0004555870556951596</v>
       </c>
       <c r="E182" t="n">
-        <v>-14787102.06683946</v>
+        <v>-14390186.90334439</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -29533,7 +29395,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1112431284382413</v>
+        <v>0.07916536678641467</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -29545,52 +29407,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45904.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.3407082815258368</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.000360972023568551</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.0004376843487687634</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-4208241.461874962</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.07523594197039386</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -30800,7 +30616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39150,19 +38966,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45904.04166666666</v>
+        <v>45904.5</v>
       </c>
       <c r="B182" t="n">
-        <v>2.837036462919148</v>
+        <v>2.844011130676533</v>
       </c>
       <c r="C182" t="n">
-        <v>0.003250141922283678</v>
+        <v>0.004703197705071549</v>
       </c>
       <c r="D182" t="n">
-        <v>0.009623605291900135</v>
+        <v>0.009674505588725879</v>
       </c>
       <c r="E182" t="n">
-        <v>-353849348.7905025</v>
+        <v>-318868886.7092857</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -39179,7 +38995,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.4513180643602147</v>
+        <v>-0.3519056906403199</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -39191,52 +39007,6 @@
         <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45904.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.844011130676533</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.004007336217866087</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.009354858928102464</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-153367272.4476137</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.3809063414965423</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1400</v>
-      </c>
-      <c r="M183" t="n">
-        <v>20</v>
-      </c>
-      <c r="N183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -40262,7 +40032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L185"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43065,43 +42835,43 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45904.04166666666</v>
+        <v>45817.5</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4457.386138512813</v>
+        <v>2.48296671376525</v>
       </c>
       <c r="E67" t="n">
-        <v>1.584471919530923</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>17.0949942208581</v>
+        <v>0.02107513182837506</v>
       </c>
       <c r="G67" t="n">
-        <v>18.66619049040124</v>
+        <v>0.02089252693923369</v>
       </c>
       <c r="H67" t="n">
-        <v>-217673882.9391098</v>
+        <v>5765877.979262978</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.04965048230049777</v>
+        <v>0.02923332801644034</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>1750</v>
+        <v>700</v>
       </c>
       <c r="L67" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -43111,30 +42881,30 @@
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45817.5</v>
+        <v>45820</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2.48296671376525</v>
+        <v>2.571696194806012</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>3.573526803595784</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02107513182837506</v>
+        <v>-0.009801057187493356</v>
       </c>
       <c r="G68" t="n">
-        <v>0.02089252693923369</v>
+        <v>0.02172511510337783</v>
       </c>
       <c r="H68" t="n">
-        <v>5765877.979262978</v>
+        <v>3004853.569581002</v>
       </c>
       <c r="I68" t="n">
-        <v>0.02923332801644034</v>
+        <v>-2.754056827749293</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -43153,30 +42923,30 @@
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45820</v>
+        <v>45825</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2.571696194806012</v>
+        <v>2.288155937838986</v>
       </c>
       <c r="E69" t="n">
-        <v>3.573526803595784</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.009801057187493356</v>
+        <v>0.0170050496987928</v>
       </c>
       <c r="G69" t="n">
-        <v>0.02172511510337783</v>
+        <v>0.01321850599867011</v>
       </c>
       <c r="H69" t="n">
-        <v>3004853.569581002</v>
+        <v>8685345.314900726</v>
       </c>
       <c r="I69" t="n">
-        <v>-2.754056827749293</v>
+        <v>0.1733162447026059</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -43195,30 +42965,30 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45825</v>
+        <v>45825.5</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2.288155937838986</v>
+        <v>2.219411380251871</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>-3.004365063162572</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0170050496987928</v>
+        <v>-0.001551236233696685</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01321850599867011</v>
+        <v>0.01278830813657687</v>
       </c>
       <c r="H70" t="n">
-        <v>8685345.314900726</v>
+        <v>9802433.280797184</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1733162447026059</v>
+        <v>-0.6720558683745113</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -43237,30 +43007,30 @@
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45825.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2.219411380251871</v>
+        <v>2.015522952261405</v>
       </c>
       <c r="E71" t="n">
-        <v>-3.004365063162572</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.001551236233696685</v>
+        <v>0.02558579249807313</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01278830813657687</v>
+        <v>0.007156160307273268</v>
       </c>
       <c r="H71" t="n">
-        <v>9802433.280797184</v>
+        <v>10349660.70761761</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.6720558683745113</v>
+        <v>0.9991350429849969</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -43279,30 +43049,30 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45831.5</v>
+        <v>45833.5</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2.015522952261405</v>
+        <v>2.161679454106587</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>7.251542418864321</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02558579249807313</v>
+        <v>0.01030611715590402</v>
       </c>
       <c r="G72" t="n">
-        <v>0.007156160307273268</v>
+        <v>0.009054248600911316</v>
       </c>
       <c r="H72" t="n">
-        <v>10349660.70761761</v>
+        <v>-11568400.45066845</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9991350429849969</v>
+        <v>0.06176418704535841</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -43321,30 +43091,30 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45833.5</v>
+        <v>45838</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2.161679454106587</v>
+        <v>2.262159994562039</v>
       </c>
       <c r="E73" t="n">
-        <v>7.251542418864321</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01030611715590402</v>
+        <v>0.01765775748999499</v>
       </c>
       <c r="G73" t="n">
-        <v>0.009054248600911316</v>
+        <v>0.01240599641715219</v>
       </c>
       <c r="H73" t="n">
-        <v>-11568400.45066845</v>
+        <v>4313537.720857218</v>
       </c>
       <c r="I73" t="n">
-        <v>0.06176418704535841</v>
+        <v>0.3492307712213077</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -43363,30 +43133,30 @@
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45838</v>
+        <v>45838.5</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2.262159994562039</v>
+        <v>2.204518638345326</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>-2.548067172758591</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01765775748999499</v>
+        <v>-0.00364379946850546</v>
       </c>
       <c r="G74" t="n">
-        <v>0.01240599641715219</v>
+        <v>0.01231808814640081</v>
       </c>
       <c r="H74" t="n">
-        <v>4313537.720857218</v>
+        <v>6072744.378619105</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3492307712213077</v>
+        <v>-1.057695792389506</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -43405,30 +43175,30 @@
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45838.5</v>
+        <v>45841</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2.204518638345326</v>
+        <v>2.220620211695997</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.548067172758591</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.00364379946850546</v>
+        <v>0.02267850417938755</v>
       </c>
       <c r="G75" t="n">
-        <v>0.01231808814640081</v>
+        <v>0.01149732630465881</v>
       </c>
       <c r="H75" t="n">
-        <v>6072744.378619105</v>
+        <v>16292622.96889192</v>
       </c>
       <c r="I75" t="n">
-        <v>-1.057695792389506</v>
+        <v>0.6630126282261193</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -43447,30 +43217,30 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45841</v>
+        <v>45842.5</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2.220620211695997</v>
+        <v>2.200986691160097</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>-0.8841458090172812</v>
       </c>
       <c r="F76" t="n">
-        <v>0.02267850417938755</v>
+        <v>-0.007598200573808445</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01149732630465881</v>
+        <v>0.01208605952842002</v>
       </c>
       <c r="H76" t="n">
-        <v>16292622.96889192</v>
+        <v>-4968526.404092759</v>
       </c>
       <c r="I76" t="n">
-        <v>0.6630126282261193</v>
+        <v>-1.138748108251481</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -43489,30 +43259,30 @@
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45842.5</v>
+        <v>45847</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2.200986691160097</v>
+        <v>2.241477389718983</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8841458090172812</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.007598200573808445</v>
+        <v>0.01260432894362307</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01208605952842002</v>
+        <v>0.009924245458307182</v>
       </c>
       <c r="H77" t="n">
-        <v>-4968526.404092759</v>
+        <v>6362963.556892008</v>
       </c>
       <c r="I77" t="n">
-        <v>-1.138748108251481</v>
+        <v>0.185619856833134</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -43531,30 +43301,30 @@
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45847</v>
+        <v>45850.5</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2.241477389718983</v>
+        <v>2.493259660094832</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>11.23287129866679</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01260432894362307</v>
+        <v>-0.007232466422903983</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009924245458307182</v>
+        <v>0.01159621979321956</v>
       </c>
       <c r="H78" t="n">
-        <v>6362963.556892008</v>
+        <v>-3826821.125466257</v>
       </c>
       <c r="I78" t="n">
-        <v>0.185619856833134</v>
+        <v>-1.317159435793333</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -43573,30 +43343,30 @@
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45850.5</v>
+        <v>45874</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2.493259660094832</v>
+        <v>2.552572405849011</v>
       </c>
       <c r="E79" t="n">
-        <v>11.23287129866679</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.007232466422903983</v>
+        <v>0.03269420442222026</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01159621979321956</v>
+        <v>0.003501016047103185</v>
       </c>
       <c r="H79" t="n">
-        <v>-3826821.125466257</v>
+        <v>5702473.114150852</v>
       </c>
       <c r="I79" t="n">
-        <v>-1.317159435793333</v>
+        <v>1.407384354125414</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -43615,30 +43385,30 @@
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2.552572405849011</v>
+        <v>2.463262772221802</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>-3.498809021932653</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03269420442222026</v>
+        <v>-1.156940759683422e-05</v>
       </c>
       <c r="G80" t="n">
-        <v>0.003501016047103185</v>
+        <v>0.004038069272309808</v>
       </c>
       <c r="H80" t="n">
-        <v>5702473.114150852</v>
+        <v>9942044.11744079</v>
       </c>
       <c r="I80" t="n">
-        <v>1.407384354125414</v>
+        <v>-0.1928130073685467</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -43657,30 +43427,30 @@
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45875</v>
+        <v>45875.5</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2.463262772221802</v>
+        <v>2.475734386918343</v>
       </c>
       <c r="E81" t="n">
-        <v>-3.498809021932653</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.156940759683422e-05</v>
+        <v>0.004671592978124028</v>
       </c>
       <c r="G81" t="n">
-        <v>0.004038069272309808</v>
+        <v>0.00445408401115203</v>
       </c>
       <c r="H81" t="n">
-        <v>9942044.11744079</v>
+        <v>4844376.702285826</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.1928130073685467</v>
+        <v>0.01030791669566717</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -43699,30 +43469,30 @@
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45875.5</v>
+        <v>45879</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2.475734386918343</v>
+        <v>2.830345055141985</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>14.32345368297128</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004671592978124028</v>
+        <v>0.0212055297270477</v>
       </c>
       <c r="G82" t="n">
-        <v>0.00445408401115203</v>
+        <v>0.01303179799916131</v>
       </c>
       <c r="H82" t="n">
-        <v>4844376.702285826</v>
+        <v>-9263978.90683952</v>
       </c>
       <c r="I82" t="n">
-        <v>0.01030791669566717</v>
+        <v>0.4387488452221245</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -43741,30 +43511,30 @@
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45879</v>
+        <v>45882</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2.830345055141985</v>
+        <v>2.788537154608403</v>
       </c>
       <c r="E83" t="n">
-        <v>14.32345368297128</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0212055297270477</v>
+        <v>0.0168677057765807</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01303179799916131</v>
+        <v>0.01134834120838412</v>
       </c>
       <c r="H83" t="n">
-        <v>-9263978.90683952</v>
+        <v>12661981.56007284</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4387488452221245</v>
+        <v>0.2889980347950414</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -43783,30 +43553,30 @@
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45882</v>
+        <v>45883.5</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.788537154608403</v>
+        <v>2.879444843095901</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>3.260049389597051</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0168677057765807</v>
+        <v>-0.007706157569623784</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01134834120838412</v>
+        <v>0.0150982712846225</v>
       </c>
       <c r="H84" t="n">
-        <v>12661981.56007284</v>
+        <v>9560063.583456755</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2889980347950414</v>
+        <v>-1.156995239609649</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -43825,30 +43595,30 @@
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45883.5</v>
+        <v>45891.5</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2.879444843095901</v>
+        <v>2.565535283173993</v>
       </c>
       <c r="E85" t="n">
-        <v>3.260049389597051</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.007706157569623784</v>
+        <v>0.02632386016216559</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0150982712846225</v>
+        <v>0.009016046042823977</v>
       </c>
       <c r="H85" t="n">
-        <v>9560063.583456755</v>
+        <v>15818805.8917959</v>
       </c>
       <c r="I85" t="n">
-        <v>-1.156995239609649</v>
+        <v>0.816082814195122</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -43867,30 +43637,30 @@
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45891.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2.565535283173993</v>
+        <v>2.692185948357456</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>4.936617555568161</v>
       </c>
       <c r="F86" t="n">
-        <v>0.02632386016216559</v>
+        <v>0.02714224781214236</v>
       </c>
       <c r="G86" t="n">
-        <v>0.009016046042823977</v>
+        <v>0.01002657547949893</v>
       </c>
       <c r="H86" t="n">
-        <v>15818805.8917959</v>
+        <v>-222988.9500783086</v>
       </c>
       <c r="I86" t="n">
-        <v>0.816082814195122</v>
+        <v>0.7730403058090844</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -43909,30 +43679,30 @@
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45892.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2.692185948357456</v>
+        <v>2.385852517158844</v>
       </c>
       <c r="E87" t="n">
-        <v>4.936617555568161</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.02714224781214236</v>
+        <v>0.01156571891200198</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01002657547949893</v>
+        <v>0.007980500662272422</v>
       </c>
       <c r="H87" t="n">
-        <v>-222988.9500783086</v>
+        <v>6021526.702548385</v>
       </c>
       <c r="I87" t="n">
-        <v>0.7730403058090844</v>
+        <v>0.1957895677989704</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -43951,30 +43721,30 @@
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45902.5</v>
+        <v>45903</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2.385852517158844</v>
+        <v>2.438355954449048</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>2.200615373859181</v>
       </c>
       <c r="F88" t="n">
-        <v>0.01156571891200198</v>
+        <v>0.02021831342376545</v>
       </c>
       <c r="G88" t="n">
-        <v>0.007980500662272422</v>
+        <v>0.009384701336372796</v>
       </c>
       <c r="H88" t="n">
-        <v>6021526.702548385</v>
+        <v>-841713.5063202679</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1957895677989704</v>
+        <v>0.5943262070821809</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -43989,43 +43759,43 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45903</v>
+        <v>45817.5</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2.438355954449048</v>
+        <v>156.8321370504748</v>
       </c>
       <c r="E89" t="n">
-        <v>2.200615373859181</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.02021831342376545</v>
+        <v>1.521747649053538</v>
       </c>
       <c r="G89" t="n">
-        <v>0.009384701336372796</v>
+        <v>1.087676735705599</v>
       </c>
       <c r="H89" t="n">
-        <v>-841713.5063202679</v>
+        <v>203081075.3768792</v>
       </c>
       <c r="I89" t="n">
-        <v>0.5943262070821809</v>
+        <v>1.417863245803278</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L89" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -44035,30 +43805,30 @@
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45817.5</v>
+        <v>45820</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>156.8321370504748</v>
+        <v>161.0198663955789</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>2.670198483462862</v>
       </c>
       <c r="F90" t="n">
-        <v>1.521747649053538</v>
+        <v>-0.5228740560814629</v>
       </c>
       <c r="G90" t="n">
-        <v>1.087676735705599</v>
+        <v>1.190231577852637</v>
       </c>
       <c r="H90" t="n">
-        <v>203081075.3768792</v>
+        <v>139255215.4289165</v>
       </c>
       <c r="I90" t="n">
-        <v>1.417863245803278</v>
+        <v>-2.615071800526862</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -44077,30 +43847,30 @@
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>161.0198663955789</v>
+        <v>152.684889859998</v>
       </c>
       <c r="E91" t="n">
-        <v>2.670198483462862</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5228740560814629</v>
+        <v>1.283027756716137</v>
       </c>
       <c r="G91" t="n">
-        <v>1.190231577852637</v>
+        <v>0.7699869916234197</v>
       </c>
       <c r="H91" t="n">
-        <v>139255215.4289165</v>
+        <v>39448915.20042038</v>
       </c>
       <c r="I91" t="n">
-        <v>-2.615071800526862</v>
+        <v>0.4479326995542668</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -44119,30 +43889,30 @@
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45824</v>
+        <v>45825.5</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>152.684889859998</v>
+        <v>149.7137164524326</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>-1.945951174533213</v>
       </c>
       <c r="F92" t="n">
-        <v>1.283027756716137</v>
+        <v>-0.08954539725368704</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7699869916234197</v>
+        <v>0.7500060543267273</v>
       </c>
       <c r="H92" t="n">
-        <v>39448915.20042038</v>
+        <v>120488410.3288431</v>
       </c>
       <c r="I92" t="n">
-        <v>0.4479326995542668</v>
+        <v>-0.785500547355213</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -44161,30 +43931,30 @@
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45825.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>149.7137164524326</v>
+        <v>138.2975212491284</v>
       </c>
       <c r="E93" t="n">
-        <v>-1.945951174533213</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.08954539725368704</v>
+        <v>1.465737623887861</v>
       </c>
       <c r="G93" t="n">
-        <v>0.7500060543267273</v>
+        <v>0.4262068001799474</v>
       </c>
       <c r="H93" t="n">
-        <v>120488410.3288431</v>
+        <v>242908521.6263123</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.785500547355213</v>
+        <v>1.046555329430891</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -44203,30 +43973,30 @@
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>45831.5</v>
+        <v>45833</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>138.2975212491284</v>
+        <v>145.8019507474219</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>5.426293566589028</v>
       </c>
       <c r="F94" t="n">
-        <v>1.465737623887861</v>
+        <v>1.103990881357561</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4262068001799474</v>
+        <v>0.4852058450727492</v>
       </c>
       <c r="H94" t="n">
-        <v>242908521.6263123</v>
+        <v>-385180261.9674101</v>
       </c>
       <c r="I94" t="n">
-        <v>1.046555329430891</v>
+        <v>0.5889304347412592</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -44245,30 +44015,30 @@
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>45833</v>
+        <v>45847.5</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>145.8019507474219</v>
+        <v>154.5192779712486</v>
       </c>
       <c r="E95" t="n">
-        <v>5.426293566589028</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1.103990881357561</v>
+        <v>0.7434671489321829</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4852058450727492</v>
+        <v>0.4286572023045137</v>
       </c>
       <c r="H95" t="n">
-        <v>-385180261.9674101</v>
+        <v>152017852.9672332</v>
       </c>
       <c r="I95" t="n">
-        <v>0.5889304347412592</v>
+        <v>0.4573856054409207</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -44287,30 +44057,30 @@
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>45847.5</v>
+        <v>45850</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>154.5192779712486</v>
+        <v>162.7531939800279</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>5.328730574518625</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7434671489321829</v>
+        <v>-0.09816930072960872</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4286572023045137</v>
+        <v>0.5493024623146816</v>
       </c>
       <c r="H96" t="n">
-        <v>152017852.9672332</v>
+        <v>819165613.2711487</v>
       </c>
       <c r="I96" t="n">
-        <v>0.4573856054409207</v>
+        <v>-0.9181359943186705</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -44329,30 +44099,30 @@
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>45850</v>
+        <v>45854.5</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>162.7531939800279</v>
+        <v>168.8973976597816</v>
       </c>
       <c r="E97" t="n">
-        <v>5.328730574518625</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.09816930072960872</v>
+        <v>0.9529076831996406</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5493024623146816</v>
+        <v>0.3080356529969654</v>
       </c>
       <c r="H97" t="n">
-        <v>819165613.2711487</v>
+        <v>363484172.1708984</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.9181359943186705</v>
+        <v>1.037886069812958</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -44371,30 +44141,30 @@
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>45854.5</v>
+        <v>45857</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>168.8973976597816</v>
+        <v>177.3697987441575</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>5.016300548006248</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9529076831996406</v>
+        <v>-0.05041965603780341</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3080356529969654</v>
+        <v>0.4580487948758095</v>
       </c>
       <c r="H98" t="n">
-        <v>363484172.1708984</v>
+        <v>106943522.1245213</v>
       </c>
       <c r="I98" t="n">
-        <v>1.037886069812958</v>
+        <v>-0.8231368472783879</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -44413,30 +44183,30 @@
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>45857</v>
+        <v>45859.5</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>177.3697987441575</v>
+        <v>188.7080214820778</v>
       </c>
       <c r="E99" t="n">
-        <v>5.016300548006248</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.05041965603780341</v>
+        <v>1.448729120004572</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4580487948758095</v>
+        <v>0.5460092946348755</v>
       </c>
       <c r="H99" t="n">
-        <v>106943522.1245213</v>
+        <v>1196790537.933931</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.8231368472783879</v>
+        <v>1.467814160369153</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -44455,30 +44225,30 @@
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>45859.5</v>
+        <v>45861.5</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>188.7080214820778</v>
+        <v>197.4416043041564</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>4.628093047389662</v>
       </c>
       <c r="F100" t="n">
-        <v>1.448729120004572</v>
+        <v>-1.278829142734338</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5460092946348755</v>
+        <v>0.7803233709928494</v>
       </c>
       <c r="H100" t="n">
-        <v>1196790537.933931</v>
+        <v>-247154625.5567245</v>
       </c>
       <c r="I100" t="n">
-        <v>1.467814160369153</v>
+        <v>-2.482736487193457</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -44497,30 +44267,30 @@
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>45861.5</v>
+        <v>45873</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>197.4416043041564</v>
+        <v>161.9031238761136</v>
       </c>
       <c r="E101" t="n">
-        <v>4.628093047389662</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.278829142734338</v>
+        <v>0.8965741848762718</v>
       </c>
       <c r="G101" t="n">
-        <v>0.7803233709928494</v>
+        <v>0.1628689513299555</v>
       </c>
       <c r="H101" t="n">
-        <v>-247154625.5567245</v>
+        <v>63125581.14286613</v>
       </c>
       <c r="I101" t="n">
-        <v>-2.482736487193457</v>
+        <v>0.6018132905919181</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -44539,30 +44309,30 @@
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>45873</v>
+        <v>45876</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>161.9031238761136</v>
+        <v>168.1731958529984</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>3.872730696464233</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8965741848762718</v>
+        <v>0.8825248644789667</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1628689513299555</v>
+        <v>0.09265891896779066</v>
       </c>
       <c r="H102" t="n">
-        <v>63125581.14286613</v>
+        <v>-19304010.87688065</v>
       </c>
       <c r="I102" t="n">
-        <v>0.6018132905919181</v>
+        <v>0.688195873409026</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -44581,30 +44351,30 @@
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>45876</v>
+        <v>45876.5</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>168.1731958529984</v>
+        <v>171.7791719420661</v>
       </c>
       <c r="E103" t="n">
-        <v>3.872730696464233</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8825248644789667</v>
+        <v>1.343470910771885</v>
       </c>
       <c r="G103" t="n">
-        <v>0.09265891896779066</v>
+        <v>0.1982872596197892</v>
       </c>
       <c r="H103" t="n">
-        <v>-19304010.87688065</v>
+        <v>145344463.877244</v>
       </c>
       <c r="I103" t="n">
-        <v>0.688195873409026</v>
+        <v>0.9670763444983994</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -44623,30 +44393,30 @@
         </is>
       </c>
       <c r="B104" s="2" t="n">
-        <v>45876.5</v>
+        <v>45879</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>171.7791719420661</v>
+        <v>180.3863831264505</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>5.010625611402572</v>
       </c>
       <c r="F104" t="n">
-        <v>1.343470910771885</v>
+        <v>0.6087583391860676</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1982872596197892</v>
+        <v>0.5544921883407837</v>
       </c>
       <c r="H104" t="n">
-        <v>145344463.877244</v>
+        <v>-61223356.92051888</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9670763444983994</v>
+        <v>0.05765846399713145</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -44665,30 +44435,30 @@
         </is>
       </c>
       <c r="B105" s="2" t="n">
-        <v>45879</v>
+        <v>45881.5</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>180.3863831264505</v>
+        <v>183.8196271661214</v>
       </c>
       <c r="E105" t="n">
-        <v>5.010625611402572</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6087583391860676</v>
+        <v>0.8735127058517094</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5544921883407837</v>
+        <v>0.5867899793022362</v>
       </c>
       <c r="H105" t="n">
-        <v>-61223356.92051888</v>
+        <v>183741550.3164721</v>
       </c>
       <c r="I105" t="n">
-        <v>0.05765846399713145</v>
+        <v>0.2874923381548948</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -44707,30 +44477,30 @@
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>45881.5</v>
+        <v>45883.5</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>183.8196271661214</v>
+        <v>197.2877458967517</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>7.326812124615431</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8735127058517094</v>
+        <v>-0.2732464048213785</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5867899793022362</v>
+        <v>0.9216135721408265</v>
       </c>
       <c r="H106" t="n">
-        <v>183741550.3164721</v>
+        <v>532309274.5675869</v>
       </c>
       <c r="I106" t="n">
-        <v>0.2874923381548948</v>
+        <v>-1.080821783878068</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -44749,30 +44519,30 @@
         </is>
       </c>
       <c r="B107" s="2" t="n">
-        <v>45883.5</v>
+        <v>45890</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>197.2877458967517</v>
+        <v>187.2669439751863</v>
       </c>
       <c r="E107" t="n">
-        <v>7.326812124615431</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.2732464048213785</v>
+        <v>1.46011311142766</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9216135721408265</v>
+        <v>0.6915526211700941</v>
       </c>
       <c r="H107" t="n">
-        <v>532309274.5675869</v>
+        <v>125188177.4218864</v>
       </c>
       <c r="I107" t="n">
-        <v>-1.080821783878068</v>
+        <v>0.6153156561247117</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -44791,30 +44561,30 @@
         </is>
       </c>
       <c r="B108" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>187.2669439751863</v>
+        <v>180.2429705120617</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>-3.750781271923401</v>
       </c>
       <c r="F108" t="n">
-        <v>1.46011311142766</v>
+        <v>-0.5820512706725651</v>
       </c>
       <c r="G108" t="n">
-        <v>0.6915526211700941</v>
+        <v>0.6247109511466055</v>
       </c>
       <c r="H108" t="n">
-        <v>125188177.4218864</v>
+        <v>-64914223.07429504</v>
       </c>
       <c r="I108" t="n">
-        <v>0.6153156561247117</v>
+        <v>-0.9728286361008582</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -44833,30 +44603,30 @@
         </is>
       </c>
       <c r="B109" s="2" t="n">
-        <v>45891</v>
+        <v>45891.5</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>180.2429705120617</v>
+        <v>190.2517785062837</v>
       </c>
       <c r="E109" t="n">
-        <v>-3.750781271923401</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.5820512706725651</v>
+        <v>1.817461589893526</v>
       </c>
       <c r="G109" t="n">
-        <v>0.6247109511466055</v>
+        <v>0.6507566498541996</v>
       </c>
       <c r="H109" t="n">
-        <v>-64914223.07429504</v>
+        <v>485958820.2321587</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.9728286361008582</v>
+        <v>0.9252517649035802</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -44875,30 +44645,30 @@
         </is>
       </c>
       <c r="B110" s="2" t="n">
-        <v>45891.5</v>
+        <v>45893</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>190.2517785062837</v>
+        <v>204.0193160962218</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>7.236482990083299</v>
       </c>
       <c r="F110" t="n">
-        <v>1.817461589893526</v>
+        <v>1.38841251637561</v>
       </c>
       <c r="G110" t="n">
-        <v>0.6507566498541996</v>
+        <v>0.8399819719933563</v>
       </c>
       <c r="H110" t="n">
-        <v>485958820.2321587</v>
+        <v>-181027060.1196022</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9252517649035802</v>
+        <v>0.3882032273385686</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -44917,30 +44687,30 @@
         </is>
       </c>
       <c r="B111" s="2" t="n">
-        <v>45893</v>
+        <v>45896.5</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>204.0193160962218</v>
+        <v>199.6396072805956</v>
       </c>
       <c r="E111" t="n">
-        <v>7.236482990083299</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>1.38841251637561</v>
+        <v>0.8207701734949922</v>
       </c>
       <c r="G111" t="n">
-        <v>0.8399819719933563</v>
+        <v>0.7480853572349653</v>
       </c>
       <c r="H111" t="n">
-        <v>-181027060.1196022</v>
+        <v>14486734.71739578</v>
       </c>
       <c r="I111" t="n">
-        <v>0.3882032273385686</v>
+        <v>0.04602366081371173</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -44959,30 +44729,30 @@
         </is>
       </c>
       <c r="B112" s="2" t="n">
-        <v>45896.5</v>
+        <v>45898.5</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>199.6396072805956</v>
+        <v>209.8164711703309</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>5.097617666333936</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8207701734949922</v>
+        <v>-0.129704015575669</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7480853572349653</v>
+        <v>0.6890168067053875</v>
       </c>
       <c r="H112" t="n">
-        <v>14486734.71739578</v>
+        <v>63743123.29690361</v>
       </c>
       <c r="I112" t="n">
-        <v>0.04602366081371173</v>
+        <v>-0.534434242974223</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -45001,30 +44771,30 @@
         </is>
       </c>
       <c r="B113" s="2" t="n">
-        <v>45898.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>209.8164711703309</v>
+        <v>203.0570933347734</v>
       </c>
       <c r="E113" t="n">
-        <v>5.097617666333936</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.129704015575669</v>
+        <v>0.7397873634518248</v>
       </c>
       <c r="G113" t="n">
-        <v>0.6890168067053875</v>
+        <v>0.6971264631745421</v>
       </c>
       <c r="H113" t="n">
-        <v>63743123.29690361</v>
+        <v>394540989.0636425</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.534434242974223</v>
+        <v>0.0285330892339561</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -45043,30 +44813,30 @@
         </is>
       </c>
       <c r="B114" s="2" t="n">
-        <v>45902.5</v>
+        <v>45904</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>203.0570933347734</v>
+        <v>210.678785187558</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>3.753472349876964</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7397873634518248</v>
+        <v>0.6664767776373992</v>
       </c>
       <c r="G114" t="n">
-        <v>0.6971264631745421</v>
+        <v>0.9439840146599047</v>
       </c>
       <c r="H114" t="n">
-        <v>394540989.0636425</v>
+        <v>-123311821.3687286</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0285330892339561</v>
+        <v>-0.1915524898901692</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -45081,43 +44851,43 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="B115" s="2" t="n">
-        <v>45904</v>
+        <v>45818</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>210.678785187558</v>
+        <v>3.448180544903279</v>
       </c>
       <c r="E115" t="n">
-        <v>3.753472349876964</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6664767776373992</v>
+        <v>0.03981502164771378</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9439840146599047</v>
+        <v>0.03371639417495511</v>
       </c>
       <c r="H115" t="n">
-        <v>-123311821.3687286</v>
+        <v>27869864.01945925</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.1915524898901692</v>
+        <v>0.4959036859298581</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="L115" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
@@ -45127,30 +44897,30 @@
         </is>
       </c>
       <c r="B116" s="2" t="n">
-        <v>45818</v>
+        <v>45819.5</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3.448180544903279</v>
+        <v>3.442110792159652</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>-0.1760276953188756</v>
       </c>
       <c r="F116" t="n">
-        <v>0.03981502164771378</v>
+        <v>-0.003951212490850953</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03371639417495511</v>
+        <v>0.03016057922852189</v>
       </c>
       <c r="H116" t="n">
-        <v>27869864.01945925</v>
+        <v>14399960.10576737</v>
       </c>
       <c r="I116" t="n">
-        <v>0.4959036859298581</v>
+        <v>-2.387824431059597</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -45169,30 +44939,30 @@
         </is>
       </c>
       <c r="B117" s="2" t="n">
-        <v>45819.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3.442110792159652</v>
+        <v>2.639797050711826</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.1760276953188756</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.003951212490850953</v>
+        <v>0.04183781082573113</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03016057922852189</v>
+        <v>0.006742674953435171</v>
       </c>
       <c r="H117" t="n">
-        <v>14399960.10576737</v>
+        <v>89980587.56398237</v>
       </c>
       <c r="I117" t="n">
-        <v>-2.387824431059597</v>
+        <v>1.610048167171401</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -45211,30 +44981,30 @@
         </is>
       </c>
       <c r="B118" s="2" t="n">
-        <v>45831.5</v>
+        <v>45834</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2.639797050711826</v>
+        <v>2.72730318727156</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>3.314881215438036</v>
       </c>
       <c r="F118" t="n">
-        <v>0.04183781082573113</v>
+        <v>-0.002712507077002435</v>
       </c>
       <c r="G118" t="n">
-        <v>0.006742674953435171</v>
+        <v>0.008862531832675952</v>
       </c>
       <c r="H118" t="n">
-        <v>89980587.56398237</v>
+        <v>-81484374.0798595</v>
       </c>
       <c r="I118" t="n">
-        <v>1.610048167171401</v>
+        <v>-0.4677180526579662</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -45253,30 +45023,30 @@
         </is>
       </c>
       <c r="B119" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2.72730318727156</v>
+        <v>2.904015318956288</v>
       </c>
       <c r="E119" t="n">
-        <v>3.314881215438036</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.002712507077002435</v>
+        <v>0.02183322009556132</v>
       </c>
       <c r="G119" t="n">
-        <v>0.008862531832675952</v>
+        <v>0.01654738988179377</v>
       </c>
       <c r="H119" t="n">
-        <v>-81484374.0798595</v>
+        <v>15654102.80676925</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.4677180526579662</v>
+        <v>0.2524638216344218</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -45295,30 +45065,30 @@
         </is>
       </c>
       <c r="B120" s="2" t="n">
-        <v>45838</v>
+        <v>45838.5</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2.904015318956288</v>
+        <v>2.840682295224735</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>-2.180877742556667</v>
       </c>
       <c r="F120" t="n">
-        <v>0.02183322009556132</v>
+        <v>-0.002662626897215414</v>
       </c>
       <c r="G120" t="n">
-        <v>0.01654738988179377</v>
+        <v>0.01653432568855524</v>
       </c>
       <c r="H120" t="n">
-        <v>15654102.80676925</v>
+        <v>21030823.2830956</v>
       </c>
       <c r="I120" t="n">
-        <v>0.2524638216344218</v>
+        <v>-0.9165887909252122</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -45337,30 +45107,30 @@
         </is>
       </c>
       <c r="B121" s="2" t="n">
-        <v>45838.5</v>
+        <v>45841</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2.840682295224735</v>
+        <v>2.901781662278681</v>
       </c>
       <c r="E121" t="n">
-        <v>-2.180877742556667</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.002662626897215414</v>
+        <v>0.03002610722488885</v>
       </c>
       <c r="G121" t="n">
-        <v>0.01653432568855524</v>
+        <v>0.01625599071612573</v>
       </c>
       <c r="H121" t="n">
-        <v>21030823.2830956</v>
+        <v>77757892.34597266</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.9165887909252122</v>
+        <v>0.6112195890263704</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -45379,30 +45149,30 @@
         </is>
       </c>
       <c r="B122" s="2" t="n">
-        <v>45841</v>
+        <v>45842.5</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>2.901781662278681</v>
+        <v>2.948030283362101</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1.593800859817344</v>
       </c>
       <c r="F122" t="n">
-        <v>0.03002610722488885</v>
+        <v>-0.002894130860745747</v>
       </c>
       <c r="G122" t="n">
-        <v>0.01625599071612573</v>
+        <v>0.01841680381352211</v>
       </c>
       <c r="H122" t="n">
-        <v>77757892.34597266</v>
+        <v>-15515471.36306214</v>
       </c>
       <c r="I122" t="n">
-        <v>0.6112195890263704</v>
+        <v>-0.9208583124039166</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -45421,30 +45191,30 @@
         </is>
       </c>
       <c r="B123" s="2" t="n">
-        <v>45842.5</v>
+        <v>45847.5</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2.948030283362101</v>
+        <v>2.989341953662318</v>
       </c>
       <c r="E123" t="n">
-        <v>1.593800859817344</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.002894130860745747</v>
+        <v>0.01961539419127201</v>
       </c>
       <c r="G123" t="n">
-        <v>0.01841680381352211</v>
+        <v>0.01086974279211781</v>
       </c>
       <c r="H123" t="n">
-        <v>-15515471.36306214</v>
+        <v>31512729.20528746</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.9208583124039166</v>
+        <v>0.5210790669077608</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -45463,30 +45233,30 @@
         </is>
       </c>
       <c r="B124" s="2" t="n">
-        <v>45847.5</v>
+        <v>45850</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2.989341953662318</v>
+        <v>3.390990124062747</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>13.4360062055918</v>
       </c>
       <c r="F124" t="n">
-        <v>0.01961539419127201</v>
+        <v>-0.005298780336316256</v>
       </c>
       <c r="G124" t="n">
-        <v>0.01086974279211781</v>
+        <v>0.01980943221332659</v>
       </c>
       <c r="H124" t="n">
-        <v>31512729.20528746</v>
+        <v>68944527.01943159</v>
       </c>
       <c r="I124" t="n">
-        <v>0.5210790669077608</v>
+        <v>-1.116084835640091</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -45505,30 +45275,30 @@
         </is>
       </c>
       <c r="B125" s="2" t="n">
-        <v>45850</v>
+        <v>45852.5</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3.390990124062747</v>
+        <v>3.683926741045178</v>
       </c>
       <c r="E125" t="n">
-        <v>13.4360062055918</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.005298780336316256</v>
+        <v>0.03223991813223082</v>
       </c>
       <c r="G125" t="n">
-        <v>0.01980943221332659</v>
+        <v>0.0174786303959788</v>
       </c>
       <c r="H125" t="n">
-        <v>68944527.01943159</v>
+        <v>155546537.289438</v>
       </c>
       <c r="I125" t="n">
-        <v>-1.116084835640091</v>
+        <v>0.6359143180027503</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -45547,30 +45317,30 @@
         </is>
       </c>
       <c r="B126" s="2" t="n">
-        <v>45852.5</v>
+        <v>45854.5</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3.683926741045178</v>
+        <v>4.014209482374916</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>8.965507854698341</v>
       </c>
       <c r="F126" t="n">
-        <v>0.03223991813223082</v>
+        <v>-0.008716362203505135</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0174786303959788</v>
+        <v>0.0225673336826788</v>
       </c>
       <c r="H126" t="n">
-        <v>155546537.289438</v>
+        <v>-107910826.0207388</v>
       </c>
       <c r="I126" t="n">
-        <v>0.6359143180027503</v>
+        <v>-1.276298434438615</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -45589,30 +45359,30 @@
         </is>
       </c>
       <c r="B127" s="2" t="n">
-        <v>45854.5</v>
+        <v>45863.5</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>4.014209482374916</v>
+        <v>3.828341938941208</v>
       </c>
       <c r="E127" t="n">
-        <v>8.965507854698341</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.008716362203505135</v>
+        <v>0.01460148439970288</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0225673336826788</v>
+        <v>0.01011139265418987</v>
       </c>
       <c r="H127" t="n">
-        <v>-107910826.0207388</v>
+        <v>49787626.47348094</v>
       </c>
       <c r="I127" t="n">
-        <v>-1.276298434438615</v>
+        <v>0.1511849910156428</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -45631,30 +45401,30 @@
         </is>
       </c>
       <c r="B128" s="2" t="n">
-        <v>45863.5</v>
+        <v>45866.5</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3.828341938941208</v>
+        <v>4.110951732521133</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>7.382041575368913</v>
       </c>
       <c r="F128" t="n">
-        <v>0.01460148439970288</v>
+        <v>-0.03127095785801615</v>
       </c>
       <c r="G128" t="n">
-        <v>0.01011139265418987</v>
+        <v>0.01449865996142518</v>
       </c>
       <c r="H128" t="n">
-        <v>49787626.47348094</v>
+        <v>34963414.72724485</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1511849910156428</v>
+        <v>-1.45195843541582</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -45673,30 +45443,30 @@
         </is>
       </c>
       <c r="B129" s="2" t="n">
-        <v>45866.5</v>
+        <v>45873.5</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>4.110951732521133</v>
+        <v>3.518317461946312</v>
       </c>
       <c r="E129" t="n">
-        <v>7.382041575368913</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.03127095785801615</v>
+        <v>0.03727759366966676</v>
       </c>
       <c r="G129" t="n">
-        <v>0.01449865996142518</v>
+        <v>0.008244171557714383</v>
       </c>
       <c r="H129" t="n">
-        <v>34963414.72724485</v>
+        <v>5326295.696876287</v>
       </c>
       <c r="I129" t="n">
-        <v>-1.45195843541582</v>
+        <v>0.9412868594891127</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -45715,30 +45485,30 @@
         </is>
       </c>
       <c r="B130" s="2" t="n">
-        <v>45873.5</v>
+        <v>45875</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3.518317461946312</v>
+        <v>3.410582823750509</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>-3.062106798520793</v>
       </c>
       <c r="F130" t="n">
-        <v>0.03727759366966676</v>
+        <v>-0.009806296901604838</v>
       </c>
       <c r="G130" t="n">
-        <v>0.008244171557714383</v>
+        <v>0.01020624545019599</v>
       </c>
       <c r="H130" t="n">
-        <v>5326295.696876287</v>
+        <v>-6532813.983025312</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9412868594891127</v>
+        <v>-0.6217913569811816</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -45757,30 +45527,30 @@
         </is>
       </c>
       <c r="B131" s="2" t="n">
-        <v>45875</v>
+        <v>45876.5</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3.410582823750509</v>
+        <v>3.63438601332124</v>
       </c>
       <c r="E131" t="n">
-        <v>-3.062106798520793</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.009806296901604838</v>
+        <v>0.04086867729249244</v>
       </c>
       <c r="G131" t="n">
-        <v>0.01020624545019599</v>
+        <v>0.01369132959287839</v>
       </c>
       <c r="H131" t="n">
-        <v>-6532813.983025312</v>
+        <v>65700955.2067585</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.6217913569811816</v>
+        <v>0.820211596322992</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -45799,30 +45569,30 @@
         </is>
       </c>
       <c r="B132" s="2" t="n">
-        <v>45876.5</v>
+        <v>45878.5</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3.63438601332124</v>
+        <v>3.871665842458039</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>6.528745935822165</v>
       </c>
       <c r="F132" t="n">
-        <v>0.04086867729249244</v>
+        <v>0.01793314471899521</v>
       </c>
       <c r="G132" t="n">
-        <v>0.01369132959287839</v>
+        <v>0.0212460779422922</v>
       </c>
       <c r="H132" t="n">
-        <v>65700955.2067585</v>
+        <v>-13939765.97608757</v>
       </c>
       <c r="I132" t="n">
-        <v>0.820211596322992</v>
+        <v>-0.09855673219482076</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -45841,30 +45611,30 @@
         </is>
       </c>
       <c r="B133" s="2" t="n">
-        <v>45878.5</v>
+        <v>45882</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3.871665842458039</v>
+        <v>3.886979731632727</v>
       </c>
       <c r="E133" t="n">
-        <v>6.528745935822165</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.01793314471899521</v>
+        <v>0.01998194327193348</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0212460779422922</v>
+        <v>0.01372690576422696</v>
       </c>
       <c r="H133" t="n">
-        <v>-13939765.97608757</v>
+        <v>71444318.80472779</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.09855673219482076</v>
+        <v>0.2189981784162014</v>
       </c>
       <c r="J133" t="n">
         <v>1</v>
@@ -45883,30 +45653,30 @@
         </is>
       </c>
       <c r="B134" s="2" t="n">
-        <v>45882</v>
+        <v>45883.5</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3.886979731632727</v>
+        <v>3.891363173736707</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>0.1127724456165</v>
       </c>
       <c r="F134" t="n">
-        <v>0.01998194327193348</v>
+        <v>-0.01671517853205939</v>
       </c>
       <c r="G134" t="n">
-        <v>0.01372690576422696</v>
+        <v>0.01738847060569269</v>
       </c>
       <c r="H134" t="n">
-        <v>71444318.80472779</v>
+        <v>114544293.2317266</v>
       </c>
       <c r="I134" t="n">
-        <v>0.2189981784162014</v>
+        <v>-1.316524332507242</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -45925,30 +45695,30 @@
         </is>
       </c>
       <c r="B135" s="2" t="n">
-        <v>45883.5</v>
+        <v>45891.5</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>3.891363173736707</v>
+        <v>3.584763402876916</v>
       </c>
       <c r="E135" t="n">
-        <v>0.1127724456165</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.01671517853205939</v>
+        <v>0.0344409891036026</v>
       </c>
       <c r="G135" t="n">
-        <v>0.01738847060569269</v>
+        <v>0.01086750182150541</v>
       </c>
       <c r="H135" t="n">
-        <v>114544293.2317266</v>
+        <v>100956195.7082858</v>
       </c>
       <c r="I135" t="n">
-        <v>-1.316524332507242</v>
+        <v>0.9351392064434439</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -45967,30 +45737,30 @@
         </is>
       </c>
       <c r="B136" s="2" t="n">
-        <v>45891.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3.584763402876916</v>
+        <v>3.746666312960748</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>4.516418292875305</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0344409891036026</v>
+        <v>0.03300538130413555</v>
       </c>
       <c r="G136" t="n">
-        <v>0.01086750182150541</v>
+        <v>0.01108359169032185</v>
       </c>
       <c r="H136" t="n">
-        <v>100956195.7082858</v>
+        <v>-673203.3627033234</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9351392064434439</v>
+        <v>0.8596713854438325</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
@@ -46009,30 +45779,30 @@
         </is>
       </c>
       <c r="B137" s="2" t="n">
-        <v>45892.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3.746666312960748</v>
+        <v>3.254698811423597</v>
       </c>
       <c r="E137" t="n">
-        <v>4.516418292875305</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.03300538130413555</v>
+        <v>0.01526081595403905</v>
       </c>
       <c r="G137" t="n">
-        <v>0.01108359169032185</v>
+        <v>0.009608103936944733</v>
       </c>
       <c r="H137" t="n">
-        <v>-673203.3627033234</v>
+        <v>35543612.66707575</v>
       </c>
       <c r="I137" t="n">
-        <v>0.8596713854438325</v>
+        <v>0.2386742417693535</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
@@ -46051,30 +45821,30 @@
         </is>
       </c>
       <c r="B138" s="2" t="n">
-        <v>45902.5</v>
+        <v>45903</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3.254698811423597</v>
+        <v>3.3176143802287</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1.933068847546732</v>
       </c>
       <c r="F138" t="n">
-        <v>0.01526081595403905</v>
+        <v>0.02578299132036044</v>
       </c>
       <c r="G138" t="n">
-        <v>0.009608103936944733</v>
+        <v>0.0114033364713854</v>
       </c>
       <c r="H138" t="n">
-        <v>35543612.66707575</v>
+        <v>-24664725.21943486</v>
       </c>
       <c r="I138" t="n">
-        <v>0.2386742417693535</v>
+        <v>0.606203169437354</v>
       </c>
       <c r="J138" t="n">
         <v>1</v>
@@ -46093,30 +45863,30 @@
         </is>
       </c>
       <c r="B139" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3.3176143802287</v>
+        <v>3.384090214867991</v>
       </c>
       <c r="E139" t="n">
-        <v>1.933068847546732</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.02578299132036044</v>
+        <v>0.02298326709189347</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0114033364713854</v>
+        <v>0.01469458150718902</v>
       </c>
       <c r="H139" t="n">
-        <v>-24664725.21943486</v>
+        <v>7035208.983371139</v>
       </c>
       <c r="I139" t="n">
-        <v>0.606203169437354</v>
+        <v>0.3671472848230366</v>
       </c>
       <c r="J139" t="n">
         <v>1</v>
@@ -46131,11 +45901,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="B140" s="2" t="n">
-        <v>45904</v>
+        <v>45818.5</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -46143,22 +45913,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3.384090214867991</v>
+        <v>0.289538228498934</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.02298326709189347</v>
+        <v>0.0004950265718572933</v>
       </c>
       <c r="G140" t="n">
-        <v>0.01469458150718902</v>
+        <v>0.0004606653018786772</v>
       </c>
       <c r="H140" t="n">
-        <v>7035208.983371139</v>
+        <v>25890360.33614469</v>
       </c>
       <c r="I140" t="n">
-        <v>0.3671472848230366</v>
+        <v>0.05630839927583899</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -46173,34 +45943,34 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="B141" s="2" t="n">
-        <v>45904.04166666666</v>
+        <v>45819.5</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3.370929063768648</v>
+        <v>0.2855113648464671</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.3889125367142985</v>
+        <v>-1.39078824697642</v>
       </c>
       <c r="F141" t="n">
-        <v>0.01137885242074566</v>
+        <v>-0.001209285545087424</v>
       </c>
       <c r="G141" t="n">
-        <v>0.01512015138389753</v>
+        <v>0.0004124388637410923</v>
       </c>
       <c r="H141" t="n">
-        <v>-4114239.6602422</v>
+        <v>35761043.92233562</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.1654989292944456</v>
+        <v>-2.287124997371691</v>
       </c>
       <c r="J141" t="n">
         <v>1</v>
@@ -46219,7 +45989,7 @@
         </is>
       </c>
       <c r="B142" s="2" t="n">
-        <v>45818.5</v>
+        <v>45824.5</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -46227,22 +45997,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.289538228498934</v>
+        <v>0.2745675775082441</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0004950265718572933</v>
+        <v>0.0007012246525400223</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0004606653018786772</v>
+        <v>0.0002234798560014394</v>
       </c>
       <c r="H142" t="n">
-        <v>25890360.33614469</v>
+        <v>122875773.3359403</v>
       </c>
       <c r="I142" t="n">
-        <v>0.05630839927583899</v>
+        <v>0.4668412698768934</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -46261,7 +46031,7 @@
         </is>
       </c>
       <c r="B143" s="2" t="n">
-        <v>45819.5</v>
+        <v>45826</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -46269,22 +46039,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.2855113648464671</v>
+        <v>0.2717577802149598</v>
       </c>
       <c r="E143" t="n">
-        <v>-1.39078824697642</v>
+        <v>-1.023353638031032</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.001209285545087424</v>
+        <v>-0.0002608337020795215</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0004124388637410923</v>
+        <v>0.0002544657948043504</v>
       </c>
       <c r="H143" t="n">
-        <v>35761043.92233562</v>
+        <v>-54876504.35671616</v>
       </c>
       <c r="I143" t="n">
-        <v>-2.287124997371691</v>
+        <v>-0.5300433267033863</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -46303,7 +46073,7 @@
         </is>
       </c>
       <c r="B144" s="2" t="n">
-        <v>45824.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -46311,22 +46081,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.2745675775082441</v>
+        <v>0.268317425423677</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0007012246525400223</v>
+        <v>0.0004792505964680838</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0002234798560014394</v>
+        <v>0.0001689477463288635</v>
       </c>
       <c r="H144" t="n">
-        <v>122875773.3359403</v>
+        <v>41912908.66840923</v>
       </c>
       <c r="I144" t="n">
-        <v>0.4668412698768934</v>
+        <v>0.3648282158630511</v>
       </c>
       <c r="J144" t="n">
         <v>1</v>
@@ -46345,30 +46115,30 @@
         </is>
       </c>
       <c r="B145" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.2717577802149598</v>
+        <v>0.2739217753188412</v>
       </c>
       <c r="E145" t="n">
-        <v>-1.023353638031032</v>
+        <v>2.088701427540469</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.0002608337020795215</v>
+        <v>0.0006753170417337362</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0002544657948043504</v>
+        <v>0.0003212224509009004</v>
       </c>
       <c r="H145" t="n">
-        <v>-54876504.35671616</v>
+        <v>-88421202.15764666</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.5300433267033863</v>
+        <v>0.3819310275299839</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -46387,7 +46157,7 @@
         </is>
       </c>
       <c r="B146" s="2" t="n">
-        <v>45831.5</v>
+        <v>45838.5</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -46395,22 +46165,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.268317425423677</v>
+        <v>0.2783606128535416</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0004792505964680838</v>
+        <v>0.0004818282970026067</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0001689477463288635</v>
+        <v>0.0004425924368545582</v>
       </c>
       <c r="H146" t="n">
-        <v>41912908.66840923</v>
+        <v>19150811.36726099</v>
       </c>
       <c r="I146" t="n">
-        <v>0.3648282158630511</v>
+        <v>0.07672799712512279</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -46429,30 +46199,30 @@
         </is>
       </c>
       <c r="B147" s="2" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.2739217753188412</v>
+        <v>0.2787627479884452</v>
       </c>
       <c r="E147" t="n">
-        <v>2.088701427540469</v>
+        <v>0.1444655300839029</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0006753170417337362</v>
+        <v>-0.0001861168488541676</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0003212224509009004</v>
+        <v>0.0003751554182403821</v>
       </c>
       <c r="H147" t="n">
-        <v>-88421202.15764666</v>
+        <v>6845472.678718626</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3819310275299839</v>
+        <v>-1.146931054505869</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
@@ -46471,7 +46241,7 @@
         </is>
       </c>
       <c r="B148" s="2" t="n">
-        <v>45838.5</v>
+        <v>45840.5</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -46479,22 +46249,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.2783606128535416</v>
+        <v>0.2817584964143807</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0004818282970026067</v>
+        <v>0.0004133711488161218</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0004425924368545582</v>
+        <v>0.0003879141297694803</v>
       </c>
       <c r="H148" t="n">
-        <v>19150811.36726099</v>
+        <v>18426559.55366075</v>
       </c>
       <c r="I148" t="n">
-        <v>0.07672799712512279</v>
+        <v>0.05175159245296774</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -46513,7 +46283,7 @@
         </is>
       </c>
       <c r="B149" s="2" t="n">
-        <v>45840</v>
+        <v>45842.5</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -46521,22 +46291,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.2787627479884452</v>
+        <v>0.2847070033553019</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1444655300839029</v>
+        <v>1.046466026204506</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.0001861168488541676</v>
+        <v>-0.0004483053166401962</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0003751554182403821</v>
+        <v>0.0004251961872640994</v>
       </c>
       <c r="H149" t="n">
-        <v>6845472.678718626</v>
+        <v>3507873.517659843</v>
       </c>
       <c r="I149" t="n">
-        <v>-1.146931054505869</v>
+        <v>-1.698588758090974</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -46555,7 +46325,7 @@
         </is>
       </c>
       <c r="B150" s="2" t="n">
-        <v>45840.5</v>
+        <v>45848.5</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -46563,22 +46333,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.2817584964143807</v>
+        <v>0.2917647951343454</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0004133711488161218</v>
+        <v>0.000389241492383452</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0003879141297694803</v>
+        <v>0.00027451785540247</v>
       </c>
       <c r="H150" t="n">
-        <v>18426559.55366075</v>
+        <v>76806050.4770695</v>
       </c>
       <c r="I150" t="n">
-        <v>0.05175159245296774</v>
+        <v>0.3090944257555269</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -46597,7 +46367,7 @@
         </is>
       </c>
       <c r="B151" s="2" t="n">
-        <v>45842.5</v>
+        <v>45851.5</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -46605,22 +46375,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.2847070033553019</v>
+        <v>0.302735538596902</v>
       </c>
       <c r="E151" t="n">
-        <v>1.046466026204506</v>
+        <v>3.76013269781402</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.0004483053166401962</v>
+        <v>-7.253142696866943e-05</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0004251961872640994</v>
+        <v>0.0004073284929714106</v>
       </c>
       <c r="H151" t="n">
-        <v>3507873.517659843</v>
+        <v>-161793471.8767972</v>
       </c>
       <c r="I151" t="n">
-        <v>-1.698588758090974</v>
+        <v>-1.111565159428154</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
@@ -46639,7 +46409,7 @@
         </is>
       </c>
       <c r="B152" s="2" t="n">
-        <v>45848.5</v>
+        <v>45855.5</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -46647,22 +46417,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.2917647951343454</v>
+        <v>0.3125877657923776</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.000389241492383452</v>
+        <v>0.001046918493308902</v>
       </c>
       <c r="G152" t="n">
-        <v>0.00027451785540247</v>
+        <v>0.0003745138011004341</v>
       </c>
       <c r="H152" t="n">
-        <v>76806050.4770695</v>
+        <v>139523489.3454525</v>
       </c>
       <c r="I152" t="n">
-        <v>0.3090944257555269</v>
+        <v>1.206153664900009</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -46681,7 +46451,7 @@
         </is>
       </c>
       <c r="B153" s="2" t="n">
-        <v>45851.5</v>
+        <v>45857.5</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -46689,22 +46459,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.302735538596902</v>
+        <v>0.3218198585060033</v>
       </c>
       <c r="E153" t="n">
-        <v>3.76013269781402</v>
+        <v>2.953440193100081</v>
       </c>
       <c r="F153" t="n">
-        <v>-7.253142696866943e-05</v>
+        <v>-0.0003647549429432462</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0004073284929714106</v>
+        <v>0.0005039970051228476</v>
       </c>
       <c r="H153" t="n">
-        <v>-161793471.8767972</v>
+        <v>-128924121.95717</v>
       </c>
       <c r="I153" t="n">
-        <v>-1.111565159428154</v>
+        <v>-1.320841953833646</v>
       </c>
       <c r="J153" t="n">
         <v>1</v>
@@ -46723,7 +46493,7 @@
         </is>
       </c>
       <c r="B154" s="2" t="n">
-        <v>45855.5</v>
+        <v>45867.5</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -46731,22 +46501,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.3125877657923776</v>
+        <v>0.3300358571220755</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.001046918493308902</v>
+        <v>0.001631556135825274</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0003745138011004341</v>
+        <v>0.0004192706097844234</v>
       </c>
       <c r="H154" t="n">
-        <v>139523489.3454525</v>
+        <v>247085363.7363601</v>
       </c>
       <c r="I154" t="n">
-        <v>1.206153664900009</v>
+        <v>1.338721173482782</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -46765,7 +46535,7 @@
         </is>
       </c>
       <c r="B155" s="2" t="n">
-        <v>45857.5</v>
+        <v>45869</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -46773,22 +46543,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.3218198585060033</v>
+        <v>0.3275810251017437</v>
       </c>
       <c r="E155" t="n">
-        <v>2.953440193100081</v>
+        <v>-0.7438076703961906</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.0003647549429432462</v>
+        <v>-0.001366494334261004</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0005039970051228476</v>
+        <v>0.0005812772026898604</v>
       </c>
       <c r="H155" t="n">
-        <v>-128924121.95717</v>
+        <v>-138895958.7567077</v>
       </c>
       <c r="I155" t="n">
-        <v>-1.320841953833646</v>
+        <v>-1.92004513921978</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -46807,7 +46577,7 @@
         </is>
       </c>
       <c r="B156" s="2" t="n">
-        <v>45867.5</v>
+        <v>45874.5</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -46815,22 +46585,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.3300358571220755</v>
+        <v>0.3331680746835551</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.001631556135825274</v>
+        <v>0.0005201611277014795</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0004192706097844234</v>
+        <v>0.000440875462689942</v>
       </c>
       <c r="H156" t="n">
-        <v>247085363.7363601</v>
+        <v>47462570.01715088</v>
       </c>
       <c r="I156" t="n">
-        <v>1.338721173482782</v>
+        <v>0.08845432985743126</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -46849,7 +46619,7 @@
         </is>
       </c>
       <c r="B157" s="2" t="n">
-        <v>45869</v>
+        <v>45877.5</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -46857,22 +46627,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.3275810251017437</v>
+        <v>0.3382871402130892</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.7438076703961906</v>
+        <v>1.536481409389594</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.001366494334261004</v>
+        <v>-0.0001952183200799595</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0005812772026898604</v>
+        <v>0.0005656384487872867</v>
       </c>
       <c r="H157" t="n">
-        <v>-138895958.7567077</v>
+        <v>54576851.24660683</v>
       </c>
       <c r="I157" t="n">
-        <v>-1.92004513921978</v>
+        <v>-0.9156128867775538</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
@@ -46891,7 +46661,7 @@
         </is>
       </c>
       <c r="B158" s="2" t="n">
-        <v>45874.5</v>
+        <v>45880.5</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -46899,22 +46669,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.3331680746835551</v>
+        <v>0.3418650094309428</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0005201611277014795</v>
+        <v>0.0006705060844198196</v>
       </c>
       <c r="G158" t="n">
-        <v>0.000440875462689942</v>
+        <v>0.0004415926009874527</v>
       </c>
       <c r="H158" t="n">
-        <v>47462570.01715088</v>
+        <v>43309713.16087949</v>
       </c>
       <c r="I158" t="n">
-        <v>0.08845432985743126</v>
+        <v>0.2678619275471007</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
@@ -46933,7 +46703,7 @@
         </is>
       </c>
       <c r="B159" s="2" t="n">
-        <v>45877.5</v>
+        <v>45884</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -46941,22 +46711,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.3382871402130892</v>
+        <v>0.3584784483629515</v>
       </c>
       <c r="E159" t="n">
-        <v>1.536481409389594</v>
+        <v>4.859648830297917</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.0001952183200799595</v>
+        <v>-0.0007240318028570725</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0005656384487872867</v>
+        <v>0.0005079869532538242</v>
       </c>
       <c r="H159" t="n">
-        <v>54576851.24660683</v>
+        <v>181200952.1556191</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.9156128867775538</v>
+        <v>-1.520083455083172</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -46975,7 +46745,7 @@
         </is>
       </c>
       <c r="B160" s="2" t="n">
-        <v>45880.5</v>
+        <v>45890</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -46983,22 +46753,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.3418650094309428</v>
+        <v>0.3543091308054578</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0006705060844198196</v>
+        <v>0.0008001595011584706</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0004415926009874527</v>
+        <v>0.0003622194414516559</v>
       </c>
       <c r="H160" t="n">
-        <v>43309713.16087949</v>
+        <v>4268879.132735491</v>
       </c>
       <c r="I160" t="n">
-        <v>0.2678619275471007</v>
+        <v>0.4851646291855036</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
@@ -47017,30 +46787,30 @@
         </is>
       </c>
       <c r="B161" s="2" t="n">
-        <v>45884</v>
+        <v>45890.5</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.3584784483629515</v>
+        <v>0.3538682207719828</v>
       </c>
       <c r="E161" t="n">
-        <v>4.859648830297917</v>
+        <v>-0.1244421876661048</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.0007240318028570725</v>
+        <v>0.0003318298819959264</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0005079869532538242</v>
+        <v>0.0003614236803113684</v>
       </c>
       <c r="H161" t="n">
-        <v>181200952.1556191</v>
+        <v>-9422721.69231081</v>
       </c>
       <c r="I161" t="n">
-        <v>-1.520083455083172</v>
+        <v>-0.03279644909166145</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
@@ -47059,7 +46829,7 @@
         </is>
       </c>
       <c r="B162" s="2" t="n">
-        <v>45890</v>
+        <v>45891.5</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -47067,22 +46837,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.3543091308054578</v>
+        <v>0.3599039170145206</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0008001595011584706</v>
+        <v>0.001316665978542186</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0003622194414516559</v>
+        <v>0.0004015124717145222</v>
       </c>
       <c r="H162" t="n">
-        <v>4268879.132735491</v>
+        <v>26699893.59009409</v>
       </c>
       <c r="I162" t="n">
-        <v>0.4851646291855036</v>
+        <v>0.980816928118552</v>
       </c>
       <c r="J162" t="n">
         <v>1</v>
@@ -47101,7 +46871,7 @@
         </is>
       </c>
       <c r="B163" s="2" t="n">
-        <v>45890.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -47109,22 +46879,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.3538682207719828</v>
+        <v>0.3643294283113314</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.1244421876661048</v>
+        <v>1.229636880176617</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0003318298819959264</v>
+        <v>0.0005444088909913325</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0003614236803113684</v>
+        <v>0.0005297146808586746</v>
       </c>
       <c r="H163" t="n">
-        <v>-9422721.69231081</v>
+        <v>-25369346.49066067</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.03279644909166145</v>
+        <v>0.01453830775520725</v>
       </c>
       <c r="J163" t="n">
         <v>1</v>
@@ -47139,11 +46909,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="B164" s="2" t="n">
-        <v>45891.5</v>
+        <v>45816.5</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -47151,73 +46921,73 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.3599039170145206</v>
+        <v>2.220434923712709</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.001316665978542186</v>
+        <v>0.01368502837560026</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0004015124717145222</v>
+        <v>0.01057238009612763</v>
       </c>
       <c r="H164" t="n">
-        <v>26699893.59009409</v>
+        <v>49361095.57677007</v>
       </c>
       <c r="I164" t="n">
-        <v>0.980816928118552</v>
+        <v>0.9871329377164086</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L164" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="B165" s="2" t="n">
-        <v>45892.5</v>
+        <v>45819</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.3643294283113314</v>
+        <v>2.305016386019404</v>
       </c>
       <c r="E165" t="n">
-        <v>1.229636880176617</v>
+        <v>3.80922950740074</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0005444088909913325</v>
+        <v>-0.0008071824606941114</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0005297146808586746</v>
+        <v>0.01253284816689139</v>
       </c>
       <c r="H165" t="n">
-        <v>-25369346.49066067</v>
+        <v>6849467.601892471</v>
       </c>
       <c r="I165" t="n">
-        <v>0.01453830775520725</v>
+        <v>-2.283636682283191</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L165" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166">
@@ -47227,7 +46997,7 @@
         </is>
       </c>
       <c r="B166" s="2" t="n">
-        <v>45816.5</v>
+        <v>45824.5</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -47235,22 +47005,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2.220434923712709</v>
+        <v>2.210927953443365</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.01368502837560026</v>
+        <v>0.0136699482316045</v>
       </c>
       <c r="G166" t="n">
-        <v>0.01057238009612763</v>
+        <v>0.006746934688976721</v>
       </c>
       <c r="H166" t="n">
-        <v>49361095.57677007</v>
+        <v>250453897.7312098</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9871329377164086</v>
+        <v>0.6262967922702806</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
@@ -47269,7 +47039,7 @@
         </is>
       </c>
       <c r="B167" s="2" t="n">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -47277,22 +47047,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2.305016386019404</v>
+        <v>2.163231775939699</v>
       </c>
       <c r="E167" t="n">
-        <v>3.80922950740074</v>
+        <v>-2.157292255018163</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.0008071824606941114</v>
+        <v>-0.009207133260662026</v>
       </c>
       <c r="G167" t="n">
-        <v>0.01253284816689139</v>
+        <v>0.007027187786963908</v>
       </c>
       <c r="H167" t="n">
-        <v>6849467.601892471</v>
+        <v>-29889895.43114567</v>
       </c>
       <c r="I167" t="n">
-        <v>-2.283636682283191</v>
+        <v>-1.462806971270776</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -47311,7 +47081,7 @@
         </is>
       </c>
       <c r="B168" s="2" t="n">
-        <v>45824.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -47319,22 +47089,22 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2.210927953443365</v>
+        <v>2.088760137377982</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0136699482316045</v>
+        <v>0.01486492966859476</v>
       </c>
       <c r="G168" t="n">
-        <v>0.006746934688976721</v>
+        <v>0.003703972794386593</v>
       </c>
       <c r="H168" t="n">
-        <v>250453897.7312098</v>
+        <v>154715761.447947</v>
       </c>
       <c r="I168" t="n">
-        <v>0.6262967922702806</v>
+        <v>1.091548994259858</v>
       </c>
       <c r="J168" t="n">
         <v>1</v>
@@ -47353,30 +47123,30 @@
         </is>
       </c>
       <c r="B169" s="2" t="n">
-        <v>45826</v>
+        <v>45833.5</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2.163231775939699</v>
+        <v>2.186476900305086</v>
       </c>
       <c r="E169" t="n">
-        <v>-2.157292255018163</v>
+        <v>4.678218488493711</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.009207133260662026</v>
+        <v>0.00699565744403996</v>
       </c>
       <c r="G169" t="n">
-        <v>0.007027187786963908</v>
+        <v>0.004648952851787541</v>
       </c>
       <c r="H169" t="n">
-        <v>-29889895.43114567</v>
+        <v>-210695661.8755474</v>
       </c>
       <c r="I169" t="n">
-        <v>-1.462806971270776</v>
+        <v>0.2105809520918032</v>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -47395,7 +47165,7 @@
         </is>
       </c>
       <c r="B170" s="2" t="n">
-        <v>45831.5</v>
+        <v>45847.5</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -47403,22 +47173,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2.088760137377982</v>
+        <v>2.357941413071812</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.01486492966859476</v>
+        <v>0.01104274758703472</v>
       </c>
       <c r="G170" t="n">
-        <v>0.003703972794386593</v>
+        <v>0.00475130436261844</v>
       </c>
       <c r="H170" t="n">
-        <v>154715761.447947</v>
+        <v>114060796.6551976</v>
       </c>
       <c r="I170" t="n">
-        <v>1.091548994259858</v>
+        <v>0.9926221336101752</v>
       </c>
       <c r="J170" t="n">
         <v>1</v>
@@ -47437,30 +47207,30 @@
         </is>
       </c>
       <c r="B171" s="2" t="n">
-        <v>45833.5</v>
+        <v>45853.5</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>2.186476900305086</v>
+        <v>2.936004628778936</v>
       </c>
       <c r="E171" t="n">
-        <v>4.678218488493711</v>
+        <v>24.51558857664965</v>
       </c>
       <c r="F171" t="n">
-        <v>0.00699565744403996</v>
+        <v>-0.007133683517837053</v>
       </c>
       <c r="G171" t="n">
-        <v>0.004648952851787541</v>
+        <v>0.01051482515638282</v>
       </c>
       <c r="H171" t="n">
-        <v>-210695661.8755474</v>
+        <v>-145106084.5385532</v>
       </c>
       <c r="I171" t="n">
-        <v>0.2105809520918032</v>
+        <v>-1.72983710136922</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -47479,7 +47249,7 @@
         </is>
       </c>
       <c r="B172" s="2" t="n">
-        <v>45847.5</v>
+        <v>45855.5</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -47487,22 +47257,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2.357941413071812</v>
+        <v>3.267675369404749</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.01104274758703472</v>
+        <v>0.04200698692475369</v>
       </c>
       <c r="G172" t="n">
-        <v>0.00475130436261844</v>
+        <v>0.01285608175063692</v>
       </c>
       <c r="H172" t="n">
-        <v>114060796.6551976</v>
+        <v>1081654140.701865</v>
       </c>
       <c r="I172" t="n">
-        <v>0.9926221336101752</v>
+        <v>2.364119103648554</v>
       </c>
       <c r="J172" t="n">
         <v>1</v>
@@ -47521,7 +47291,7 @@
         </is>
       </c>
       <c r="B173" s="2" t="n">
-        <v>45853.5</v>
+        <v>45857</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -47529,22 +47299,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2.936004628778936</v>
+        <v>3.417044710420229</v>
       </c>
       <c r="E173" t="n">
-        <v>24.51558857664965</v>
+        <v>4.571119347228472</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.007133683517837053</v>
+        <v>-0.01058440673957328</v>
       </c>
       <c r="G173" t="n">
-        <v>0.01051482515638282</v>
+        <v>0.01674953301728384</v>
       </c>
       <c r="H173" t="n">
-        <v>-145106084.5385532</v>
+        <v>-200365495.2610607</v>
       </c>
       <c r="I173" t="n">
-        <v>-1.72983710136922</v>
+        <v>-1.662853534058789</v>
       </c>
       <c r="J173" t="n">
         <v>1</v>
@@ -47563,7 +47333,7 @@
         </is>
       </c>
       <c r="B174" s="2" t="n">
-        <v>45855.5</v>
+        <v>45876.5</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -47571,22 +47341,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3.267675369404749</v>
+        <v>3.153739489446899</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.04200698692475369</v>
+        <v>0.03691217959442561</v>
       </c>
       <c r="G174" t="n">
-        <v>0.01285608175063692</v>
+        <v>0.008503144743068016</v>
       </c>
       <c r="H174" t="n">
-        <v>1081654140.701865</v>
+        <v>359580240.767417</v>
       </c>
       <c r="I174" t="n">
-        <v>2.364119103648554</v>
+        <v>1.201627714096317</v>
       </c>
       <c r="J174" t="n">
         <v>1</v>
@@ -47605,7 +47375,7 @@
         </is>
       </c>
       <c r="B175" s="2" t="n">
-        <v>45857</v>
+        <v>45878.5</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -47613,22 +47383,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>3.417044710420229</v>
+        <v>3.258835895366054</v>
       </c>
       <c r="E175" t="n">
-        <v>4.571119347228472</v>
+        <v>3.332437770171912</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.01058440673957328</v>
+        <v>-0.005970649058068656</v>
       </c>
       <c r="G175" t="n">
-        <v>0.01674953301728384</v>
+        <v>0.01449355259858687</v>
       </c>
       <c r="H175" t="n">
-        <v>-200365495.2610607</v>
+        <v>-253941684.227375</v>
       </c>
       <c r="I175" t="n">
-        <v>-1.662853534058789</v>
+        <v>-1.109079275986783</v>
       </c>
       <c r="J175" t="n">
         <v>1</v>
@@ -47647,7 +47417,7 @@
         </is>
       </c>
       <c r="B176" s="2" t="n">
-        <v>45876.5</v>
+        <v>45882</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -47655,22 +47425,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>3.153739489446899</v>
+        <v>3.26747236546907</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.03691217959442561</v>
+        <v>0.01407219190853182</v>
       </c>
       <c r="G176" t="n">
-        <v>0.008503144743068016</v>
+        <v>0.01253020871461937</v>
       </c>
       <c r="H176" t="n">
-        <v>359580240.767417</v>
+        <v>298849571.1437731</v>
       </c>
       <c r="I176" t="n">
-        <v>1.201627714096317</v>
+        <v>0.0778418750195686</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
@@ -47689,7 +47459,7 @@
         </is>
       </c>
       <c r="B177" s="2" t="n">
-        <v>45878.5</v>
+        <v>45883.5</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -47697,22 +47467,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>3.258835895366054</v>
+        <v>3.186945905201149</v>
       </c>
       <c r="E177" t="n">
-        <v>3.332437770171912</v>
+        <v>-2.464487875059974</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.005970649058068656</v>
+        <v>-0.02001160819109327</v>
       </c>
       <c r="G177" t="n">
-        <v>0.01449355259858687</v>
+        <v>0.01270242921170287</v>
       </c>
       <c r="H177" t="n">
-        <v>-253941684.227375</v>
+        <v>303885835.3385611</v>
       </c>
       <c r="I177" t="n">
-        <v>-1.109079275986783</v>
+        <v>-1.617132562699669</v>
       </c>
       <c r="J177" t="n">
         <v>1</v>
@@ -47731,7 +47501,7 @@
         </is>
       </c>
       <c r="B178" s="2" t="n">
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -47739,22 +47509,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>3.26747236546907</v>
+        <v>2.952309340790555</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.01407219190853182</v>
+        <v>0.01082555663730611</v>
       </c>
       <c r="G178" t="n">
-        <v>0.01253020871461937</v>
+        <v>0.007441877724894171</v>
       </c>
       <c r="H178" t="n">
-        <v>298849571.1437731</v>
+        <v>43827841.31850338</v>
       </c>
       <c r="I178" t="n">
-        <v>0.0778418750195686</v>
+        <v>0.1792525538946588</v>
       </c>
       <c r="J178" t="n">
         <v>1</v>
@@ -47773,7 +47543,7 @@
         </is>
       </c>
       <c r="B179" s="2" t="n">
-        <v>45883.5</v>
+        <v>45890.5</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -47781,22 +47551,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>3.186945905201149</v>
+        <v>2.901066174357815</v>
       </c>
       <c r="E179" t="n">
-        <v>-2.464487875059974</v>
+        <v>-1.735697737521566</v>
       </c>
       <c r="F179" t="n">
-        <v>-0.02001160819109327</v>
+        <v>-0.0009501258603874518</v>
       </c>
       <c r="G179" t="n">
-        <v>0.01270242921170287</v>
+        <v>0.007367844180052161</v>
       </c>
       <c r="H179" t="n">
-        <v>303885835.3385611</v>
+        <v>-228659661.1411896</v>
       </c>
       <c r="I179" t="n">
-        <v>-1.617132562699669</v>
+        <v>-0.4408405543264862</v>
       </c>
       <c r="J179" t="n">
         <v>1</v>
@@ -47815,7 +47585,7 @@
         </is>
       </c>
       <c r="B180" s="2" t="n">
-        <v>45890</v>
+        <v>45891.5</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -47823,22 +47593,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2.952309340790555</v>
+        <v>2.961548895020256</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.01082555663730611</v>
+        <v>0.02251244456848189</v>
       </c>
       <c r="G180" t="n">
-        <v>0.007441877724894171</v>
+        <v>0.006040177084133864</v>
       </c>
       <c r="H180" t="n">
-        <v>43827841.31850338</v>
+        <v>349435963.2458496</v>
       </c>
       <c r="I180" t="n">
-        <v>0.1792525538946588</v>
+        <v>0.9160404318878156</v>
       </c>
       <c r="J180" t="n">
         <v>1</v>
@@ -47857,30 +47627,30 @@
         </is>
       </c>
       <c r="B181" s="2" t="n">
-        <v>45890.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2.901066174357815</v>
+        <v>3.059550124367895</v>
       </c>
       <c r="E181" t="n">
-        <v>-1.735697737521566</v>
+        <v>3.309120761518586</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.0009501258603874518</v>
+        <v>0.02123466475467994</v>
       </c>
       <c r="G181" t="n">
-        <v>0.007367844180052161</v>
+        <v>0.004499636166002064</v>
       </c>
       <c r="H181" t="n">
-        <v>-228659661.1411896</v>
+        <v>-123132194.8514957</v>
       </c>
       <c r="I181" t="n">
-        <v>-0.4408405543264862</v>
+        <v>1.032363633766611</v>
       </c>
       <c r="J181" t="n">
         <v>1</v>
@@ -47899,7 +47669,7 @@
         </is>
       </c>
       <c r="B182" s="2" t="n">
-        <v>45891.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -47907,22 +47677,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2.961548895020256</v>
+        <v>2.806723591636079</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.02251244456848189</v>
+        <v>0.01420647421846422</v>
       </c>
       <c r="G182" t="n">
-        <v>0.006040177084133864</v>
+        <v>0.006650164733717385</v>
       </c>
       <c r="H182" t="n">
-        <v>349435963.2458496</v>
+        <v>445569893.2843523</v>
       </c>
       <c r="I182" t="n">
-        <v>0.9160404318878156</v>
+        <v>0.4968932840220217</v>
       </c>
       <c r="J182" t="n">
         <v>1</v>
@@ -47941,7 +47711,7 @@
         </is>
       </c>
       <c r="B183" s="2" t="n">
-        <v>45892.5</v>
+        <v>45903.5</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -47949,22 +47719,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3.059550124367895</v>
+        <v>2.852681735633498</v>
       </c>
       <c r="E183" t="n">
-        <v>3.309120761518586</v>
+        <v>1.637430352399929</v>
       </c>
       <c r="F183" t="n">
-        <v>0.02123466475467994</v>
+        <v>0.01274604448192074</v>
       </c>
       <c r="G183" t="n">
-        <v>0.004499636166002064</v>
+        <v>0.008738267994225928</v>
       </c>
       <c r="H183" t="n">
-        <v>-123132194.8514957</v>
+        <v>-281668949.5671759</v>
       </c>
       <c r="I183" t="n">
-        <v>1.032363633766611</v>
+        <v>0.2600654786251684</v>
       </c>
       <c r="J183" t="n">
         <v>1</v>
@@ -47973,90 +47743,6 @@
         <v>1400</v>
       </c>
       <c r="L183" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>XRP</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="n">
-        <v>45902.5</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>2.806723591636079</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.01420647421846422</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.006650164733717385</v>
-      </c>
-      <c r="H184" t="n">
-        <v>445569893.2843523</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.4968932840220217</v>
-      </c>
-      <c r="J184" t="n">
-        <v>1</v>
-      </c>
-      <c r="K184" t="n">
-        <v>1400</v>
-      </c>
-      <c r="L184" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>XRP</t>
-        </is>
-      </c>
-      <c r="B185" s="2" t="n">
-        <v>45903.5</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>SELL_VOLUME</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>2.852681735633498</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1.637430352399929</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.01274604448192074</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.008738267994225928</v>
-      </c>
-      <c r="H185" t="n">
-        <v>-281668949.5671759</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.2600654786251684</v>
-      </c>
-      <c r="J185" t="n">
-        <v>1</v>
-      </c>
-      <c r="K185" t="n">
-        <v>1400</v>
-      </c>
-      <c r="L185" t="n">
         <v>20</v>
       </c>
     </row>
@@ -48071,7 +47757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56421,19 +56107,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45904.04166666666</v>
+        <v>45904.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.5107514851781106</v>
+        <v>0.5101286374109062</v>
       </c>
       <c r="C182" t="n">
-        <v>0.002149328173858156</v>
+        <v>0.002019568222357271</v>
       </c>
       <c r="D182" t="n">
-        <v>0.002845257255788708</v>
+        <v>0.002840111341109191</v>
       </c>
       <c r="E182" t="n">
-        <v>-4294.253304958344</v>
+        <v>-883846.1408311725</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -56450,7 +56136,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.1222519716135675</v>
+        <v>-0.1441841491676497</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -56462,52 +56148,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45904.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.5101286374109062</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.001128943782868874</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.002761834345080041</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1841974.533583522</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.2882593857918947</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -57533,7 +57173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65883,19 +65523,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45904.04166666666</v>
+        <v>45904.5</v>
       </c>
       <c r="B182" t="n">
-        <v>111741.8655852198</v>
+        <v>111711.5197772512</v>
       </c>
       <c r="C182" t="n">
-        <v>148.1963244932704</v>
+        <v>141.8742811664706</v>
       </c>
       <c r="D182" t="n">
-        <v>229.7627354600535</v>
+        <v>229.5274962973404</v>
       </c>
       <c r="E182" t="n">
-        <v>-1333970286.633453</v>
+        <v>-1071550202.054405</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -65912,7 +65552,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.2652709593269995</v>
+        <v>-0.2851119574557273</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -65924,52 +65564,6 @@
         <v>40</v>
       </c>
       <c r="N182" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45904.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>111711.5197772512</v>
-      </c>
-      <c r="C183" t="n">
-        <v>63.17923652897298</v>
-      </c>
-      <c r="D183" t="n">
-        <v>225.8802544239666</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-504623588.1195526</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.5300461626672868</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>2800</v>
-      </c>
-      <c r="M183" t="n">
-        <v>40</v>
-      </c>
-      <c r="N183" t="n">
         <v>40</v>
       </c>
     </row>
@@ -67179,7 +66773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75529,36 +75123,36 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45904.04166666666</v>
+        <v>45904.5</v>
       </c>
       <c r="B182" t="n">
-        <v>4457.386138512813</v>
+        <v>4449.867097728325</v>
       </c>
       <c r="C182" t="n">
-        <v>17.0949942208581</v>
+        <v>15.52852739075661</v>
       </c>
       <c r="D182" t="n">
-        <v>18.66619049040124</v>
+        <v>18.60245385417261</v>
       </c>
       <c r="E182" t="n">
-        <v>-217673882.9391098</v>
+        <v>19746067.84489441</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>HOLD</t>
         </is>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>4387.861701977134</v>
       </c>
       <c r="I182" t="n">
-        <v>1.584471919530923</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.04965048230049777</v>
+        <v>-0.09720818832812328</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -75570,52 +75164,6 @@
         <v>25</v>
       </c>
       <c r="N182" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45904.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>4449.867097728325</v>
-      </c>
-      <c r="C183" t="n">
-        <v>8.38712251760353</v>
-      </c>
-      <c r="D183" t="n">
-        <v>17.70204043750311</v>
-      </c>
-      <c r="E183" t="n">
-        <v>130586350.834301</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.2983647205324212</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1750</v>
-      </c>
-      <c r="M183" t="n">
-        <v>25</v>
-      </c>
-      <c r="N183" t="n">
         <v>25</v>
       </c>
     </row>
@@ -75630,7 +75178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76673,52 +76221,6 @@
         <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45904.04166666666</v>
-      </c>
-      <c r="B23" t="n">
-        <v>4457.386138512813</v>
-      </c>
-      <c r="C23" t="n">
-        <v>17.0949942208581</v>
-      </c>
-      <c r="D23" t="n">
-        <v>18.66619049040124</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-217673882.9391098</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>SELL_VOLUME</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.584471919530923</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-0.04965048230049777</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1750</v>
-      </c>
-      <c r="M23" t="n">
-        <v>25</v>
-      </c>
-      <c r="N23" t="n">
         <v>25</v>
       </c>
     </row>
@@ -76733,7 +76235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85083,19 +84585,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45904.04166666666</v>
+        <v>45904.5</v>
       </c>
       <c r="B182" t="n">
-        <v>2.464497250837022</v>
+        <v>2.469651738395461</v>
       </c>
       <c r="C182" t="n">
-        <v>0.007514244311826346</v>
+        <v>0.008588095886501002</v>
       </c>
       <c r="D182" t="n">
-        <v>0.01184777586272672</v>
+        <v>0.01188863435070352</v>
       </c>
       <c r="E182" t="n">
-        <v>-2702075.589957714</v>
+        <v>-2970943.108519047</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -85112,7 +84614,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.2572460598939783</v>
+        <v>-0.1958080623974362</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -85124,52 +84626,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45904.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.469651738395461</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.005553141659187855</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.01137695068766484</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-979325.6307113022</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.349575475144078</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>

--- a/results/momentum_portfolio_simulation_latest.xlsx
+++ b/results/momentum_portfolio_simulation_latest.xlsx
@@ -1678,7 +1678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10028,19 +10028,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45905.04166666666</v>
+        <v>45905.5</v>
       </c>
       <c r="B182" t="n">
-        <v>201.9159629811668</v>
+        <v>202.685562461319</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.9806982599722289</v>
+        <v>-0.8203650349405223</v>
       </c>
       <c r="D182" t="n">
-        <v>0.7939285370962909</v>
+        <v>0.7974674083575578</v>
       </c>
       <c r="E182" t="n">
-        <v>-84792438.58563519</v>
+        <v>-124403393.1976814</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-1.204976821539826</v>
+        <v>-1.101213139679351</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -10069,52 +10069,6 @@
         <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45905.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>202.685562461319</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-0.4361131129962246</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.7978202504400181</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-34697261.66185951</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.8389528062753741</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1400</v>
-      </c>
-      <c r="M183" t="n">
-        <v>20</v>
-      </c>
-      <c r="N183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11416,7 +11370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19766,19 +19720,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45905.04166666666</v>
+        <v>45905.5</v>
       </c>
       <c r="B182" t="n">
-        <v>3.28093499945639</v>
+        <v>3.289019298851818</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.004886243174949012</v>
+        <v>-0.003202014134235043</v>
       </c>
       <c r="D182" t="n">
-        <v>0.01379316754374932</v>
+        <v>0.01384075054053449</v>
       </c>
       <c r="E182" t="n">
-        <v>-6400108.026912928</v>
+        <v>-4900742.48875463</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -19795,7 +19749,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.8308060362753866</v>
+        <v>-0.7585902550635818</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -19807,52 +19761,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45905.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>3.289019298851818</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-0.0001366608816293358</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.01408862025165007</v>
-      </c>
-      <c r="E183" t="n">
-        <v>4443660.398805022</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.636701135947217</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -21154,7 +21062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29504,19 +29412,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45905.04166666666</v>
+        <v>45905.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.33426016433722</v>
+        <v>0.3346362672061652</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.0003125056951998051</v>
+        <v>-0.0002341509308362855</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0003568814270843897</v>
+        <v>0.0003593234949698433</v>
       </c>
       <c r="E182" t="n">
-        <v>11255520.01799738</v>
+        <v>11016877.39325476</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -29533,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.6631562970023621</v>
+        <v>-0.5881480416479171</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -29545,52 +29453,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45905.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.3346362672061652</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2.393049624038746e-05</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.000356120290371048</v>
-      </c>
-      <c r="E183" t="n">
-        <v>8791663.43144393</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.3291401475258089</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -30800,7 +30662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39150,19 +39012,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45905.04166666666</v>
+        <v>45905.5</v>
       </c>
       <c r="B182" t="n">
-        <v>2.786871763078856</v>
+        <v>2.797620314598713</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.00366558314893739</v>
+        <v>-0.001426301582300837</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008919414512336294</v>
+        <v>0.008981888955194384</v>
       </c>
       <c r="E182" t="n">
-        <v>-28217800.47530842</v>
+        <v>-62532405.51299</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -39179,7 +39041,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.8915771376991467</v>
+        <v>-0.7386359407398257</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -39191,52 +39053,6 @@
         <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45905.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.797620314598713</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.00122411678366019</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.009161126425197869</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-27618429.1849699</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.5669858090957896</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1400</v>
-      </c>
-      <c r="M183" t="n">
-        <v>20</v>
-      </c>
-      <c r="N183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -48071,7 +47887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56421,19 +56237,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45905.04166666666</v>
+        <v>45905.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4838630802815537</v>
+        <v>0.4827101994643042</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.001371782525943444</v>
+        <v>-0.001611966029537115</v>
       </c>
       <c r="D182" t="n">
-        <v>0.002471756307512945</v>
+        <v>0.002464569294048336</v>
       </c>
       <c r="E182" t="n">
-        <v>4400626.81975174</v>
+        <v>1117257.728360713</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -56450,7 +56266,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.6773683269750277</v>
+        <v>-0.7182232419990181</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -56462,52 +56278,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45905.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.4827101994643042</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-0.0007199465426226959</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.002500435216852542</v>
-      </c>
-      <c r="E183" t="n">
-        <v>2149123.553186893</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.5680196207051338</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -57533,7 +57303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65883,19 +65653,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45905.04166666666</v>
+        <v>45905.5</v>
       </c>
       <c r="B182" t="n">
-        <v>110677.1951111714</v>
+        <v>110724.736377486</v>
       </c>
       <c r="C182" t="n">
-        <v>-72.34978851435881</v>
+        <v>-62.44535803215695</v>
       </c>
       <c r="D182" t="n">
-        <v>216.204707681023</v>
+        <v>216.4632568086899</v>
       </c>
       <c r="E182" t="n">
-        <v>-88909498.9480896</v>
+        <v>-148040705.2601166</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -65912,7 +65682,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.934687950385557</v>
+        <v>-0.9038621892037123</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -65924,52 +65694,6 @@
         <v>40</v>
       </c>
       <c r="N182" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45905.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>110724.736377486</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-37.83565767183609</v>
-      </c>
-      <c r="D183" t="n">
-        <v>218.5515797076512</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-106479308.3833618</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.8346939902385648</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>2800</v>
-      </c>
-      <c r="M183" t="n">
-        <v>40</v>
-      </c>
-      <c r="N183" t="n">
         <v>40</v>
       </c>
     </row>
@@ -67179,7 +66903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75529,19 +75253,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45905.04166666666</v>
+        <v>45905.5</v>
       </c>
       <c r="B182" t="n">
-        <v>4313.093551047387</v>
+        <v>4298.094660544595</v>
       </c>
       <c r="C182" t="n">
-        <v>-4.439933928085338</v>
+        <v>-7.564702782832683</v>
       </c>
       <c r="D182" t="n">
-        <v>15.85995754500211</v>
+        <v>15.76653848388979</v>
       </c>
       <c r="E182" t="n">
-        <v>122153935.8585968</v>
+        <v>-54412393.12631989</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -75558,7 +75282,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.6509830447996358</v>
+        <v>-0.7476782683163902</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -75570,52 +75294,6 @@
         <v>25</v>
       </c>
       <c r="N182" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45905.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>4298.094660544595</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-4.188049219074856</v>
-      </c>
-      <c r="D183" t="n">
-        <v>15.84770871178337</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-90851269.91069412</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.6424744330847846</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1750</v>
-      </c>
-      <c r="M183" t="n">
-        <v>25</v>
-      </c>
-      <c r="N183" t="n">
         <v>25</v>
       </c>
     </row>
@@ -76733,7 +76411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85083,19 +84761,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45905.04166666666</v>
+        <v>45905.5</v>
       </c>
       <c r="B182" t="n">
-        <v>2.373475042044198</v>
+        <v>2.377609123224236</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.005675641927169739</v>
+        <v>-0.004814375014661643</v>
       </c>
       <c r="D182" t="n">
-        <v>0.01038442178366865</v>
+        <v>0.01040677362239898</v>
       </c>
       <c r="E182" t="n">
-        <v>1102746.435115397</v>
+        <v>31517.88170982897</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -85112,7 +84790,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.9526321069067126</v>
+        <v>-0.9035517457119542</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -85124,52 +84802,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45905.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.377609123224236</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-0.00135730363337494</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.01048034146960766</v>
-      </c>
-      <c r="E183" t="n">
-        <v>489670.1410580128</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.7036496499210156</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>

--- a/results/momentum_portfolio_simulation_latest.xlsx
+++ b/results/momentum_portfolio_simulation_latest.xlsx
@@ -1678,7 +1678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10028,19 +10028,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45906.04166666666</v>
+        <v>45906.5</v>
       </c>
       <c r="B182" t="n">
-        <v>203.9131779989764</v>
+        <v>203.479136779819</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.1510746957802382</v>
+        <v>-0.2414999497713666</v>
       </c>
       <c r="D182" t="n">
-        <v>0.7205285345407756</v>
+        <v>0.7177343493736895</v>
       </c>
       <c r="E182" t="n">
-        <v>218863493.497303</v>
+        <v>252826002.4863367</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.61051286501394</v>
+        <v>-0.6716868819681535</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -10069,52 +10069,6 @@
         <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45906.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>203.479136779819</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-0.1908313323461925</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.5452270443675215</v>
-      </c>
-      <c r="E183" t="n">
-        <v>181764553.4992571</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.5665445469570917</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1400</v>
-      </c>
-      <c r="M183" t="n">
-        <v>20</v>
-      </c>
-      <c r="N183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11416,7 +11370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19766,19 +19720,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45906.04166666666</v>
+        <v>45906.5</v>
       </c>
       <c r="B182" t="n">
-        <v>3.390570456858071</v>
+        <v>3.376056885966955</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01068406419595958</v>
+        <v>0.007660403593643395</v>
       </c>
       <c r="D182" t="n">
-        <v>0.01374564818158755</v>
+        <v>0.01362967755525921</v>
       </c>
       <c r="E182" t="n">
-        <v>38756630.02010953</v>
+        <v>45140423.42724168</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -19795,7 +19749,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.1414587736488042</v>
+        <v>-0.2761944466623787</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -19807,52 +19761,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45906.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>3.376056885966955</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.002800482955823025</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.01043904226636248</v>
-      </c>
-      <c r="E183" t="n">
-        <v>28964948.80675638</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.405977181449957</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -21246,7 +21154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29596,19 +29504,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45906.04166666666</v>
+        <v>45906.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.3315601195407648</v>
+        <v>0.3312366536211805</v>
       </c>
       <c r="C182" t="n">
-        <v>-9.546051566899916e-05</v>
+        <v>-0.0001628492489156308</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0002629795304956525</v>
+        <v>0.0002606185778002134</v>
       </c>
       <c r="E182" t="n">
-        <v>23282650.67871225</v>
+        <v>24581876.80342889</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -29625,7 +29533,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.3678945617951754</v>
+        <v>-0.4347398952848179</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -29637,52 +29545,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45906.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.3312366536211805</v>
-      </c>
-      <c r="C183" t="n">
-        <v>4.351165170862759e-05</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.0001509889118283685</v>
-      </c>
-      <c r="E183" t="n">
-        <v>13706999.69499362</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.1219945723182186</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -30892,7 +30754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39242,19 +39104,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45906.04166666666</v>
+        <v>45906.5</v>
       </c>
       <c r="B182" t="n">
-        <v>2.817414145240768</v>
+        <v>2.816094713923012</v>
       </c>
       <c r="C182" t="n">
-        <v>0.002938638160681961</v>
+        <v>0.002663756636149373</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008428881388954531</v>
+        <v>0.008419333030119229</v>
       </c>
       <c r="E182" t="n">
-        <v>172894148.701973</v>
+        <v>183832406.3825712</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -39271,7 +39133,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.4087408193885665</v>
+        <v>-0.4285191031028929</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -39283,52 +39145,6 @@
         <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45906.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.816094713923012</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.002134627596359628</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.006182624838430995</v>
-      </c>
-      <c r="E183" t="n">
-        <v>107555276.6559219</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.3546646753623696</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1400</v>
-      </c>
-      <c r="M183" t="n">
-        <v>20</v>
-      </c>
-      <c r="N183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -48071,7 +47887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56421,19 +56237,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45906.04166666666</v>
+        <v>45906.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4987983814940565</v>
+        <v>0.4945964674320544</v>
       </c>
       <c r="C182" t="n">
-        <v>0.00185786165079832</v>
+        <v>0.0009824628878812858</v>
       </c>
       <c r="D182" t="n">
-        <v>0.002284194311437943</v>
+        <v>0.002249810726583133</v>
       </c>
       <c r="E182" t="n">
-        <v>15166275.31032085</v>
+        <v>15081081.16156191</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -56450,7 +56266,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.0780749379505028</v>
+        <v>-0.2325344921750002</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -56462,52 +56278,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45906.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.4945964674320544</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.0003556811470539212</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.001497621794809786</v>
-      </c>
-      <c r="E183" t="n">
-        <v>9631807.2372666</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.2392215602806605</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -57533,7 +57303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65883,19 +65653,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45906.04166666666</v>
+        <v>45906.5</v>
       </c>
       <c r="B182" t="n">
-        <v>110841.0127111492</v>
+        <v>110662.1811262851</v>
       </c>
       <c r="C182" t="n">
-        <v>3.184674756252207</v>
+        <v>-34.07190542375611</v>
       </c>
       <c r="D182" t="n">
-        <v>198.420743512711</v>
+        <v>197.317022067009</v>
       </c>
       <c r="E182" t="n">
-        <v>1382383402.129166</v>
+        <v>1394761690.097931</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -65912,7 +65682,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.654796110677219</v>
+        <v>-0.775329493237164</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -65924,52 +65694,6 @@
         <v>40</v>
       </c>
       <c r="N182" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45906.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>110662.1811262851</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-39.02456391628948</v>
-      </c>
-      <c r="D183" t="n">
-        <v>153.7093056032158</v>
-      </c>
-      <c r="E183" t="n">
-        <v>580477110.1963043</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.7305241330781033</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>2800</v>
-      </c>
-      <c r="M183" t="n">
-        <v>40</v>
-      </c>
-      <c r="N183" t="n">
         <v>40</v>
       </c>
     </row>
@@ -67179,7 +66903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75529,19 +75253,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45906.04166666666</v>
+        <v>45906.5</v>
       </c>
       <c r="B182" t="n">
-        <v>4323.826146639187</v>
+        <v>4306.613513100346</v>
       </c>
       <c r="C182" t="n">
-        <v>4.45413585748156</v>
+        <v>0.8681705368890107</v>
       </c>
       <c r="D182" t="n">
-        <v>12.77418849728858</v>
+        <v>12.64525394004064</v>
       </c>
       <c r="E182" t="n">
-        <v>716934149.3626747</v>
+        <v>682373584.270607</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -75558,7 +75282,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.2879820047693997</v>
+        <v>-0.4079057214624144</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -75570,52 +75294,6 @@
         <v>25</v>
       </c>
       <c r="N182" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45906.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>4306.613513100346</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.504422986595273</v>
-      </c>
-      <c r="D183" t="n">
-        <v>5.92941449471975</v>
-      </c>
-      <c r="E183" t="n">
-        <v>287119474.2900887</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.2491925444806059</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1750</v>
-      </c>
-      <c r="M183" t="n">
-        <v>25</v>
-      </c>
-      <c r="N183" t="n">
         <v>25</v>
       </c>
     </row>
@@ -76733,7 +76411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85083,19 +84761,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45906.04166666666</v>
+        <v>45906.5</v>
       </c>
       <c r="B182" t="n">
-        <v>2.402674769599895</v>
+        <v>2.398202970804881</v>
       </c>
       <c r="C182" t="n">
-        <v>0.002740933251800914</v>
+        <v>0.00180930850283989</v>
       </c>
       <c r="D182" t="n">
-        <v>0.009553054627742365</v>
+        <v>0.009521193921504377</v>
       </c>
       <c r="E182" t="n">
-        <v>7184121.702139258</v>
+        <v>7485070.812060624</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -85112,7 +84790,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.4219014550718789</v>
+        <v>-0.4776751014923436</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -85124,52 +84802,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45906.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.398202970804881</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.001455202169728942</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.007122075291860832</v>
-      </c>
-      <c r="E183" t="n">
-        <v>4313995.566973776</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.4025304953397368</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>

--- a/results/momentum_portfolio_simulation_latest.xlsx
+++ b/results/momentum_portfolio_simulation_latest.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.4196667943351</v>
+        <v>305.6337733039697</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.53932584269663</v>
+        <v>69.31818181818183</v>
       </c>
     </row>
     <row r="10">
@@ -1678,7 +1678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10028,19 +10028,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45907.04166666666</v>
+        <v>45907.5</v>
       </c>
       <c r="B182" t="n">
-        <v>201.8631361529925</v>
+        <v>200.1866593703589</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.01227359558330932</v>
+        <v>-0.361539591965311</v>
       </c>
       <c r="D182" t="n">
-        <v>0.413504350912832</v>
+        <v>0.4017451776498596</v>
       </c>
       <c r="E182" t="n">
-        <v>-264183364.3175449</v>
+        <v>-269696977.5713015</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.344134808131997</v>
+        <v>-0.6170412004965763</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -10069,52 +10069,6 @@
         <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45907.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>200.1866593703589</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-0.321880119104577</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.3379386809118456</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-86307736.68577242</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.5497894842424165</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1400</v>
-      </c>
-      <c r="M183" t="n">
-        <v>20</v>
-      </c>
-      <c r="N183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11324,7 +11278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19674,19 +19628,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45907.04166666666</v>
+        <v>45907.5</v>
       </c>
       <c r="B182" t="n">
-        <v>3.366106914316116</v>
+        <v>3.336702463994142</v>
       </c>
       <c r="C182" t="n">
-        <v>0.004858789406982478</v>
+        <v>-0.001267137743428126</v>
       </c>
       <c r="D182" t="n">
-        <v>0.00856052590737295</v>
+        <v>0.008343179741690167</v>
       </c>
       <c r="E182" t="n">
-        <v>-58098108.94863319</v>
+        <v>-42354145.3345089</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -19703,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.2086841949332314</v>
+        <v>-0.5425829088005927</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -19715,52 +19669,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45907.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>3.336702463994142</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-0.003516614706313259</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.007772230460118366</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-9606714.708481312</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.6461325591010151</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -21062,7 +20970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29412,36 +29320,36 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45907.04166666666</v>
+        <v>45907.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.3216427903077298</v>
+        <v>0.314521276349756</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0003118801705139229</v>
+        <v>-0.001171768570730591</v>
       </c>
       <c r="D182" t="n">
-        <v>5.643576098979714e-05</v>
+        <v>5.941636238053537e-06</v>
       </c>
       <c r="E182" t="n">
-        <v>80256602.02696991</v>
+        <v>31299176.86613083</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>HOLD</t>
         </is>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>0.3216427903077298</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2542080468227055</v>
+        <v>-1.174439097425514</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -29453,52 +29361,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45907.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.314521276349756</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-0.0009640236801865543</v>
-      </c>
-      <c r="D183" t="n">
-        <v>3.735276289941681e-05</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-10653029.83301425</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>-2.21410650963459</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.9924478628401808</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -29513,7 +29375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30694,98 +30556,6 @@
         <v>10</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45907.04166666666</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.3216427903077298</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0003118801705139229</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5.643576098979714e-05</v>
-      </c>
-      <c r="E26" t="n">
-        <v>80256602.02696991</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.3216427903077298</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.2542080468227055</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>700</v>
-      </c>
-      <c r="M26" t="n">
-        <v>10</v>
-      </c>
-      <c r="N26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45907.5</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.314521276349756</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.0009640236801865543</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3.735276289941681e-05</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-10653029.83301425</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-2.21410650963459</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-0.9924478628401808</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>700</v>
-      </c>
-      <c r="M27" t="n">
-        <v>10</v>
-      </c>
-      <c r="N27" t="n">
         <v>10</v>
       </c>
     </row>
@@ -30800,7 +30570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39150,19 +38920,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45907.04166666666</v>
+        <v>45907.5</v>
       </c>
       <c r="B182" t="n">
-        <v>2.820628489966447</v>
+        <v>2.810651604452461</v>
       </c>
       <c r="C182" t="n">
-        <v>0.003559922617296873</v>
+        <v>0.00148140480188319</v>
       </c>
       <c r="D182" t="n">
-        <v>0.005198533811741598</v>
+        <v>0.005120152107312538</v>
       </c>
       <c r="E182" t="n">
-        <v>-335983834.3387036</v>
+        <v>-340062001.6319251</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -39179,7 +38949,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.1527169951685402</v>
+        <v>-0.3397038391570589</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -39191,52 +38961,6 @@
         <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45907.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.810651604452461</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.000522384112551677</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.004804715929138541</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-142857043.3059459</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.4053884804249014</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1400</v>
-      </c>
-      <c r="M183" t="n">
-        <v>20</v>
-      </c>
-      <c r="N183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -40170,7 +39894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L179"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46879,11 +46603,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="B160" s="2" t="n">
-        <v>45907.04166666666</v>
+        <v>45824.5</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -46891,41 +46615,41 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.3216427903077298</v>
+        <v>2.210927953443365</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0003118801705139229</v>
+        <v>0.0136699482316045</v>
       </c>
       <c r="G160" t="n">
-        <v>5.643576098979714e-05</v>
+        <v>0.001894620135573048</v>
       </c>
       <c r="H160" t="n">
-        <v>80256602.02696991</v>
+        <v>250453897.7312098</v>
       </c>
       <c r="I160" t="n">
-        <v>0.2542080468227055</v>
+        <v>1.165876364299861</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L160" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="B161" s="2" t="n">
-        <v>45907.5</v>
+        <v>45826</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -46933,31 +46657,31 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.314521276349756</v>
+        <v>2.163231775939699</v>
       </c>
       <c r="E161" t="n">
-        <v>-2.21410650963459</v>
+        <v>-2.157292255018163</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.0009640236801865543</v>
+        <v>-0.009207133260662026</v>
       </c>
       <c r="G161" t="n">
-        <v>3.735276289941681e-05</v>
+        <v>0.003274879058318401</v>
       </c>
       <c r="H161" t="n">
-        <v>-10653029.83301425</v>
+        <v>-29889895.43114567</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.9924478628401808</v>
+        <v>-1.175586807427908</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
       </c>
       <c r="K161" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L161" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162">
@@ -46967,7 +46691,7 @@
         </is>
       </c>
       <c r="B162" s="2" t="n">
-        <v>45824.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -46975,22 +46699,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2.210927953443365</v>
+        <v>2.088760137377982</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0136699482316045</v>
+        <v>0.01486492966859476</v>
       </c>
       <c r="G162" t="n">
-        <v>0.001894620135573048</v>
+        <v>0.002000568490001819</v>
       </c>
       <c r="H162" t="n">
-        <v>250453897.7312098</v>
+        <v>154715761.447947</v>
       </c>
       <c r="I162" t="n">
-        <v>1.165876364299861</v>
+        <v>1.376268541052534</v>
       </c>
       <c r="J162" t="n">
         <v>1</v>
@@ -47009,30 +46733,30 @@
         </is>
       </c>
       <c r="B163" s="2" t="n">
-        <v>45826</v>
+        <v>45833.5</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2.163231775939699</v>
+        <v>2.186476900305086</v>
       </c>
       <c r="E163" t="n">
-        <v>-2.157292255018163</v>
+        <v>4.678218488493711</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.009207133260662026</v>
+        <v>0.00699565744403996</v>
       </c>
       <c r="G163" t="n">
-        <v>0.003274879058318401</v>
+        <v>0.004648952851787541</v>
       </c>
       <c r="H163" t="n">
-        <v>-29889895.43114567</v>
+        <v>-210695661.8755474</v>
       </c>
       <c r="I163" t="n">
-        <v>-1.175586807427908</v>
+        <v>0.2105809520918032</v>
       </c>
       <c r="J163" t="n">
         <v>1</v>
@@ -47051,7 +46775,7 @@
         </is>
       </c>
       <c r="B164" s="2" t="n">
-        <v>45831.5</v>
+        <v>45847.5</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -47059,22 +46783,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2.088760137377982</v>
+        <v>2.357941413071812</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.01486492966859476</v>
+        <v>0.01104274758703472</v>
       </c>
       <c r="G164" t="n">
-        <v>0.002000568490001819</v>
+        <v>0.004751304362618442</v>
       </c>
       <c r="H164" t="n">
-        <v>154715761.447947</v>
+        <v>114060796.6551976</v>
       </c>
       <c r="I164" t="n">
-        <v>1.376268541052534</v>
+        <v>0.9926221336101746</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -47093,30 +46817,30 @@
         </is>
       </c>
       <c r="B165" s="2" t="n">
-        <v>45833.5</v>
+        <v>45853.5</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2.186476900305086</v>
+        <v>2.936004628778936</v>
       </c>
       <c r="E165" t="n">
-        <v>4.678218488493711</v>
+        <v>24.51558857664965</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00699565744403996</v>
+        <v>-0.007133683517837053</v>
       </c>
       <c r="G165" t="n">
-        <v>0.004648952851787541</v>
+        <v>0.01051482515638282</v>
       </c>
       <c r="H165" t="n">
-        <v>-210695661.8755474</v>
+        <v>-145106084.5385532</v>
       </c>
       <c r="I165" t="n">
-        <v>0.2105809520918032</v>
+        <v>-1.72983710136922</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
@@ -47135,7 +46859,7 @@
         </is>
       </c>
       <c r="B166" s="2" t="n">
-        <v>45847.5</v>
+        <v>45855.5</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -47143,22 +46867,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2.357941413071812</v>
+        <v>3.267675369404749</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.01104274758703472</v>
+        <v>0.04200698692475369</v>
       </c>
       <c r="G166" t="n">
-        <v>0.004751304362618442</v>
+        <v>0.01285608175063692</v>
       </c>
       <c r="H166" t="n">
-        <v>114060796.6551976</v>
+        <v>1081654140.701865</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9926221336101746</v>
+        <v>2.364119103648554</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
@@ -47177,7 +46901,7 @@
         </is>
       </c>
       <c r="B167" s="2" t="n">
-        <v>45853.5</v>
+        <v>45857</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -47185,22 +46909,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2.936004628778936</v>
+        <v>3.417044710420229</v>
       </c>
       <c r="E167" t="n">
-        <v>24.51558857664965</v>
+        <v>4.571119347228472</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.007133683517837053</v>
+        <v>-0.01058440673957328</v>
       </c>
       <c r="G167" t="n">
-        <v>0.01051482515638282</v>
+        <v>0.01674953301728384</v>
       </c>
       <c r="H167" t="n">
-        <v>-145106084.5385532</v>
+        <v>-200365495.2610607</v>
       </c>
       <c r="I167" t="n">
-        <v>-1.72983710136922</v>
+        <v>-1.662853534058789</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -47219,7 +46943,7 @@
         </is>
       </c>
       <c r="B168" s="2" t="n">
-        <v>45855.5</v>
+        <v>45876.5</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -47227,22 +46951,22 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>3.267675369404749</v>
+        <v>3.153739489446899</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.04200698692475369</v>
+        <v>0.03691217959442561</v>
       </c>
       <c r="G168" t="n">
-        <v>0.01285608175063692</v>
+        <v>0.008503144743068016</v>
       </c>
       <c r="H168" t="n">
-        <v>1081654140.701865</v>
+        <v>359580240.767417</v>
       </c>
       <c r="I168" t="n">
-        <v>2.364119103648554</v>
+        <v>1.201627714096317</v>
       </c>
       <c r="J168" t="n">
         <v>1</v>
@@ -47261,7 +46985,7 @@
         </is>
       </c>
       <c r="B169" s="2" t="n">
-        <v>45857</v>
+        <v>45878.5</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -47269,22 +46993,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>3.417044710420229</v>
+        <v>3.258835895366054</v>
       </c>
       <c r="E169" t="n">
-        <v>4.571119347228472</v>
+        <v>3.332437770171912</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.01058440673957328</v>
+        <v>-0.005970649058068656</v>
       </c>
       <c r="G169" t="n">
-        <v>0.01674953301728384</v>
+        <v>0.01449355259858687</v>
       </c>
       <c r="H169" t="n">
-        <v>-200365495.2610607</v>
+        <v>-253941684.227375</v>
       </c>
       <c r="I169" t="n">
-        <v>-1.662853534058789</v>
+        <v>-1.109079275986783</v>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -47303,7 +47027,7 @@
         </is>
       </c>
       <c r="B170" s="2" t="n">
-        <v>45876.5</v>
+        <v>45882</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -47311,22 +47035,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3.153739489446899</v>
+        <v>3.26747236546907</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.03691217959442561</v>
+        <v>0.01407219190853182</v>
       </c>
       <c r="G170" t="n">
-        <v>0.008503144743068016</v>
+        <v>0.01253020871461937</v>
       </c>
       <c r="H170" t="n">
-        <v>359580240.767417</v>
+        <v>298849571.1437731</v>
       </c>
       <c r="I170" t="n">
-        <v>1.201627714096317</v>
+        <v>0.0778418750195686</v>
       </c>
       <c r="J170" t="n">
         <v>1</v>
@@ -47345,7 +47069,7 @@
         </is>
       </c>
       <c r="B171" s="2" t="n">
-        <v>45878.5</v>
+        <v>45883.5</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -47353,22 +47077,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3.258835895366054</v>
+        <v>3.186945905201149</v>
       </c>
       <c r="E171" t="n">
-        <v>3.332437770171912</v>
+        <v>-2.464487875059974</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.005970649058068656</v>
+        <v>-0.02001160819109327</v>
       </c>
       <c r="G171" t="n">
-        <v>0.01449355259858687</v>
+        <v>0.01270242921170287</v>
       </c>
       <c r="H171" t="n">
-        <v>-253941684.227375</v>
+        <v>303885835.3385611</v>
       </c>
       <c r="I171" t="n">
-        <v>-1.109079275986783</v>
+        <v>-1.617132562699669</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -47387,7 +47111,7 @@
         </is>
       </c>
       <c r="B172" s="2" t="n">
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -47395,22 +47119,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>3.26747236546907</v>
+        <v>2.952309340790555</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.01407219190853182</v>
+        <v>0.01082555663730611</v>
       </c>
       <c r="G172" t="n">
-        <v>0.01253020871461937</v>
+        <v>0.007441877724894171</v>
       </c>
       <c r="H172" t="n">
-        <v>298849571.1437731</v>
+        <v>43827841.31850338</v>
       </c>
       <c r="I172" t="n">
-        <v>0.0778418750195686</v>
+        <v>0.1792525538946588</v>
       </c>
       <c r="J172" t="n">
         <v>1</v>
@@ -47429,7 +47153,7 @@
         </is>
       </c>
       <c r="B173" s="2" t="n">
-        <v>45883.5</v>
+        <v>45890.5</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -47437,22 +47161,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>3.186945905201149</v>
+        <v>2.901066174357815</v>
       </c>
       <c r="E173" t="n">
-        <v>-2.464487875059974</v>
+        <v>-1.735697737521566</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.02001160819109327</v>
+        <v>-0.0009501258603874518</v>
       </c>
       <c r="G173" t="n">
-        <v>0.01270242921170287</v>
+        <v>0.007367844180052161</v>
       </c>
       <c r="H173" t="n">
-        <v>303885835.3385611</v>
+        <v>-228659661.1411896</v>
       </c>
       <c r="I173" t="n">
-        <v>-1.617132562699669</v>
+        <v>-0.4408405543264862</v>
       </c>
       <c r="J173" t="n">
         <v>1</v>
@@ -47471,7 +47195,7 @@
         </is>
       </c>
       <c r="B174" s="2" t="n">
-        <v>45890</v>
+        <v>45891.5</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -47479,22 +47203,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2.952309340790555</v>
+        <v>2.961548895020256</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.01082555663730611</v>
+        <v>0.02251244456848189</v>
       </c>
       <c r="G174" t="n">
-        <v>0.007441877724894171</v>
+        <v>0.006040177084133864</v>
       </c>
       <c r="H174" t="n">
-        <v>43827841.31850338</v>
+        <v>349435963.2458496</v>
       </c>
       <c r="I174" t="n">
-        <v>0.1792525538946588</v>
+        <v>0.9160404318878156</v>
       </c>
       <c r="J174" t="n">
         <v>1</v>
@@ -47513,30 +47237,30 @@
         </is>
       </c>
       <c r="B175" s="2" t="n">
-        <v>45890.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2.901066174357815</v>
+        <v>3.059550124367895</v>
       </c>
       <c r="E175" t="n">
-        <v>-1.735697737521566</v>
+        <v>3.309120761518586</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.0009501258603874518</v>
+        <v>0.02123466475467994</v>
       </c>
       <c r="G175" t="n">
-        <v>0.007367844180052161</v>
+        <v>0.004499636166002064</v>
       </c>
       <c r="H175" t="n">
-        <v>-228659661.1411896</v>
+        <v>-123132194.8514957</v>
       </c>
       <c r="I175" t="n">
-        <v>-0.4408405543264862</v>
+        <v>1.032363633766611</v>
       </c>
       <c r="J175" t="n">
         <v>1</v>
@@ -47555,7 +47279,7 @@
         </is>
       </c>
       <c r="B176" s="2" t="n">
-        <v>45891.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -47563,22 +47287,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2.961548895020256</v>
+        <v>2.806723591636079</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.02251244456848189</v>
+        <v>0.01420647421846422</v>
       </c>
       <c r="G176" t="n">
-        <v>0.006040177084133864</v>
+        <v>0.006650164733717385</v>
       </c>
       <c r="H176" t="n">
-        <v>349435963.2458496</v>
+        <v>445569893.2843523</v>
       </c>
       <c r="I176" t="n">
-        <v>0.9160404318878156</v>
+        <v>0.4968932840220217</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
@@ -47597,7 +47321,7 @@
         </is>
       </c>
       <c r="B177" s="2" t="n">
-        <v>45892.5</v>
+        <v>45903.5</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -47605,22 +47329,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>3.059550124367895</v>
+        <v>2.852681735633498</v>
       </c>
       <c r="E177" t="n">
-        <v>3.309120761518586</v>
+        <v>1.637430352399929</v>
       </c>
       <c r="F177" t="n">
-        <v>0.02123466475467994</v>
+        <v>0.01274604448192074</v>
       </c>
       <c r="G177" t="n">
-        <v>0.004499636166002064</v>
+        <v>0.008738267994225928</v>
       </c>
       <c r="H177" t="n">
-        <v>-123132194.8514957</v>
+        <v>-281668949.5671759</v>
       </c>
       <c r="I177" t="n">
-        <v>1.032363633766611</v>
+        <v>0.2600654786251684</v>
       </c>
       <c r="J177" t="n">
         <v>1</v>
@@ -47629,90 +47353,6 @@
         <v>1400</v>
       </c>
       <c r="L177" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>XRP</t>
-        </is>
-      </c>
-      <c r="B178" s="2" t="n">
-        <v>45902.5</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>2.806723591636079</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.01420647421846422</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.006650164733717385</v>
-      </c>
-      <c r="H178" t="n">
-        <v>445569893.2843523</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0.4968932840220217</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1</v>
-      </c>
-      <c r="K178" t="n">
-        <v>1400</v>
-      </c>
-      <c r="L178" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>XRP</t>
-        </is>
-      </c>
-      <c r="B179" s="2" t="n">
-        <v>45903.5</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>SELL_VOLUME</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>2.852681735633498</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.637430352399929</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.01274604448192074</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.008738267994225928</v>
-      </c>
-      <c r="H179" t="n">
-        <v>-281668949.5671759</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0.2600654786251684</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1</v>
-      </c>
-      <c r="K179" t="n">
-        <v>1400</v>
-      </c>
-      <c r="L179" t="n">
         <v>20</v>
       </c>
     </row>
@@ -47727,7 +47367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56077,19 +55717,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45907.04166666666</v>
+        <v>45907.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4924489920051195</v>
+        <v>0.48871316690024</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0008858576706284871</v>
+        <v>0.0001075607737785478</v>
       </c>
       <c r="D182" t="n">
-        <v>0.00090656170191664</v>
+        <v>0.0008751358967842345</v>
       </c>
       <c r="E182" t="n">
-        <v>-12344107.44526947</v>
+        <v>-10171624.05697095</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -56106,7 +55746,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.004796648973730332</v>
+        <v>-0.178282447233844</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -56118,52 +55758,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45907.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.48871316690024</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-8.129096763292987e-05</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.0005268421924038084</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-1869786.335683107</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.150850691457146</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -57189,7 +56783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65539,19 +65133,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45907.04166666666</v>
+        <v>45907.5</v>
       </c>
       <c r="B182" t="n">
-        <v>110479.5500242308</v>
+        <v>110209.1888247784</v>
       </c>
       <c r="C182" t="n">
-        <v>4.924997417751001</v>
+        <v>-51.40025246817095</v>
       </c>
       <c r="D182" t="n">
-        <v>135.4516536861403</v>
+        <v>133.6814239948167</v>
       </c>
       <c r="E182" t="n">
-        <v>-2930032754.083179</v>
+        <v>-2958891210.070526</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -65568,7 +65162,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.5051544920221954</v>
+        <v>-0.7156949594445039</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -65580,52 +65174,6 @@
         <v>40</v>
       </c>
       <c r="N182" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45907.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>110209.1888247784</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-49.81916741549503</v>
-      </c>
-      <c r="D183" t="n">
-        <v>132.1202441612651</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-1474083258.61882</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.7039810285341946</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>2800</v>
-      </c>
-      <c r="M183" t="n">
-        <v>40</v>
-      </c>
-      <c r="N183" t="n">
         <v>40</v>
       </c>
     </row>
@@ -66743,7 +66291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75093,19 +74641,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45907.04166666666</v>
+        <v>45907.5</v>
       </c>
       <c r="B182" t="n">
-        <v>4292.573365594387</v>
+        <v>4273.110024157841</v>
       </c>
       <c r="C182" t="n">
-        <v>4.090981767420089</v>
+        <v>0.0361189681398173</v>
       </c>
       <c r="D182" t="n">
-        <v>2.933237868030957</v>
+        <v>2.765960606625027</v>
       </c>
       <c r="E182" t="n">
-        <v>-1862009037.001507</v>
+        <v>-1869285302.825317</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -75122,7 +74670,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.05974426481824494</v>
+        <v>-0.1413393381787935</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -75134,52 +74682,6 @@
         <v>25</v>
       </c>
       <c r="N182" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45907.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>4273.110024157841</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.08273872573045082</v>
-      </c>
-      <c r="D183" t="n">
-        <v>2.234326172254721</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-864856988.2860146</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.113341312372159</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1750</v>
-      </c>
-      <c r="M183" t="n">
-        <v>25</v>
-      </c>
-      <c r="N183" t="n">
         <v>25</v>
       </c>
     </row>
@@ -76205,7 +75707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84555,19 +84057,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45907.04166666666</v>
+        <v>45907.5</v>
       </c>
       <c r="B182" t="n">
-        <v>2.4183823206319</v>
+        <v>2.401956105970934</v>
       </c>
       <c r="C182" t="n">
-        <v>0.005578600301867187</v>
+        <v>0.002156472247499153</v>
       </c>
       <c r="D182" t="n">
-        <v>0.005966897235482153</v>
+        <v>0.005832441460763272</v>
       </c>
       <c r="E182" t="n">
-        <v>-6115665.640589029</v>
+        <v>-6868181.216256693</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -84584,7 +84086,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.02947731154665068</v>
+        <v>-0.2799252041075787</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -84596,52 +84098,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45907.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.401956105970934</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.0003065529352817009</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.005224299736586062</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-3236099.145264819</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.3850896419214736</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>

--- a/results/momentum_portfolio_simulation_latest.xlsx
+++ b/results/momentum_portfolio_simulation_latest.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>312.0001058513028</v>
+        <v>312.71275155612</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.31818181818183</v>
+        <v>70.11494252873564</v>
       </c>
     </row>
     <row r="10">
@@ -1632,7 +1632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9982,19 +9982,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45908.04166666666</v>
+        <v>45908.5</v>
       </c>
       <c r="B182" t="n">
-        <v>206.1228147486879</v>
+        <v>206.5184884685637</v>
       </c>
       <c r="C182" t="n">
-        <v>0.4023257273848344</v>
+        <v>0.484757752358945</v>
       </c>
       <c r="D182" t="n">
-        <v>0.3833536563812214</v>
+        <v>0.3868804073201919</v>
       </c>
       <c r="E182" t="n">
-        <v>158051303.1726046</v>
+        <v>131121448.0343142</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01563719478379397</v>
+        <v>0.0805691787690794</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -10023,52 +10023,6 @@
         <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45908.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>206.5184884685637</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.2863485246068933</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.3825351243149069</v>
-      </c>
-      <c r="E183" t="n">
-        <v>121971672.6088209</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>206.5184884685637</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.07929851185905643</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1400</v>
-      </c>
-      <c r="M183" t="n">
-        <v>20</v>
-      </c>
-      <c r="N183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11324,7 +11278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19674,36 +19628,36 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45908.04166666666</v>
+        <v>45908.5</v>
       </c>
       <c r="B182" t="n">
-        <v>3.375252199383581</v>
+        <v>3.399478436447107</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.0002126628810890097</v>
+        <v>0.00483446984047875</v>
       </c>
       <c r="D182" t="n">
-        <v>0.00815431102435733</v>
+        <v>0.008336668655830673</v>
       </c>
       <c r="E182" t="n">
-        <v>-3590724.02948761</v>
+        <v>9415402.457604647</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>HOLD</t>
         </is>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>3.399478436447107</v>
       </c>
       <c r="I182" t="n">
-        <v>-0.7126457048171708</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.4765498367082975</v>
+        <v>-0.1991511132875658</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -19715,52 +19669,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45908.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>3.399478436447107</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.00429922772579161</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.00846278763386782</v>
-      </c>
-      <c r="E183" t="n">
-        <v>18225256.03131139</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.2370995530945819</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -19775,7 +19683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21186,52 +21094,6 @@
         <v>10</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45908.04166666666</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3.375252199383581</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.0002126628810890097</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.00815431102435733</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-3590724.02948761</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-0.7126457048171708</v>
-      </c>
-      <c r="J31" t="n">
-        <v>-0.4765498367082975</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>700</v>
-      </c>
-      <c r="M31" t="n">
-        <v>10</v>
-      </c>
-      <c r="N31" t="n">
         <v>10</v>
       </c>
     </row>
@@ -21246,7 +21108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29596,19 +29458,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45908.04166666666</v>
+        <v>45908.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.3301457720134348</v>
+        <v>0.3308409210738297</v>
       </c>
       <c r="C182" t="n">
-        <v>0.001449603211084283</v>
+        <v>0.001594425931999877</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0003030637339525287</v>
+        <v>0.0003117069779850294</v>
       </c>
       <c r="E182" t="n">
-        <v>-23822679.82321584</v>
+        <v>25079517.47188854</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -29625,7 +29487,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.9737029051716062</v>
+        <v>1.082338977352068</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -29637,52 +29499,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45908.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.3308409210738297</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.001161341400044258</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.0003738501249080394</v>
-      </c>
-      <c r="E183" t="n">
-        <v>25675755.10797369</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0.3226810987117928</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.6532791704407532</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -30846,7 +30662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39196,19 +39012,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45908.04166666666</v>
+        <v>45908.5</v>
       </c>
       <c r="B182" t="n">
-        <v>2.879192244448725</v>
+        <v>2.881098102223723</v>
       </c>
       <c r="C182" t="n">
-        <v>0.006834940481550866</v>
+        <v>0.007231994184675017</v>
       </c>
       <c r="D182" t="n">
-        <v>0.005703846036327785</v>
+        <v>0.005721326533098131</v>
       </c>
       <c r="E182" t="n">
-        <v>100938106.9879713</v>
+        <v>150315888.5922241</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -39225,7 +39041,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1029237837499824</v>
+        <v>0.1373568716618441</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -39237,52 +39053,6 @@
         <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45908.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.881098102223723</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.003871605207148576</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.005840290362110316</v>
-      </c>
-      <c r="E183" t="n">
-        <v>144710310.2895985</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2.881098102223723</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.1788107398372915</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1400</v>
-      </c>
-      <c r="M183" t="n">
-        <v>20</v>
-      </c>
-      <c r="N183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -40262,7 +40032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L183"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41109,16 +40879,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.000920748187463738</v>
+        <v>0.000990729390670686</v>
       </c>
       <c r="G20" t="n">
-        <v>0.000835226862038187</v>
+        <v>0.0006718052862546907</v>
       </c>
       <c r="H20" t="n">
-        <v>3423092.739628732</v>
+        <v>364452.4792218804</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0212993822799776</v>
+        <v>0.07808512980618534</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -42981,11 +42751,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45908.5</v>
+        <v>45824.5</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -42993,31 +42763,31 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4304.032421076036</v>
+        <v>2.257505695322998</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>6.023391600340801</v>
+        <v>0.01210303628203979</v>
       </c>
       <c r="G65" t="n">
-        <v>2.971238611391203</v>
+        <v>-0.0002890547830588473</v>
       </c>
       <c r="H65" t="n">
-        <v>156983521.7849674</v>
+        <v>1958544.882206976</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1585473429758287</v>
+        <v>0.603822232394178</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>1750</v>
+        <v>700</v>
       </c>
       <c r="L65" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -43027,30 +42797,30 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45824.5</v>
+        <v>45825.5</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2.257505695322998</v>
+        <v>2.219411380251871</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>-1.68745155992515</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01210303628203979</v>
+        <v>-0.001551236233696685</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.0002890547830588473</v>
+        <v>0.002230199429003037</v>
       </c>
       <c r="H66" t="n">
-        <v>1958544.882206976</v>
+        <v>9802433.280797184</v>
       </c>
       <c r="I66" t="n">
-        <v>0.603822232394178</v>
+        <v>-0.1859189699142015</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -43069,30 +42839,30 @@
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45825.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2.219411380251871</v>
+        <v>2.015522952261405</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.68745155992515</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.001551236233696685</v>
+        <v>0.02558579249807313</v>
       </c>
       <c r="G67" t="n">
-        <v>0.002230199429003037</v>
+        <v>0.002893728595639787</v>
       </c>
       <c r="H67" t="n">
-        <v>9802433.280797184</v>
+        <v>10349660.70761761</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.1859189699142015</v>
+        <v>1.330827889950556</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -43111,30 +42881,30 @@
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45831.5</v>
+        <v>45833.5</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2.015522952261405</v>
+        <v>2.161679454106587</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>7.251542418864321</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02558579249807313</v>
+        <v>0.01030611715590402</v>
       </c>
       <c r="G68" t="n">
-        <v>0.002893728595639787</v>
+        <v>0.00905424860091132</v>
       </c>
       <c r="H68" t="n">
-        <v>10349660.70761761</v>
+        <v>-11568400.45066845</v>
       </c>
       <c r="I68" t="n">
-        <v>1.330827889950556</v>
+        <v>0.06176418704535822</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -43153,30 +42923,30 @@
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45833.5</v>
+        <v>45838</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2.161679454106587</v>
+        <v>2.262159994562039</v>
       </c>
       <c r="E69" t="n">
-        <v>7.251542418864321</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01030611715590402</v>
+        <v>0.01765775748999499</v>
       </c>
       <c r="G69" t="n">
-        <v>0.00905424860091132</v>
+        <v>0.01240599641715219</v>
       </c>
       <c r="H69" t="n">
-        <v>-11568400.45066845</v>
+        <v>4313537.720857218</v>
       </c>
       <c r="I69" t="n">
-        <v>0.06176418704535822</v>
+        <v>0.3492307712213072</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -43195,30 +42965,30 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45838</v>
+        <v>45838.5</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2.262159994562039</v>
+        <v>2.204518638345326</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>-2.548067172758591</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01765775748999499</v>
+        <v>-0.00364379946850546</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01240599641715219</v>
+        <v>0.01231808814640082</v>
       </c>
       <c r="H70" t="n">
-        <v>4313537.720857218</v>
+        <v>6072744.378619105</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3492307712213072</v>
+        <v>-1.057695792389506</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -43237,30 +43007,30 @@
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45838.5</v>
+        <v>45841</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2.204518638345326</v>
+        <v>2.220620211695997</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.548067172758591</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.00364379946850546</v>
+        <v>0.02267850417938755</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01231808814640082</v>
+        <v>0.01149732630465882</v>
       </c>
       <c r="H71" t="n">
-        <v>6072744.378619105</v>
+        <v>16292622.96889192</v>
       </c>
       <c r="I71" t="n">
-        <v>-1.057695792389506</v>
+        <v>0.6630126282261187</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -43279,30 +43049,30 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45841</v>
+        <v>45842.5</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2.220620211695997</v>
+        <v>2.200986691160097</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>-0.8841458090172812</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02267850417938755</v>
+        <v>-0.007598200573808445</v>
       </c>
       <c r="G72" t="n">
-        <v>0.01149732630465882</v>
+        <v>0.01208605952842003</v>
       </c>
       <c r="H72" t="n">
-        <v>16292622.96889192</v>
+        <v>-4968526.404092759</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6630126282261187</v>
+        <v>-1.13874810825148</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -43321,30 +43091,30 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45842.5</v>
+        <v>45847</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2.200986691160097</v>
+        <v>2.241477389718983</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8841458090172812</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.007598200573808445</v>
+        <v>0.01260432894362307</v>
       </c>
       <c r="G73" t="n">
-        <v>0.01208605952842003</v>
+        <v>0.009924245458307187</v>
       </c>
       <c r="H73" t="n">
-        <v>-4968526.404092759</v>
+        <v>6362963.556892008</v>
       </c>
       <c r="I73" t="n">
-        <v>-1.13874810825148</v>
+        <v>0.1856198568331335</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -43363,30 +43133,30 @@
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45847</v>
+        <v>45850.5</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2.241477389718983</v>
+        <v>2.493259660094832</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>11.23287129866679</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01260432894362307</v>
+        <v>-0.007232466422903983</v>
       </c>
       <c r="G74" t="n">
-        <v>0.009924245458307187</v>
+        <v>0.01159621979321956</v>
       </c>
       <c r="H74" t="n">
-        <v>6362963.556892008</v>
+        <v>-3826821.125466257</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1856198568331335</v>
+        <v>-1.317159435793332</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -43405,30 +43175,30 @@
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45850.5</v>
+        <v>45874</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2.493259660094832</v>
+        <v>2.552572405849011</v>
       </c>
       <c r="E75" t="n">
-        <v>11.23287129866679</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.007232466422903983</v>
+        <v>0.03269420442222026</v>
       </c>
       <c r="G75" t="n">
-        <v>0.01159621979321956</v>
+        <v>0.003501016047103189</v>
       </c>
       <c r="H75" t="n">
-        <v>-3826821.125466257</v>
+        <v>5702473.114150852</v>
       </c>
       <c r="I75" t="n">
-        <v>-1.317159435793332</v>
+        <v>1.407384354125413</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -43447,30 +43217,30 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2.552572405849011</v>
+        <v>2.463262772221802</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>-3.498809021932653</v>
       </c>
       <c r="F76" t="n">
-        <v>0.03269420442222026</v>
+        <v>-1.156940759683422e-05</v>
       </c>
       <c r="G76" t="n">
-        <v>0.003501016047103189</v>
+        <v>0.004038069272309811</v>
       </c>
       <c r="H76" t="n">
-        <v>5702473.114150852</v>
+        <v>9942044.11744079</v>
       </c>
       <c r="I76" t="n">
-        <v>1.407384354125413</v>
+        <v>-0.1928130073685468</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -43489,30 +43259,30 @@
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45875</v>
+        <v>45875.5</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2.463262772221802</v>
+        <v>2.475734386918343</v>
       </c>
       <c r="E77" t="n">
-        <v>-3.498809021932653</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.156940759683422e-05</v>
+        <v>0.004671592978124028</v>
       </c>
       <c r="G77" t="n">
-        <v>0.004038069272309811</v>
+        <v>0.004454084011152036</v>
       </c>
       <c r="H77" t="n">
-        <v>9942044.11744079</v>
+        <v>4844376.702285826</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.1928130073685468</v>
+        <v>0.01030791669566692</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -43531,30 +43301,30 @@
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45875.5</v>
+        <v>45879</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2.475734386918343</v>
+        <v>2.830345055141985</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>14.32345368297128</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004671592978124028</v>
+        <v>0.0212055297270477</v>
       </c>
       <c r="G78" t="n">
-        <v>0.004454084011152036</v>
+        <v>0.01303179799916131</v>
       </c>
       <c r="H78" t="n">
-        <v>4844376.702285826</v>
+        <v>-9263978.90683952</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01030791669566692</v>
+        <v>0.4387488452221244</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -43573,30 +43343,30 @@
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45879</v>
+        <v>45882</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2.830345055141985</v>
+        <v>2.788537154608403</v>
       </c>
       <c r="E79" t="n">
-        <v>14.32345368297128</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0212055297270477</v>
+        <v>0.0168677057765807</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01303179799916131</v>
+        <v>0.01134834120838412</v>
       </c>
       <c r="H79" t="n">
-        <v>-9263978.90683952</v>
+        <v>12661981.56007284</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4387488452221244</v>
+        <v>0.2889980347950412</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -43615,30 +43385,30 @@
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45882</v>
+        <v>45883.5</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2.788537154608403</v>
+        <v>2.879444843095901</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>3.260049389597051</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0168677057765807</v>
+        <v>-0.007706157569623784</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01134834120838412</v>
+        <v>0.0150982712846225</v>
       </c>
       <c r="H80" t="n">
-        <v>12661981.56007284</v>
+        <v>9560063.583456755</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2889980347950412</v>
+        <v>-1.156995239609648</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -43657,30 +43427,30 @@
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45883.5</v>
+        <v>45891.5</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2.879444843095901</v>
+        <v>2.565535283173993</v>
       </c>
       <c r="E81" t="n">
-        <v>3.260049389597051</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.007706157569623784</v>
+        <v>0.02632386016216559</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0150982712846225</v>
+        <v>0.00901604604282398</v>
       </c>
       <c r="H81" t="n">
-        <v>9560063.583456755</v>
+        <v>15818805.8917959</v>
       </c>
       <c r="I81" t="n">
-        <v>-1.156995239609648</v>
+        <v>0.8160828141951215</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -43699,30 +43469,30 @@
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45891.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2.565535283173993</v>
+        <v>2.692185948357456</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>4.936617555568161</v>
       </c>
       <c r="F82" t="n">
-        <v>0.02632386016216559</v>
+        <v>0.02714224781214236</v>
       </c>
       <c r="G82" t="n">
-        <v>0.00901604604282398</v>
+        <v>0.01002657547949893</v>
       </c>
       <c r="H82" t="n">
-        <v>15818805.8917959</v>
+        <v>-222988.9500783086</v>
       </c>
       <c r="I82" t="n">
-        <v>0.8160828141951215</v>
+        <v>0.7730403058090841</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -43741,30 +43511,30 @@
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45892.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2.692185948357456</v>
+        <v>2.385852517158844</v>
       </c>
       <c r="E83" t="n">
-        <v>4.936617555568161</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.02714224781214236</v>
+        <v>0.01156571891200198</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01002657547949893</v>
+        <v>0.007980500662272426</v>
       </c>
       <c r="H83" t="n">
-        <v>-222988.9500783086</v>
+        <v>6021526.702548385</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7730403058090841</v>
+        <v>0.1957895677989701</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -43783,30 +43553,30 @@
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45902.5</v>
+        <v>45903</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.385852517158844</v>
+        <v>2.438355954449048</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>2.200615373859181</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01156571891200198</v>
+        <v>0.02021831342376545</v>
       </c>
       <c r="G84" t="n">
-        <v>0.007980500662272426</v>
+        <v>0.0093847013363728</v>
       </c>
       <c r="H84" t="n">
-        <v>6021526.702548385</v>
+        <v>-841713.5063202679</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1957895677989701</v>
+        <v>0.5943262070821804</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -43825,30 +43595,30 @@
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2.438355954449048</v>
+        <v>2.468294961207607</v>
       </c>
       <c r="E85" t="n">
-        <v>2.200615373859181</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.02021831342376545</v>
+        <v>0.01252840348345075</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0093847013363728</v>
+        <v>0.005905472626292731</v>
       </c>
       <c r="H85" t="n">
-        <v>-841713.5063202679</v>
+        <v>2602204.790089563</v>
       </c>
       <c r="I85" t="n">
-        <v>0.5943262070821804</v>
+        <v>0.5061310933032572</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -43863,11 +43633,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45908</v>
+        <v>45824</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -43875,31 +43645,31 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2.468294961207607</v>
+        <v>152.684889859998</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.01252840348345075</v>
+        <v>1.283027756716137</v>
       </c>
       <c r="G86" t="n">
-        <v>0.005905472626292731</v>
+        <v>0.06365473119992565</v>
       </c>
       <c r="H86" t="n">
-        <v>2602204.790089563</v>
+        <v>39448915.20042038</v>
       </c>
       <c r="I86" t="n">
-        <v>0.5061310933032572</v>
+        <v>1.160771730711012</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L86" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -43909,30 +43679,30 @@
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45824</v>
+        <v>45825.5</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>152.684889859998</v>
+        <v>149.7137164524326</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>-1.945951174533213</v>
       </c>
       <c r="F87" t="n">
-        <v>1.283027756716137</v>
+        <v>-0.08954539725368704</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06365473119992565</v>
+        <v>0.2054039413100257</v>
       </c>
       <c r="H87" t="n">
-        <v>39448915.20042038</v>
+        <v>120488410.3288431</v>
       </c>
       <c r="I87" t="n">
-        <v>1.160771730711012</v>
+        <v>-0.2966951621880208</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -43951,30 +43721,30 @@
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45825.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>149.7137164524326</v>
+        <v>138.2975212491284</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.945951174533213</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.08954539725368704</v>
+        <v>1.465737623887861</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2054039413100257</v>
+        <v>0.1259848913150867</v>
       </c>
       <c r="H88" t="n">
-        <v>120488410.3288431</v>
+        <v>242908521.6263123</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.2966951621880208</v>
+        <v>1.577536183335221</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -43993,30 +43763,30 @@
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45831.5</v>
+        <v>45833</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>138.2975212491284</v>
+        <v>145.8019507474219</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>5.426293566589028</v>
       </c>
       <c r="F89" t="n">
-        <v>1.465737623887861</v>
+        <v>1.103990881357561</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1259848913150867</v>
+        <v>0.4263598664236086</v>
       </c>
       <c r="H89" t="n">
-        <v>242908521.6263123</v>
+        <v>-385180261.9674101</v>
       </c>
       <c r="I89" t="n">
-        <v>1.577536183335221</v>
+        <v>0.656226596909561</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -44035,30 +43805,30 @@
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45833</v>
+        <v>45847.5</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>145.8019507474219</v>
+        <v>154.5192779712486</v>
       </c>
       <c r="E90" t="n">
-        <v>5.426293566589028</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1.103990881357561</v>
+        <v>0.7434671489321829</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4263598664236086</v>
+        <v>0.4286572023045138</v>
       </c>
       <c r="H90" t="n">
-        <v>-385180261.9674101</v>
+        <v>152017852.9672332</v>
       </c>
       <c r="I90" t="n">
-        <v>0.656226596909561</v>
+        <v>0.4573856054409204</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -44077,30 +43847,30 @@
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45847.5</v>
+        <v>45850</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>154.5192779712486</v>
+        <v>162.7531939800279</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>5.328730574518625</v>
       </c>
       <c r="F91" t="n">
-        <v>0.7434671489321829</v>
+        <v>-0.09816930072960872</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4286572023045138</v>
+        <v>0.5493024623146817</v>
       </c>
       <c r="H91" t="n">
-        <v>152017852.9672332</v>
+        <v>819165613.2711487</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4573856054409204</v>
+        <v>-0.9181359943186704</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -44119,30 +43889,30 @@
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45850</v>
+        <v>45854.5</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>162.7531939800279</v>
+        <v>168.8973976597816</v>
       </c>
       <c r="E92" t="n">
-        <v>5.328730574518625</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.09816930072960872</v>
+        <v>0.9529076831996406</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5493024623146817</v>
+        <v>0.3080356529969656</v>
       </c>
       <c r="H92" t="n">
-        <v>819165613.2711487</v>
+        <v>363484172.1708984</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.9181359943186704</v>
+        <v>1.037886069812958</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -44161,30 +43931,30 @@
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45854.5</v>
+        <v>45857</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>168.8973976597816</v>
+        <v>177.3697987441575</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>5.016300548006248</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9529076831996406</v>
+        <v>-0.05041965603780341</v>
       </c>
       <c r="G93" t="n">
-        <v>0.3080356529969656</v>
+        <v>0.4580487948758096</v>
       </c>
       <c r="H93" t="n">
-        <v>363484172.1708984</v>
+        <v>106943522.1245213</v>
       </c>
       <c r="I93" t="n">
-        <v>1.037886069812958</v>
+        <v>-0.8231368472783877</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -44203,30 +43973,30 @@
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>45857</v>
+        <v>45859.5</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>177.3697987441575</v>
+        <v>188.7080214820778</v>
       </c>
       <c r="E94" t="n">
-        <v>5.016300548006248</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05041965603780341</v>
+        <v>1.448729120004572</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4580487948758096</v>
+        <v>0.5460092946348757</v>
       </c>
       <c r="H94" t="n">
-        <v>106943522.1245213</v>
+        <v>1196790537.933931</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.8231368472783877</v>
+        <v>1.467814160369151</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -44245,30 +44015,30 @@
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>45859.5</v>
+        <v>45861.5</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>188.7080214820778</v>
+        <v>197.4416043041564</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>4.628093047389662</v>
       </c>
       <c r="F95" t="n">
-        <v>1.448729120004572</v>
+        <v>-1.278829142734338</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5460092946348757</v>
+        <v>0.7803233709928494</v>
       </c>
       <c r="H95" t="n">
-        <v>1196790537.933931</v>
+        <v>-247154625.5567245</v>
       </c>
       <c r="I95" t="n">
-        <v>1.467814160369151</v>
+        <v>-2.482736487193456</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -44287,30 +44057,30 @@
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>45861.5</v>
+        <v>45873</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>197.4416043041564</v>
+        <v>161.9031238761136</v>
       </c>
       <c r="E96" t="n">
-        <v>4.628093047389662</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.278829142734338</v>
+        <v>0.8965741848762718</v>
       </c>
       <c r="G96" t="n">
-        <v>0.7803233709928494</v>
+        <v>0.1628689513299557</v>
       </c>
       <c r="H96" t="n">
-        <v>-247154625.5567245</v>
+        <v>63125581.14286613</v>
       </c>
       <c r="I96" t="n">
-        <v>-2.482736487193456</v>
+        <v>0.6018132905919179</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -44329,30 +44099,30 @@
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>45873</v>
+        <v>45876</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>161.9031238761136</v>
+        <v>168.1731958529984</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>3.872730696464233</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8965741848762718</v>
+        <v>0.8825248644789667</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1628689513299557</v>
+        <v>0.09265891896779066</v>
       </c>
       <c r="H97" t="n">
-        <v>63125581.14286613</v>
+        <v>-19304010.87688065</v>
       </c>
       <c r="I97" t="n">
-        <v>0.6018132905919179</v>
+        <v>0.688195873409026</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -44371,30 +44141,30 @@
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>45876</v>
+        <v>45876.5</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>168.1731958529984</v>
+        <v>171.7791719420661</v>
       </c>
       <c r="E98" t="n">
-        <v>3.872730696464233</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8825248644789667</v>
+        <v>1.343470910771885</v>
       </c>
       <c r="G98" t="n">
-        <v>0.09265891896779066</v>
+        <v>0.1982872596197893</v>
       </c>
       <c r="H98" t="n">
-        <v>-19304010.87688065</v>
+        <v>145344463.877244</v>
       </c>
       <c r="I98" t="n">
-        <v>0.688195873409026</v>
+        <v>0.9670763444983992</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -44413,30 +44183,30 @@
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>45876.5</v>
+        <v>45879</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>171.7791719420661</v>
+        <v>180.3863831264505</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>5.010625611402572</v>
       </c>
       <c r="F99" t="n">
-        <v>1.343470910771885</v>
+        <v>0.6087583391860676</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1982872596197893</v>
+        <v>0.5544921883407838</v>
       </c>
       <c r="H99" t="n">
-        <v>145344463.877244</v>
+        <v>-61223356.92051888</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9670763444983992</v>
+        <v>0.05765846399713132</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -44455,30 +44225,30 @@
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>45879</v>
+        <v>45881.5</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>180.3863831264505</v>
+        <v>183.8196271661214</v>
       </c>
       <c r="E100" t="n">
-        <v>5.010625611402572</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6087583391860676</v>
+        <v>0.8735127058517094</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5544921883407838</v>
+        <v>0.5867899793022364</v>
       </c>
       <c r="H100" t="n">
-        <v>-61223356.92051888</v>
+        <v>183741550.3164721</v>
       </c>
       <c r="I100" t="n">
-        <v>0.05765846399713132</v>
+        <v>0.2874923381548945</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -44497,30 +44267,30 @@
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>45881.5</v>
+        <v>45883.5</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>183.8196271661214</v>
+        <v>197.2877458967517</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>7.326812124615431</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8735127058517094</v>
+        <v>-0.2732464048213785</v>
       </c>
       <c r="G101" t="n">
-        <v>0.5867899793022364</v>
+        <v>0.9216135721408265</v>
       </c>
       <c r="H101" t="n">
-        <v>183741550.3164721</v>
+        <v>532309274.5675869</v>
       </c>
       <c r="I101" t="n">
-        <v>0.2874923381548945</v>
+        <v>-1.080821783878068</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -44539,30 +44309,30 @@
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>45883.5</v>
+        <v>45890</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>197.2877458967517</v>
+        <v>187.2669439751863</v>
       </c>
       <c r="E102" t="n">
-        <v>7.326812124615431</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.2732464048213785</v>
+        <v>1.46011311142766</v>
       </c>
       <c r="G102" t="n">
-        <v>0.9216135721408265</v>
+        <v>0.6915526211700942</v>
       </c>
       <c r="H102" t="n">
-        <v>532309274.5675869</v>
+        <v>125188177.4218864</v>
       </c>
       <c r="I102" t="n">
-        <v>-1.080821783878068</v>
+        <v>0.6153156561247115</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -44581,30 +44351,30 @@
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>187.2669439751863</v>
+        <v>180.2429705120617</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>-3.750781271923401</v>
       </c>
       <c r="F103" t="n">
-        <v>1.46011311142766</v>
+        <v>-0.5820512706725651</v>
       </c>
       <c r="G103" t="n">
-        <v>0.6915526211700942</v>
+        <v>0.6247109511466056</v>
       </c>
       <c r="H103" t="n">
-        <v>125188177.4218864</v>
+        <v>-64914223.07429504</v>
       </c>
       <c r="I103" t="n">
-        <v>0.6153156561247115</v>
+        <v>-0.9728286361008582</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -44623,30 +44393,30 @@
         </is>
       </c>
       <c r="B104" s="2" t="n">
-        <v>45891</v>
+        <v>45891.5</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>180.2429705120617</v>
+        <v>190.2517785062837</v>
       </c>
       <c r="E104" t="n">
-        <v>-3.750781271923401</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.5820512706725651</v>
+        <v>1.817461589893526</v>
       </c>
       <c r="G104" t="n">
-        <v>0.6247109511466056</v>
+        <v>0.6507566498541997</v>
       </c>
       <c r="H104" t="n">
-        <v>-64914223.07429504</v>
+        <v>485958820.2321587</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.9728286361008582</v>
+        <v>0.9252517649035801</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -44665,30 +44435,30 @@
         </is>
       </c>
       <c r="B105" s="2" t="n">
-        <v>45891.5</v>
+        <v>45893</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>190.2517785062837</v>
+        <v>204.0193160962218</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>7.236482990083299</v>
       </c>
       <c r="F105" t="n">
-        <v>1.817461589893526</v>
+        <v>1.38841251637561</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6507566498541997</v>
+        <v>0.8399819719933563</v>
       </c>
       <c r="H105" t="n">
-        <v>485958820.2321587</v>
+        <v>-181027060.1196022</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9252517649035801</v>
+        <v>0.3882032273385685</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -44707,30 +44477,30 @@
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>45893</v>
+        <v>45896.5</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>204.0193160962218</v>
+        <v>199.6396072805956</v>
       </c>
       <c r="E106" t="n">
-        <v>7.236482990083299</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>1.38841251637561</v>
+        <v>0.8207701734949922</v>
       </c>
       <c r="G106" t="n">
-        <v>0.8399819719933563</v>
+        <v>0.7480853572349654</v>
       </c>
       <c r="H106" t="n">
-        <v>-181027060.1196022</v>
+        <v>14486734.71739578</v>
       </c>
       <c r="I106" t="n">
-        <v>0.3882032273385685</v>
+        <v>0.04602366081371165</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -44749,30 +44519,30 @@
         </is>
       </c>
       <c r="B107" s="2" t="n">
-        <v>45896.5</v>
+        <v>45898.5</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>199.6396072805956</v>
+        <v>209.8164711703309</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>5.097617666333936</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8207701734949922</v>
+        <v>-0.129704015575669</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7480853572349654</v>
+        <v>0.6890168067053876</v>
       </c>
       <c r="H107" t="n">
-        <v>14486734.71739578</v>
+        <v>63743123.29690361</v>
       </c>
       <c r="I107" t="n">
-        <v>0.04602366081371165</v>
+        <v>-0.534434242974223</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -44791,30 +44561,30 @@
         </is>
       </c>
       <c r="B108" s="2" t="n">
-        <v>45898.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>209.8164711703309</v>
+        <v>203.0570933347734</v>
       </c>
       <c r="E108" t="n">
-        <v>5.097617666333936</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.129704015575669</v>
+        <v>0.7397873634518248</v>
       </c>
       <c r="G108" t="n">
-        <v>0.6890168067053876</v>
+        <v>0.6971264631745422</v>
       </c>
       <c r="H108" t="n">
-        <v>63743123.29690361</v>
+        <v>394540989.0636425</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.534434242974223</v>
+        <v>0.02853308923395602</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -44833,30 +44603,30 @@
         </is>
       </c>
       <c r="B109" s="2" t="n">
-        <v>45902.5</v>
+        <v>45904</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>203.0570933347734</v>
+        <v>210.678785187558</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>3.753472349876964</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7397873634518248</v>
+        <v>0.6664767776373992</v>
       </c>
       <c r="G109" t="n">
-        <v>0.6971264631745422</v>
+        <v>0.9439840146599048</v>
       </c>
       <c r="H109" t="n">
-        <v>394540989.0636425</v>
+        <v>-123311821.3687286</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02853308923395602</v>
+        <v>-0.1915524898901692</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -44875,30 +44645,30 @@
         </is>
       </c>
       <c r="B110" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>210.678785187558</v>
+        <v>206.5184884685637</v>
       </c>
       <c r="E110" t="n">
-        <v>3.753472349876964</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6664767776373992</v>
+        <v>0.8550303229592942</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9439840146599048</v>
+        <v>0.3976418792686758</v>
       </c>
       <c r="H110" t="n">
-        <v>-123311821.3687286</v>
+        <v>116281787.7240515</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.1915524898901692</v>
+        <v>0.3747890680491475</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -44913,11 +44683,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="B111" s="2" t="n">
-        <v>45908</v>
+        <v>45825</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -44925,31 +44695,31 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>206.5184884685637</v>
+        <v>3.016129590749879</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8550303229592942</v>
+        <v>0.01007107129845553</v>
       </c>
       <c r="G111" t="n">
-        <v>0.3976418792686758</v>
+        <v>-0.002608858666270463</v>
       </c>
       <c r="H111" t="n">
-        <v>116281787.7240515</v>
+        <v>32036926.33305359</v>
       </c>
       <c r="I111" t="n">
-        <v>0.3747890680491475</v>
+        <v>0.6001697647446832</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="L111" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -44959,30 +44729,30 @@
         </is>
       </c>
       <c r="B112" s="2" t="n">
-        <v>45825</v>
+        <v>45825.5</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>3.016129590749879</v>
+        <v>2.932902918590052</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>-2.759386480444105</v>
       </c>
       <c r="F112" t="n">
-        <v>0.01007107129845553</v>
+        <v>-0.007382180715967745</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.002608858666270463</v>
+        <v>-0.002580235654673616</v>
       </c>
       <c r="H112" t="n">
-        <v>32036926.33305359</v>
+        <v>-2872225.166428328</v>
       </c>
       <c r="I112" t="n">
-        <v>0.6001697647446832</v>
+        <v>-0.2358832052033048</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -45001,30 +44771,30 @@
         </is>
       </c>
       <c r="B113" s="2" t="n">
-        <v>45825.5</v>
+        <v>45827</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2.932902918590052</v>
+        <v>2.827959672303814</v>
       </c>
       <c r="E113" t="n">
-        <v>-2.759386480444105</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.007382180715967745</v>
+        <v>-0.0010641827092992</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.002580235654673616</v>
+        <v>-0.002684272804761601</v>
       </c>
       <c r="H113" t="n">
-        <v>-2872225.166428328</v>
+        <v>35830884.79913509</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.2358832052033048</v>
+        <v>0.08686479127834724</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -45043,30 +44813,30 @@
         </is>
       </c>
       <c r="B114" s="2" t="n">
-        <v>45827</v>
+        <v>45827.5</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2.827959672303814</v>
+        <v>2.830224487533406</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>0.08008654620405564</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.0010641827092992</v>
+        <v>0.005304708645187173</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.002684272804761601</v>
+        <v>-0.001773534669154973</v>
       </c>
       <c r="H114" t="n">
-        <v>35830884.79913509</v>
+        <v>-24511777.6209327</v>
       </c>
       <c r="I114" t="n">
-        <v>0.08686479127834724</v>
+        <v>0.3816099541187195</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -45085,30 +44855,30 @@
         </is>
       </c>
       <c r="B115" s="2" t="n">
-        <v>45827.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2.830224487533406</v>
+        <v>2.639797050711826</v>
       </c>
       <c r="E115" t="n">
-        <v>0.08008654620405564</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.005304708645187173</v>
+        <v>0.04183781082573113</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.001773534669154973</v>
+        <v>0.0008644969637791027</v>
       </c>
       <c r="H115" t="n">
-        <v>-24511777.6209327</v>
+        <v>89980587.56398237</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3816099541187195</v>
+        <v>2.136799042223348</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -45127,30 +44897,30 @@
         </is>
       </c>
       <c r="B116" s="2" t="n">
-        <v>45831.5</v>
+        <v>45834</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2.639797050711826</v>
+        <v>2.72730318727156</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>3.314881215438036</v>
       </c>
       <c r="F116" t="n">
-        <v>0.04183781082573113</v>
+        <v>-0.002712507077002435</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0008644969637791027</v>
+        <v>0.008862531832675952</v>
       </c>
       <c r="H116" t="n">
-        <v>89980587.56398237</v>
+        <v>-81484374.0798595</v>
       </c>
       <c r="I116" t="n">
-        <v>2.136799042223348</v>
+        <v>-0.4677180526579662</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -45169,30 +44939,30 @@
         </is>
       </c>
       <c r="B117" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2.72730318727156</v>
+        <v>2.904015318956288</v>
       </c>
       <c r="E117" t="n">
-        <v>3.314881215438036</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.002712507077002435</v>
+        <v>0.02183322009556132</v>
       </c>
       <c r="G117" t="n">
-        <v>0.008862531832675952</v>
+        <v>0.01654738988179377</v>
       </c>
       <c r="H117" t="n">
-        <v>-81484374.0798595</v>
+        <v>15654102.80676925</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.4677180526579662</v>
+        <v>0.2524638216344218</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -45211,30 +44981,30 @@
         </is>
       </c>
       <c r="B118" s="2" t="n">
-        <v>45838</v>
+        <v>45838.5</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2.904015318956288</v>
+        <v>2.840682295224735</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>-2.180877742556667</v>
       </c>
       <c r="F118" t="n">
-        <v>0.02183322009556132</v>
+        <v>-0.002662626897215414</v>
       </c>
       <c r="G118" t="n">
-        <v>0.01654738988179377</v>
+        <v>0.01653432568855524</v>
       </c>
       <c r="H118" t="n">
-        <v>15654102.80676925</v>
+        <v>21030823.2830956</v>
       </c>
       <c r="I118" t="n">
-        <v>0.2524638216344218</v>
+        <v>-0.9165887909252122</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -45253,30 +45023,30 @@
         </is>
       </c>
       <c r="B119" s="2" t="n">
-        <v>45838.5</v>
+        <v>45841</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2.840682295224735</v>
+        <v>2.901781662278681</v>
       </c>
       <c r="E119" t="n">
-        <v>-2.180877742556667</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.002662626897215414</v>
+        <v>0.03002610722488885</v>
       </c>
       <c r="G119" t="n">
-        <v>0.01653432568855524</v>
+        <v>0.01625599071612573</v>
       </c>
       <c r="H119" t="n">
-        <v>21030823.2830956</v>
+        <v>77757892.34597266</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.9165887909252122</v>
+        <v>0.6112195890263704</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -45295,30 +45065,30 @@
         </is>
       </c>
       <c r="B120" s="2" t="n">
-        <v>45841</v>
+        <v>45842.5</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2.901781662278681</v>
+        <v>2.948030283362101</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1.593800859817344</v>
       </c>
       <c r="F120" t="n">
-        <v>0.03002610722488885</v>
+        <v>-0.002894130860745747</v>
       </c>
       <c r="G120" t="n">
-        <v>0.01625599071612573</v>
+        <v>0.01841680381352211</v>
       </c>
       <c r="H120" t="n">
-        <v>77757892.34597266</v>
+        <v>-15515471.36306214</v>
       </c>
       <c r="I120" t="n">
-        <v>0.6112195890263704</v>
+        <v>-0.9208583124039166</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -45337,30 +45107,30 @@
         </is>
       </c>
       <c r="B121" s="2" t="n">
-        <v>45842.5</v>
+        <v>45847.5</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2.948030283362101</v>
+        <v>2.989341953662318</v>
       </c>
       <c r="E121" t="n">
-        <v>1.593800859817344</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.002894130860745747</v>
+        <v>0.01961539419127201</v>
       </c>
       <c r="G121" t="n">
-        <v>0.01841680381352211</v>
+        <v>0.01086974279211781</v>
       </c>
       <c r="H121" t="n">
-        <v>-15515471.36306214</v>
+        <v>31512729.20528746</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.9208583124039166</v>
+        <v>0.5210790669077608</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -45379,30 +45149,30 @@
         </is>
       </c>
       <c r="B122" s="2" t="n">
-        <v>45847.5</v>
+        <v>45850</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>2.989341953662318</v>
+        <v>3.390990124062747</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>13.4360062055918</v>
       </c>
       <c r="F122" t="n">
-        <v>0.01961539419127201</v>
+        <v>-0.005298780336316256</v>
       </c>
       <c r="G122" t="n">
-        <v>0.01086974279211781</v>
+        <v>0.0198094322133266</v>
       </c>
       <c r="H122" t="n">
-        <v>31512729.20528746</v>
+        <v>68944527.01943159</v>
       </c>
       <c r="I122" t="n">
-        <v>0.5210790669077608</v>
+        <v>-1.116084835640091</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -45421,30 +45191,30 @@
         </is>
       </c>
       <c r="B123" s="2" t="n">
-        <v>45850</v>
+        <v>45852.5</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3.390990124062747</v>
+        <v>3.683926741045178</v>
       </c>
       <c r="E123" t="n">
-        <v>13.4360062055918</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.005298780336316256</v>
+        <v>0.03223991813223082</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0198094322133266</v>
+        <v>0.0174786303959788</v>
       </c>
       <c r="H123" t="n">
-        <v>68944527.01943159</v>
+        <v>155546537.289438</v>
       </c>
       <c r="I123" t="n">
-        <v>-1.116084835640091</v>
+        <v>0.6359143180027503</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -45463,30 +45233,30 @@
         </is>
       </c>
       <c r="B124" s="2" t="n">
-        <v>45852.5</v>
+        <v>45854.5</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>3.683926741045178</v>
+        <v>4.014209482374916</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>8.965507854698341</v>
       </c>
       <c r="F124" t="n">
-        <v>0.03223991813223082</v>
+        <v>-0.008716362203505135</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0174786303959788</v>
+        <v>0.0225673336826788</v>
       </c>
       <c r="H124" t="n">
-        <v>155546537.289438</v>
+        <v>-107910826.0207388</v>
       </c>
       <c r="I124" t="n">
-        <v>0.6359143180027503</v>
+        <v>-1.276298434438615</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -45505,30 +45275,30 @@
         </is>
       </c>
       <c r="B125" s="2" t="n">
-        <v>45854.5</v>
+        <v>45863.5</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4.014209482374916</v>
+        <v>3.828341938941208</v>
       </c>
       <c r="E125" t="n">
-        <v>8.965507854698341</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.008716362203505135</v>
+        <v>0.01460148439970288</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0225673336826788</v>
+        <v>0.01011139265418987</v>
       </c>
       <c r="H125" t="n">
-        <v>-107910826.0207388</v>
+        <v>49787626.47348094</v>
       </c>
       <c r="I125" t="n">
-        <v>-1.276298434438615</v>
+        <v>0.1511849910156428</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -45547,30 +45317,30 @@
         </is>
       </c>
       <c r="B126" s="2" t="n">
-        <v>45863.5</v>
+        <v>45866.5</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3.828341938941208</v>
+        <v>4.110951732521133</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>7.382041575368913</v>
       </c>
       <c r="F126" t="n">
-        <v>0.01460148439970288</v>
+        <v>-0.03127095785801615</v>
       </c>
       <c r="G126" t="n">
-        <v>0.01011139265418987</v>
+        <v>0.01449865996142518</v>
       </c>
       <c r="H126" t="n">
-        <v>49787626.47348094</v>
+        <v>34963414.72724485</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1511849910156428</v>
+        <v>-1.45195843541582</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -45589,30 +45359,30 @@
         </is>
       </c>
       <c r="B127" s="2" t="n">
-        <v>45866.5</v>
+        <v>45873.5</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>4.110951732521133</v>
+        <v>3.518317461946312</v>
       </c>
       <c r="E127" t="n">
-        <v>7.382041575368913</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.03127095785801615</v>
+        <v>0.03727759366966676</v>
       </c>
       <c r="G127" t="n">
-        <v>0.01449865996142518</v>
+        <v>0.008244171557714383</v>
       </c>
       <c r="H127" t="n">
-        <v>34963414.72724485</v>
+        <v>5326295.696876287</v>
       </c>
       <c r="I127" t="n">
-        <v>-1.45195843541582</v>
+        <v>0.9412868594891127</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -45631,30 +45401,30 @@
         </is>
       </c>
       <c r="B128" s="2" t="n">
-        <v>45873.5</v>
+        <v>45875</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3.518317461946312</v>
+        <v>3.410582823750509</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>-3.062106798520793</v>
       </c>
       <c r="F128" t="n">
-        <v>0.03727759366966676</v>
+        <v>-0.009806296901604838</v>
       </c>
       <c r="G128" t="n">
-        <v>0.008244171557714383</v>
+        <v>0.01020624545019599</v>
       </c>
       <c r="H128" t="n">
-        <v>5326295.696876287</v>
+        <v>-6532813.983025312</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9412868594891127</v>
+        <v>-0.6217913569811816</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -45673,30 +45443,30 @@
         </is>
       </c>
       <c r="B129" s="2" t="n">
-        <v>45875</v>
+        <v>45876.5</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>3.410582823750509</v>
+        <v>3.63438601332124</v>
       </c>
       <c r="E129" t="n">
-        <v>-3.062106798520793</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.009806296901604838</v>
+        <v>0.04086867729249244</v>
       </c>
       <c r="G129" t="n">
-        <v>0.01020624545019599</v>
+        <v>0.01369132959287839</v>
       </c>
       <c r="H129" t="n">
-        <v>-6532813.983025312</v>
+        <v>65700955.2067585</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.6217913569811816</v>
+        <v>0.820211596322992</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -45715,30 +45485,30 @@
         </is>
       </c>
       <c r="B130" s="2" t="n">
-        <v>45876.5</v>
+        <v>45878.5</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3.63438601332124</v>
+        <v>3.871665842458039</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>6.528745935822165</v>
       </c>
       <c r="F130" t="n">
-        <v>0.04086867729249244</v>
+        <v>0.01793314471899521</v>
       </c>
       <c r="G130" t="n">
-        <v>0.01369132959287839</v>
+        <v>0.0212460779422922</v>
       </c>
       <c r="H130" t="n">
-        <v>65700955.2067585</v>
+        <v>-13939765.97608757</v>
       </c>
       <c r="I130" t="n">
-        <v>0.820211596322992</v>
+        <v>-0.09855673219482076</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -45757,30 +45527,30 @@
         </is>
       </c>
       <c r="B131" s="2" t="n">
-        <v>45878.5</v>
+        <v>45882</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3.871665842458039</v>
+        <v>3.886979731632727</v>
       </c>
       <c r="E131" t="n">
-        <v>6.528745935822165</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.01793314471899521</v>
+        <v>0.01998194327193348</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0212460779422922</v>
+        <v>0.01372690576422696</v>
       </c>
       <c r="H131" t="n">
-        <v>-13939765.97608757</v>
+        <v>71444318.80472779</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.09855673219482076</v>
+        <v>0.2189981784162014</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -45799,30 +45569,30 @@
         </is>
       </c>
       <c r="B132" s="2" t="n">
-        <v>45882</v>
+        <v>45883.5</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3.886979731632727</v>
+        <v>3.891363173736707</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>0.1127724456165</v>
       </c>
       <c r="F132" t="n">
-        <v>0.01998194327193348</v>
+        <v>-0.01671517853205939</v>
       </c>
       <c r="G132" t="n">
-        <v>0.01372690576422696</v>
+        <v>0.01738847060569269</v>
       </c>
       <c r="H132" t="n">
-        <v>71444318.80472779</v>
+        <v>114544293.2317266</v>
       </c>
       <c r="I132" t="n">
-        <v>0.2189981784162014</v>
+        <v>-1.316524332507242</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -45841,30 +45611,30 @@
         </is>
       </c>
       <c r="B133" s="2" t="n">
-        <v>45883.5</v>
+        <v>45891.5</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3.891363173736707</v>
+        <v>3.584763402876916</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1127724456165</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.01671517853205939</v>
+        <v>0.0344409891036026</v>
       </c>
       <c r="G133" t="n">
-        <v>0.01738847060569269</v>
+        <v>0.01086750182150541</v>
       </c>
       <c r="H133" t="n">
-        <v>114544293.2317266</v>
+        <v>100956195.7082858</v>
       </c>
       <c r="I133" t="n">
-        <v>-1.316524332507242</v>
+        <v>0.9351392064434439</v>
       </c>
       <c r="J133" t="n">
         <v>1</v>
@@ -45883,30 +45653,30 @@
         </is>
       </c>
       <c r="B134" s="2" t="n">
-        <v>45891.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3.584763402876916</v>
+        <v>3.746666312960748</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>4.516418292875305</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0344409891036026</v>
+        <v>0.03300538130413555</v>
       </c>
       <c r="G134" t="n">
-        <v>0.01086750182150541</v>
+        <v>0.01108359169032185</v>
       </c>
       <c r="H134" t="n">
-        <v>100956195.7082858</v>
+        <v>-673203.3627033234</v>
       </c>
       <c r="I134" t="n">
-        <v>0.9351392064434439</v>
+        <v>0.8596713854438325</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -45925,30 +45695,30 @@
         </is>
       </c>
       <c r="B135" s="2" t="n">
-        <v>45892.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>3.746666312960748</v>
+        <v>3.254698811423597</v>
       </c>
       <c r="E135" t="n">
-        <v>4.516418292875305</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.03300538130413555</v>
+        <v>0.01526081595403905</v>
       </c>
       <c r="G135" t="n">
-        <v>0.01108359169032185</v>
+        <v>0.009608103936944733</v>
       </c>
       <c r="H135" t="n">
-        <v>-673203.3627033234</v>
+        <v>35543612.66707575</v>
       </c>
       <c r="I135" t="n">
-        <v>0.8596713854438325</v>
+        <v>0.2386742417693535</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -45967,30 +45737,30 @@
         </is>
       </c>
       <c r="B136" s="2" t="n">
-        <v>45902.5</v>
+        <v>45903</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3.254698811423597</v>
+        <v>3.3176143802287</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1.933068847546732</v>
       </c>
       <c r="F136" t="n">
-        <v>0.01526081595403905</v>
+        <v>0.02578299132036044</v>
       </c>
       <c r="G136" t="n">
-        <v>0.009608103936944733</v>
+        <v>0.0114033364713854</v>
       </c>
       <c r="H136" t="n">
-        <v>35543612.66707575</v>
+        <v>-24664725.21943486</v>
       </c>
       <c r="I136" t="n">
-        <v>0.2386742417693535</v>
+        <v>0.606203169437354</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
@@ -46009,30 +45779,30 @@
         </is>
       </c>
       <c r="B137" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3.3176143802287</v>
+        <v>3.384090214867991</v>
       </c>
       <c r="E137" t="n">
-        <v>1.933068847546732</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.02578299132036044</v>
+        <v>0.02298326709189347</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0114033364713854</v>
+        <v>0.01469458150718902</v>
       </c>
       <c r="H137" t="n">
-        <v>-24664725.21943486</v>
+        <v>7035208.983371139</v>
       </c>
       <c r="I137" t="n">
-        <v>0.606203169437354</v>
+        <v>0.3671472848230366</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
@@ -46051,30 +45821,30 @@
         </is>
       </c>
       <c r="B138" s="2" t="n">
-        <v>45904</v>
+        <v>45904.5</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3.384090214867991</v>
+        <v>3.336554756859905</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>-1.404674668519165</v>
       </c>
       <c r="F138" t="n">
-        <v>0.02298326709189347</v>
+        <v>0.004217538481424477</v>
       </c>
       <c r="G138" t="n">
-        <v>0.01469458150718902</v>
+        <v>0.0148590225407107</v>
       </c>
       <c r="H138" t="n">
-        <v>7035208.983371139</v>
+        <v>-9916359.569326878</v>
       </c>
       <c r="I138" t="n">
-        <v>0.3671472848230366</v>
+        <v>-0.4716688571346208</v>
       </c>
       <c r="J138" t="n">
         <v>1</v>
@@ -46093,30 +45863,30 @@
         </is>
       </c>
       <c r="B139" s="2" t="n">
-        <v>45904.5</v>
+        <v>45908</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3.336554756859905</v>
+        <v>3.399478436447107</v>
       </c>
       <c r="E139" t="n">
-        <v>-1.404674668519165</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.004217538481424477</v>
+        <v>0.009372312758283208</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0148590225407107</v>
+        <v>0.008264541919538839</v>
       </c>
       <c r="H139" t="n">
-        <v>-9916359.569326878</v>
+        <v>3859366.966993928</v>
       </c>
       <c r="I139" t="n">
-        <v>-0.4716688571346208</v>
+        <v>0.06305179619474489</v>
       </c>
       <c r="J139" t="n">
         <v>1</v>
@@ -46131,11 +45901,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="B140" s="2" t="n">
-        <v>45908</v>
+        <v>45824.5</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -46143,22 +45913,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3.399478436447107</v>
+        <v>0.2745675775082441</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.009372312758283208</v>
+        <v>0.0007012246525400223</v>
       </c>
       <c r="G140" t="n">
-        <v>0.008264541919538839</v>
+        <v>-6.697711124712888e-06</v>
       </c>
       <c r="H140" t="n">
-        <v>3859366.966993928</v>
+        <v>122875773.3359403</v>
       </c>
       <c r="I140" t="n">
-        <v>0.06305179619474489</v>
+        <v>0.6130986389837932</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -46173,11 +45943,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="B141" s="2" t="n">
-        <v>45908.04166666666</v>
+        <v>45826</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -46185,22 +45955,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3.375252199383581</v>
+        <v>0.2717577802149598</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.7126457048171708</v>
+        <v>-1.023353638031032</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.0002126628810890097</v>
+        <v>-0.0002608337020795215</v>
       </c>
       <c r="G141" t="n">
-        <v>0.00815431102435733</v>
+        <v>0.000102178120365927</v>
       </c>
       <c r="H141" t="n">
-        <v>-3590724.02948761</v>
+        <v>-54876504.35671616</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.4765498367082975</v>
+        <v>-0.3359370885867027</v>
       </c>
       <c r="J141" t="n">
         <v>1</v>
@@ -46219,7 +45989,7 @@
         </is>
       </c>
       <c r="B142" s="2" t="n">
-        <v>45824.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -46227,22 +45997,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.2745675775082441</v>
+        <v>0.268317425423677</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0007012246525400223</v>
+        <v>0.0004792505964680838</v>
       </c>
       <c r="G142" t="n">
-        <v>-6.697711124712888e-06</v>
+        <v>0.000144435698600138</v>
       </c>
       <c r="H142" t="n">
-        <v>122875773.3359403</v>
+        <v>41912908.66840923</v>
       </c>
       <c r="I142" t="n">
-        <v>0.6130986389837932</v>
+        <v>0.3773439285927104</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -46261,30 +46031,30 @@
         </is>
       </c>
       <c r="B143" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.2717577802149598</v>
+        <v>0.2739217753188412</v>
       </c>
       <c r="E143" t="n">
-        <v>-1.023353638031032</v>
+        <v>2.088701427540469</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.0002608337020795215</v>
+        <v>0.0006753170417337362</v>
       </c>
       <c r="G143" t="n">
-        <v>0.000102178120365927</v>
+        <v>0.0003034560327649742</v>
       </c>
       <c r="H143" t="n">
-        <v>-54876504.35671616</v>
+        <v>-88421202.15764666</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.3359370885867027</v>
+        <v>0.3974828404554594</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -46303,7 +46073,7 @@
         </is>
       </c>
       <c r="B144" s="2" t="n">
-        <v>45831.5</v>
+        <v>45838.5</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -46311,22 +46081,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.268317425423677</v>
+        <v>0.2783606128535416</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0004792505964680838</v>
+        <v>0.0004818282970026067</v>
       </c>
       <c r="G144" t="n">
-        <v>0.000144435698600138</v>
+        <v>0.000442592436854558</v>
       </c>
       <c r="H144" t="n">
-        <v>41912908.66840923</v>
+        <v>19150811.36726099</v>
       </c>
       <c r="I144" t="n">
-        <v>0.3773439285927104</v>
+        <v>0.07672799712512328</v>
       </c>
       <c r="J144" t="n">
         <v>1</v>
@@ -46345,30 +46115,30 @@
         </is>
       </c>
       <c r="B145" s="2" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.2739217753188412</v>
+        <v>0.2787627479884452</v>
       </c>
       <c r="E145" t="n">
-        <v>2.088701427540469</v>
+        <v>0.1444655300839029</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0006753170417337362</v>
+        <v>-0.0001861168488541676</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0003034560327649742</v>
+        <v>0.000375155418240382</v>
       </c>
       <c r="H145" t="n">
-        <v>-88421202.15764666</v>
+        <v>6845472.678718626</v>
       </c>
       <c r="I145" t="n">
-        <v>0.3974828404554594</v>
+        <v>-1.146931054505869</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -46387,7 +46157,7 @@
         </is>
       </c>
       <c r="B146" s="2" t="n">
-        <v>45838.5</v>
+        <v>45840.5</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -46395,22 +46165,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.2783606128535416</v>
+        <v>0.2817584964143807</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0004818282970026067</v>
+        <v>0.0004133711488161218</v>
       </c>
       <c r="G146" t="n">
-        <v>0.000442592436854558</v>
+        <v>0.00038791412976948</v>
       </c>
       <c r="H146" t="n">
-        <v>19150811.36726099</v>
+        <v>18426559.55366075</v>
       </c>
       <c r="I146" t="n">
-        <v>0.07672799712512328</v>
+        <v>0.05175159245296822</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -46429,7 +46199,7 @@
         </is>
       </c>
       <c r="B147" s="2" t="n">
-        <v>45840</v>
+        <v>45842.5</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -46437,22 +46207,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.2787627479884452</v>
+        <v>0.2847070033553019</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1444655300839029</v>
+        <v>1.046466026204506</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.0001861168488541676</v>
+        <v>-0.0004483053166401962</v>
       </c>
       <c r="G147" t="n">
-        <v>0.000375155418240382</v>
+        <v>0.0004251961872640992</v>
       </c>
       <c r="H147" t="n">
-        <v>6845472.678718626</v>
+        <v>3507873.517659843</v>
       </c>
       <c r="I147" t="n">
-        <v>-1.146931054505869</v>
+        <v>-1.698588758090974</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
@@ -46471,7 +46241,7 @@
         </is>
       </c>
       <c r="B148" s="2" t="n">
-        <v>45840.5</v>
+        <v>45848.5</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -46479,22 +46249,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.2817584964143807</v>
+        <v>0.2917647951343454</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0004133711488161218</v>
+        <v>0.000389241492383452</v>
       </c>
       <c r="G148" t="n">
-        <v>0.00038791412976948</v>
+        <v>0.0002745178554024699</v>
       </c>
       <c r="H148" t="n">
-        <v>18426559.55366075</v>
+        <v>76806050.4770695</v>
       </c>
       <c r="I148" t="n">
-        <v>0.05175159245296822</v>
+        <v>0.3090944257555276</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -46513,7 +46283,7 @@
         </is>
       </c>
       <c r="B149" s="2" t="n">
-        <v>45842.5</v>
+        <v>45851.5</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -46521,22 +46291,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.2847070033553019</v>
+        <v>0.302735538596902</v>
       </c>
       <c r="E149" t="n">
-        <v>1.046466026204506</v>
+        <v>3.76013269781402</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.0004483053166401962</v>
+        <v>-7.253142696866943e-05</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0004251961872640992</v>
+        <v>0.0004073284929714104</v>
       </c>
       <c r="H149" t="n">
-        <v>3507873.517659843</v>
+        <v>-161793471.8767972</v>
       </c>
       <c r="I149" t="n">
-        <v>-1.698588758090974</v>
+        <v>-1.111565159428154</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -46555,7 +46325,7 @@
         </is>
       </c>
       <c r="B150" s="2" t="n">
-        <v>45848.5</v>
+        <v>45855.5</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -46563,22 +46333,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.2917647951343454</v>
+        <v>0.3125877657923776</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.000389241492383452</v>
+        <v>0.001046918493308902</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0002745178554024699</v>
+        <v>0.000374513801100434</v>
       </c>
       <c r="H150" t="n">
-        <v>76806050.4770695</v>
+        <v>139523489.3454525</v>
       </c>
       <c r="I150" t="n">
-        <v>0.3090944257555276</v>
+        <v>1.20615366490001</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -46597,7 +46367,7 @@
         </is>
       </c>
       <c r="B151" s="2" t="n">
-        <v>45851.5</v>
+        <v>45857.5</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -46605,22 +46375,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.302735538596902</v>
+        <v>0.3218198585060033</v>
       </c>
       <c r="E151" t="n">
-        <v>3.76013269781402</v>
+        <v>2.953440193100081</v>
       </c>
       <c r="F151" t="n">
-        <v>-7.253142696866943e-05</v>
+        <v>-0.0003647549429432462</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0004073284929714104</v>
+        <v>0.0005039970051228475</v>
       </c>
       <c r="H151" t="n">
-        <v>-161793471.8767972</v>
+        <v>-128924121.95717</v>
       </c>
       <c r="I151" t="n">
-        <v>-1.111565159428154</v>
+        <v>-1.320841953833646</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
@@ -46639,7 +46409,7 @@
         </is>
       </c>
       <c r="B152" s="2" t="n">
-        <v>45855.5</v>
+        <v>45867.5</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -46647,22 +46417,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.3125877657923776</v>
+        <v>0.3300358571220755</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.001046918493308902</v>
+        <v>0.001631556135825274</v>
       </c>
       <c r="G152" t="n">
-        <v>0.000374513801100434</v>
+        <v>0.0004192706097844234</v>
       </c>
       <c r="H152" t="n">
-        <v>139523489.3454525</v>
+        <v>247085363.7363601</v>
       </c>
       <c r="I152" t="n">
-        <v>1.20615366490001</v>
+        <v>1.338721173482782</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -46681,7 +46451,7 @@
         </is>
       </c>
       <c r="B153" s="2" t="n">
-        <v>45857.5</v>
+        <v>45869</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -46689,22 +46459,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.3218198585060033</v>
+        <v>0.3275810251017437</v>
       </c>
       <c r="E153" t="n">
-        <v>2.953440193100081</v>
+        <v>-0.7438076703961906</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.0003647549429432462</v>
+        <v>-0.001366494334261004</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0005039970051228475</v>
+        <v>0.0005812772026898603</v>
       </c>
       <c r="H153" t="n">
-        <v>-128924121.95717</v>
+        <v>-138895958.7567077</v>
       </c>
       <c r="I153" t="n">
-        <v>-1.320841953833646</v>
+        <v>-1.920045139219781</v>
       </c>
       <c r="J153" t="n">
         <v>1</v>
@@ -46723,7 +46493,7 @@
         </is>
       </c>
       <c r="B154" s="2" t="n">
-        <v>45867.5</v>
+        <v>45874.5</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -46731,22 +46501,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.3300358571220755</v>
+        <v>0.3331680746835551</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.001631556135825274</v>
+        <v>0.0005201611277014795</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0004192706097844234</v>
+        <v>0.000440875462689942</v>
       </c>
       <c r="H154" t="n">
-        <v>247085363.7363601</v>
+        <v>47462570.01715088</v>
       </c>
       <c r="I154" t="n">
-        <v>1.338721173482782</v>
+        <v>0.08845432985743126</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -46765,7 +46535,7 @@
         </is>
       </c>
       <c r="B155" s="2" t="n">
-        <v>45869</v>
+        <v>45877.5</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -46773,22 +46543,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.3275810251017437</v>
+        <v>0.3382871402130892</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.7438076703961906</v>
+        <v>1.536481409389594</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.001366494334261004</v>
+        <v>-0.0001952183200799595</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0005812772026898603</v>
+        <v>0.0005656384487872866</v>
       </c>
       <c r="H155" t="n">
-        <v>-138895958.7567077</v>
+        <v>54576851.24660683</v>
       </c>
       <c r="I155" t="n">
-        <v>-1.920045139219781</v>
+        <v>-0.9156128867775538</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -46807,7 +46577,7 @@
         </is>
       </c>
       <c r="B156" s="2" t="n">
-        <v>45874.5</v>
+        <v>45880.5</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -46815,22 +46585,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.3331680746835551</v>
+        <v>0.3418650094309428</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0005201611277014795</v>
+        <v>0.0006705060844198196</v>
       </c>
       <c r="G156" t="n">
-        <v>0.000440875462689942</v>
+        <v>0.0004415926009874527</v>
       </c>
       <c r="H156" t="n">
-        <v>47462570.01715088</v>
+        <v>43309713.16087949</v>
       </c>
       <c r="I156" t="n">
-        <v>0.08845432985743126</v>
+        <v>0.2678619275471008</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -46849,7 +46619,7 @@
         </is>
       </c>
       <c r="B157" s="2" t="n">
-        <v>45877.5</v>
+        <v>45884</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -46857,22 +46627,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.3382871402130892</v>
+        <v>0.3584784483629515</v>
       </c>
       <c r="E157" t="n">
-        <v>1.536481409389594</v>
+        <v>4.859648830297917</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.0001952183200799595</v>
+        <v>-0.0007240318028570725</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0005656384487872866</v>
+        <v>0.0005079869532538242</v>
       </c>
       <c r="H157" t="n">
-        <v>54576851.24660683</v>
+        <v>181200952.1556191</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.9156128867775538</v>
+        <v>-1.520083455083172</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
@@ -46891,7 +46661,7 @@
         </is>
       </c>
       <c r="B158" s="2" t="n">
-        <v>45880.5</v>
+        <v>45890</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -46899,22 +46669,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.3418650094309428</v>
+        <v>0.3543091308054578</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0006705060844198196</v>
+        <v>0.0008001595011584706</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0004415926009874527</v>
+        <v>0.0003622194414516559</v>
       </c>
       <c r="H158" t="n">
-        <v>43309713.16087949</v>
+        <v>4268879.132735491</v>
       </c>
       <c r="I158" t="n">
-        <v>0.2678619275471008</v>
+        <v>0.4851646291855036</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
@@ -46933,30 +46703,30 @@
         </is>
       </c>
       <c r="B159" s="2" t="n">
-        <v>45884</v>
+        <v>45890.5</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.3584784483629515</v>
+        <v>0.3538682207719828</v>
       </c>
       <c r="E159" t="n">
-        <v>4.859648830297917</v>
+        <v>-0.1244421876661048</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.0007240318028570725</v>
+        <v>0.0003318298819959264</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0005079869532538242</v>
+        <v>0.0003614236803113684</v>
       </c>
       <c r="H159" t="n">
-        <v>181200952.1556191</v>
+        <v>-9422721.69231081</v>
       </c>
       <c r="I159" t="n">
-        <v>-1.520083455083172</v>
+        <v>-0.03279644909166145</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -46975,7 +46745,7 @@
         </is>
       </c>
       <c r="B160" s="2" t="n">
-        <v>45890</v>
+        <v>45891.5</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -46983,22 +46753,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.3543091308054578</v>
+        <v>0.3599039170145206</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0008001595011584706</v>
+        <v>0.001316665978542186</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0003622194414516559</v>
+        <v>0.0004015124717145222</v>
       </c>
       <c r="H160" t="n">
-        <v>4268879.132735491</v>
+        <v>26699893.59009409</v>
       </c>
       <c r="I160" t="n">
-        <v>0.4851646291855036</v>
+        <v>0.9808169281185521</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
@@ -47017,7 +46787,7 @@
         </is>
       </c>
       <c r="B161" s="2" t="n">
-        <v>45890.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -47025,22 +46795,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.3538682207719828</v>
+        <v>0.3643294283113314</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.1244421876661048</v>
+        <v>1.229636880176617</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0003318298819959264</v>
+        <v>0.0005444088909913325</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0003614236803113684</v>
+        <v>0.0005297146808586745</v>
       </c>
       <c r="H161" t="n">
-        <v>-9422721.69231081</v>
+        <v>-25369346.49066067</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.03279644909166145</v>
+        <v>0.01453830775520736</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
@@ -47059,7 +46829,7 @@
         </is>
       </c>
       <c r="B162" s="2" t="n">
-        <v>45891.5</v>
+        <v>45907.5</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -47067,22 +46837,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.3599039170145206</v>
+        <v>0.3226810987117928</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.001316665978542186</v>
+        <v>0.0005281944213604284</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0004015124717145222</v>
+        <v>6.683701027420844e-05</v>
       </c>
       <c r="H162" t="n">
-        <v>26699893.59009409</v>
+        <v>63020279.58403623</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9808169281185521</v>
+        <v>0.4562270762388891</v>
       </c>
       <c r="J162" t="n">
         <v>1</v>
@@ -47097,85 +46867,85 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="B163" s="2" t="n">
-        <v>45892.5</v>
+        <v>45824.5</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.3643294283113314</v>
+        <v>2.210927953443365</v>
       </c>
       <c r="E163" t="n">
-        <v>1.229636880176617</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0005444088909913325</v>
+        <v>0.0136699482316045</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0005297146808586745</v>
+        <v>-0.0006762801114000407</v>
       </c>
       <c r="H163" t="n">
-        <v>-25369346.49066067</v>
+        <v>250453897.7312098</v>
       </c>
       <c r="I163" t="n">
-        <v>0.01453830775520736</v>
+        <v>1.570739305483146</v>
       </c>
       <c r="J163" t="n">
         <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L163" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="B164" s="2" t="n">
-        <v>45907.5</v>
+        <v>45826</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.3226810987117928</v>
+        <v>2.163231775939699</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>-2.157292255018163</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0005281944213604284</v>
+        <v>-0.009207133260662026</v>
       </c>
       <c r="G164" t="n">
-        <v>6.683701027420844e-05</v>
+        <v>0.001562900204596325</v>
       </c>
       <c r="H164" t="n">
-        <v>63020279.58403623</v>
+        <v>-29889895.43114567</v>
       </c>
       <c r="I164" t="n">
-        <v>0.4562270762388891</v>
+        <v>-1.052286911092913</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L164" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165">
@@ -47185,7 +46955,7 @@
         </is>
       </c>
       <c r="B165" s="2" t="n">
-        <v>45824.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -47193,22 +46963,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2.210927953443365</v>
+        <v>2.088760137377982</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0136699482316045</v>
+        <v>0.01486492966859476</v>
       </c>
       <c r="G165" t="n">
-        <v>-0.0006762801114000407</v>
+        <v>0.0008773466071979982</v>
       </c>
       <c r="H165" t="n">
-        <v>250453897.7312098</v>
+        <v>154715761.447947</v>
       </c>
       <c r="I165" t="n">
-        <v>1.570739305483146</v>
+        <v>1.562218273287651</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
@@ -47227,30 +46997,30 @@
         </is>
       </c>
       <c r="B166" s="2" t="n">
-        <v>45826</v>
+        <v>45833.5</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2.163231775939699</v>
+        <v>2.186476900305086</v>
       </c>
       <c r="E166" t="n">
-        <v>-2.157292255018163</v>
+        <v>4.678218488493711</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.009207133260662026</v>
+        <v>0.00699565744403996</v>
       </c>
       <c r="G166" t="n">
-        <v>0.001562900204596325</v>
+        <v>0.004648952851787541</v>
       </c>
       <c r="H166" t="n">
-        <v>-29889895.43114567</v>
+        <v>-210695661.8755474</v>
       </c>
       <c r="I166" t="n">
-        <v>-1.052286911092913</v>
+        <v>0.2105809520918033</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
@@ -47269,7 +47039,7 @@
         </is>
       </c>
       <c r="B167" s="2" t="n">
-        <v>45831.5</v>
+        <v>45847.5</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -47277,22 +47047,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2.088760137377982</v>
+        <v>2.357941413071812</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.01486492966859476</v>
+        <v>0.01104274758703472</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0008773466071979982</v>
+        <v>0.00475130436261844</v>
       </c>
       <c r="H167" t="n">
-        <v>154715761.447947</v>
+        <v>114060796.6551976</v>
       </c>
       <c r="I167" t="n">
-        <v>1.562218273287651</v>
+        <v>0.9926221336101752</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -47311,30 +47081,30 @@
         </is>
       </c>
       <c r="B168" s="2" t="n">
-        <v>45833.5</v>
+        <v>45853.5</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2.186476900305086</v>
+        <v>2.936004628778936</v>
       </c>
       <c r="E168" t="n">
-        <v>4.678218488493711</v>
+        <v>24.51558857664965</v>
       </c>
       <c r="F168" t="n">
-        <v>0.00699565744403996</v>
+        <v>-0.007133683517837053</v>
       </c>
       <c r="G168" t="n">
-        <v>0.004648952851787541</v>
+        <v>0.01051482515638282</v>
       </c>
       <c r="H168" t="n">
-        <v>-210695661.8755474</v>
+        <v>-145106084.5385532</v>
       </c>
       <c r="I168" t="n">
-        <v>0.2105809520918033</v>
+        <v>-1.72983710136922</v>
       </c>
       <c r="J168" t="n">
         <v>1</v>
@@ -47353,7 +47123,7 @@
         </is>
       </c>
       <c r="B169" s="2" t="n">
-        <v>45847.5</v>
+        <v>45855.5</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -47361,22 +47131,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2.357941413071812</v>
+        <v>3.267675369404749</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.01104274758703472</v>
+        <v>0.04200698692475369</v>
       </c>
       <c r="G169" t="n">
-        <v>0.00475130436261844</v>
+        <v>0.01285608175063692</v>
       </c>
       <c r="H169" t="n">
-        <v>114060796.6551976</v>
+        <v>1081654140.701865</v>
       </c>
       <c r="I169" t="n">
-        <v>0.9926221336101752</v>
+        <v>2.364119103648554</v>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -47395,7 +47165,7 @@
         </is>
       </c>
       <c r="B170" s="2" t="n">
-        <v>45853.5</v>
+        <v>45857</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -47403,22 +47173,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2.936004628778936</v>
+        <v>3.417044710420229</v>
       </c>
       <c r="E170" t="n">
-        <v>24.51558857664965</v>
+        <v>4.571119347228472</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.007133683517837053</v>
+        <v>-0.01058440673957328</v>
       </c>
       <c r="G170" t="n">
-        <v>0.01051482515638282</v>
+        <v>0.01674953301728384</v>
       </c>
       <c r="H170" t="n">
-        <v>-145106084.5385532</v>
+        <v>-200365495.2610607</v>
       </c>
       <c r="I170" t="n">
-        <v>-1.72983710136922</v>
+        <v>-1.662853534058789</v>
       </c>
       <c r="J170" t="n">
         <v>1</v>
@@ -47437,7 +47207,7 @@
         </is>
       </c>
       <c r="B171" s="2" t="n">
-        <v>45855.5</v>
+        <v>45876.5</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -47445,22 +47215,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3.267675369404749</v>
+        <v>3.153739489446899</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.04200698692475369</v>
+        <v>0.03691217959442561</v>
       </c>
       <c r="G171" t="n">
-        <v>0.01285608175063692</v>
+        <v>0.008503144743068016</v>
       </c>
       <c r="H171" t="n">
-        <v>1081654140.701865</v>
+        <v>359580240.767417</v>
       </c>
       <c r="I171" t="n">
-        <v>2.364119103648554</v>
+        <v>1.201627714096317</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -47479,7 +47249,7 @@
         </is>
       </c>
       <c r="B172" s="2" t="n">
-        <v>45857</v>
+        <v>45878.5</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -47487,22 +47257,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>3.417044710420229</v>
+        <v>3.258835895366054</v>
       </c>
       <c r="E172" t="n">
-        <v>4.571119347228472</v>
+        <v>3.332437770171912</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.01058440673957328</v>
+        <v>-0.005970649058068656</v>
       </c>
       <c r="G172" t="n">
-        <v>0.01674953301728384</v>
+        <v>0.01449355259858687</v>
       </c>
       <c r="H172" t="n">
-        <v>-200365495.2610607</v>
+        <v>-253941684.227375</v>
       </c>
       <c r="I172" t="n">
-        <v>-1.662853534058789</v>
+        <v>-1.109079275986783</v>
       </c>
       <c r="J172" t="n">
         <v>1</v>
@@ -47521,7 +47291,7 @@
         </is>
       </c>
       <c r="B173" s="2" t="n">
-        <v>45876.5</v>
+        <v>45882</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -47529,22 +47299,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>3.153739489446899</v>
+        <v>3.26747236546907</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.03691217959442561</v>
+        <v>0.01407219190853182</v>
       </c>
       <c r="G173" t="n">
-        <v>0.008503144743068016</v>
+        <v>0.01253020871461937</v>
       </c>
       <c r="H173" t="n">
-        <v>359580240.767417</v>
+        <v>298849571.1437731</v>
       </c>
       <c r="I173" t="n">
-        <v>1.201627714096317</v>
+        <v>0.0778418750195686</v>
       </c>
       <c r="J173" t="n">
         <v>1</v>
@@ -47563,7 +47333,7 @@
         </is>
       </c>
       <c r="B174" s="2" t="n">
-        <v>45878.5</v>
+        <v>45883.5</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -47571,22 +47341,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3.258835895366054</v>
+        <v>3.186945905201149</v>
       </c>
       <c r="E174" t="n">
-        <v>3.332437770171912</v>
+        <v>-2.464487875059974</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.005970649058068656</v>
+        <v>-0.02001160819109327</v>
       </c>
       <c r="G174" t="n">
-        <v>0.01449355259858687</v>
+        <v>0.01270242921170287</v>
       </c>
       <c r="H174" t="n">
-        <v>-253941684.227375</v>
+        <v>303885835.3385611</v>
       </c>
       <c r="I174" t="n">
-        <v>-1.109079275986783</v>
+        <v>-1.617132562699669</v>
       </c>
       <c r="J174" t="n">
         <v>1</v>
@@ -47605,7 +47375,7 @@
         </is>
       </c>
       <c r="B175" s="2" t="n">
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -47613,22 +47383,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>3.26747236546907</v>
+        <v>2.952309340790555</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.01407219190853182</v>
+        <v>0.01082555663730611</v>
       </c>
       <c r="G175" t="n">
-        <v>0.01253020871461937</v>
+        <v>0.007441877724894171</v>
       </c>
       <c r="H175" t="n">
-        <v>298849571.1437731</v>
+        <v>43827841.31850338</v>
       </c>
       <c r="I175" t="n">
-        <v>0.0778418750195686</v>
+        <v>0.1792525538946588</v>
       </c>
       <c r="J175" t="n">
         <v>1</v>
@@ -47647,7 +47417,7 @@
         </is>
       </c>
       <c r="B176" s="2" t="n">
-        <v>45883.5</v>
+        <v>45890.5</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -47655,22 +47425,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>3.186945905201149</v>
+        <v>2.901066174357815</v>
       </c>
       <c r="E176" t="n">
-        <v>-2.464487875059974</v>
+        <v>-1.735697737521566</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.02001160819109327</v>
+        <v>-0.0009501258603874518</v>
       </c>
       <c r="G176" t="n">
-        <v>0.01270242921170287</v>
+        <v>0.007367844180052161</v>
       </c>
       <c r="H176" t="n">
-        <v>303885835.3385611</v>
+        <v>-228659661.1411896</v>
       </c>
       <c r="I176" t="n">
-        <v>-1.617132562699669</v>
+        <v>-0.4408405543264862</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
@@ -47689,7 +47459,7 @@
         </is>
       </c>
       <c r="B177" s="2" t="n">
-        <v>45890</v>
+        <v>45891.5</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -47697,22 +47467,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>2.952309340790555</v>
+        <v>2.961548895020256</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.01082555663730611</v>
+        <v>0.02251244456848189</v>
       </c>
       <c r="G177" t="n">
-        <v>0.007441877724894171</v>
+        <v>0.006040177084133864</v>
       </c>
       <c r="H177" t="n">
-        <v>43827841.31850338</v>
+        <v>349435963.2458496</v>
       </c>
       <c r="I177" t="n">
-        <v>0.1792525538946588</v>
+        <v>0.9160404318878156</v>
       </c>
       <c r="J177" t="n">
         <v>1</v>
@@ -47731,30 +47501,30 @@
         </is>
       </c>
       <c r="B178" s="2" t="n">
-        <v>45890.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2.901066174357815</v>
+        <v>3.059550124367895</v>
       </c>
       <c r="E178" t="n">
-        <v>-1.735697737521566</v>
+        <v>3.309120761518586</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.0009501258603874518</v>
+        <v>0.02123466475467994</v>
       </c>
       <c r="G178" t="n">
-        <v>0.007367844180052161</v>
+        <v>0.004499636166002064</v>
       </c>
       <c r="H178" t="n">
-        <v>-228659661.1411896</v>
+        <v>-123132194.8514957</v>
       </c>
       <c r="I178" t="n">
-        <v>-0.4408405543264862</v>
+        <v>1.032363633766611</v>
       </c>
       <c r="J178" t="n">
         <v>1</v>
@@ -47773,7 +47543,7 @@
         </is>
       </c>
       <c r="B179" s="2" t="n">
-        <v>45891.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -47781,22 +47551,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2.961548895020256</v>
+        <v>2.806723591636079</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.02251244456848189</v>
+        <v>0.01420647421846422</v>
       </c>
       <c r="G179" t="n">
-        <v>0.006040177084133864</v>
+        <v>0.006650164733717385</v>
       </c>
       <c r="H179" t="n">
-        <v>349435963.2458496</v>
+        <v>445569893.2843523</v>
       </c>
       <c r="I179" t="n">
-        <v>0.9160404318878156</v>
+        <v>0.4968932840220217</v>
       </c>
       <c r="J179" t="n">
         <v>1</v>
@@ -47815,7 +47585,7 @@
         </is>
       </c>
       <c r="B180" s="2" t="n">
-        <v>45892.5</v>
+        <v>45903.5</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -47823,22 +47593,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>3.059550124367895</v>
+        <v>2.852681735633498</v>
       </c>
       <c r="E180" t="n">
-        <v>3.309120761518586</v>
+        <v>1.637430352399929</v>
       </c>
       <c r="F180" t="n">
-        <v>0.02123466475467994</v>
+        <v>0.01274604448192074</v>
       </c>
       <c r="G180" t="n">
-        <v>0.004499636166002064</v>
+        <v>0.008738267994225928</v>
       </c>
       <c r="H180" t="n">
-        <v>-123132194.8514957</v>
+        <v>-281668949.5671759</v>
       </c>
       <c r="I180" t="n">
-        <v>1.032363633766611</v>
+        <v>0.2600654786251684</v>
       </c>
       <c r="J180" t="n">
         <v>1</v>
@@ -47857,7 +47627,7 @@
         </is>
       </c>
       <c r="B181" s="2" t="n">
-        <v>45902.5</v>
+        <v>45908</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -47865,22 +47635,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2.806723591636079</v>
+        <v>2.881098102223723</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.01420647421846422</v>
+        <v>0.0127880607568418</v>
       </c>
       <c r="G181" t="n">
-        <v>0.006650164733717385</v>
+        <v>0.005577198911556085</v>
       </c>
       <c r="H181" t="n">
-        <v>445569893.2843523</v>
+        <v>187985430.6149087</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4968932840220217</v>
+        <v>0.6591199209375115</v>
       </c>
       <c r="J181" t="n">
         <v>1</v>
@@ -47889,90 +47659,6 @@
         <v>1400</v>
       </c>
       <c r="L181" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>XRP</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="n">
-        <v>45903.5</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>SELL_VOLUME</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>2.852681735633498</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1.637430352399929</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.01274604448192074</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.008738267994225928</v>
-      </c>
-      <c r="H182" t="n">
-        <v>-281668949.5671759</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0.2600654786251684</v>
-      </c>
-      <c r="J182" t="n">
-        <v>1</v>
-      </c>
-      <c r="K182" t="n">
-        <v>1400</v>
-      </c>
-      <c r="L182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>XRP</t>
-        </is>
-      </c>
-      <c r="B183" s="2" t="n">
-        <v>45908</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>2.881098102223723</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.0127880607568418</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.005577198911556085</v>
-      </c>
-      <c r="H183" t="n">
-        <v>187985430.6149087</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.6591199209375115</v>
-      </c>
-      <c r="J183" t="n">
-        <v>1</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1400</v>
-      </c>
-      <c r="L183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -47987,7 +47673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56337,36 +56023,36 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45908.04166666666</v>
+        <v>45908.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4935276910335195</v>
+        <v>0.4963221666290316</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0004085469749389725</v>
+        <v>0.000990729390670686</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0006472817313126664</v>
+        <v>0.0006718052862546907</v>
       </c>
       <c r="E182" t="n">
-        <v>616090.7366431355</v>
+        <v>364452.4792218804</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>HOLD</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>0.4963221666290316</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.05859847507752905</v>
+        <v>0.07808512980618534</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -56378,52 +56064,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45908.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.4963221666290316</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.000920748187463738</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.000835226862038187</v>
-      </c>
-      <c r="E183" t="n">
-        <v>3423092.739628732</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0.4963221666290316</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.0212993822799776</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -57354,13 +56994,13 @@
         <v>0.4963221666290316</v>
       </c>
       <c r="C20" t="n">
-        <v>0.000920748187463738</v>
+        <v>0.000990729390670686</v>
       </c>
       <c r="D20" t="n">
-        <v>0.000835226862038187</v>
+        <v>0.0006718052862546907</v>
       </c>
       <c r="E20" t="n">
-        <v>3423092.739628732</v>
+        <v>364452.4792218804</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -57377,7 +57017,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0212993822799776</v>
+        <v>0.07808512980618534</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -57403,7 +57043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65753,19 +65393,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45908.04166666666</v>
+        <v>45908.5</v>
       </c>
       <c r="B182" t="n">
-        <v>110814.2551868018</v>
+        <v>111131.9923868407</v>
       </c>
       <c r="C182" t="n">
-        <v>3.049082347672083</v>
+        <v>69.24433235578181</v>
       </c>
       <c r="D182" t="n">
-        <v>144.2046096232181</v>
+        <v>146.4972412333206</v>
       </c>
       <c r="E182" t="n">
-        <v>-131651367.2895927</v>
+        <v>-294204820.903717</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -65782,7 +65422,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.5489359180979635</v>
+        <v>-0.3002256464700401</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -65794,52 +65434,6 @@
         <v>40</v>
       </c>
       <c r="N182" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45908.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>111131.9923868407</v>
-      </c>
-      <c r="C183" t="n">
-        <v>64.64708802134555</v>
-      </c>
-      <c r="D183" t="n">
-        <v>152.7277371488284</v>
-      </c>
-      <c r="E183" t="n">
-        <v>61210111.17069626</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.3510252925899982</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>2800</v>
-      </c>
-      <c r="M183" t="n">
-        <v>40</v>
-      </c>
-      <c r="N183" t="n">
         <v>40</v>
       </c>
     </row>
@@ -66957,7 +66551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75307,19 +74901,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45908.04166666666</v>
+        <v>45908.5</v>
       </c>
       <c r="B182" t="n">
-        <v>4287.995342763631</v>
+        <v>4304.032421076036</v>
       </c>
       <c r="C182" t="n">
-        <v>2.186199155552458</v>
+        <v>5.527257137304332</v>
       </c>
       <c r="D182" t="n">
-        <v>2.501948442521183</v>
+        <v>2.645980868047141</v>
       </c>
       <c r="E182" t="n">
-        <v>-217501859.034687</v>
+        <v>-202833572.7782135</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -75336,7 +74930,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.01652910231840243</v>
+        <v>0.1503173512196795</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -75348,52 +74942,6 @@
         <v>25</v>
       </c>
       <c r="N182" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45908.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>4304.032421076036</v>
-      </c>
-      <c r="C183" t="n">
-        <v>6.023391600340801</v>
-      </c>
-      <c r="D183" t="n">
-        <v>2.971238611391203</v>
-      </c>
-      <c r="E183" t="n">
-        <v>156983521.7849674</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>4304.032421076036</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.1585473429758287</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1750</v>
-      </c>
-      <c r="M183" t="n">
-        <v>25</v>
-      </c>
-      <c r="N183" t="n">
         <v>25</v>
       </c>
     </row>
@@ -75408,7 +74956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76497,52 +76045,6 @@
         <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45908.5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4304.032421076036</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6.023391600340801</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2.971238611391203</v>
-      </c>
-      <c r="E24" t="n">
-        <v>156983521.7849674</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4304.032421076036</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.1585473429758287</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1750</v>
-      </c>
-      <c r="M24" t="n">
-        <v>25</v>
-      </c>
-      <c r="N24" t="n">
         <v>25</v>
       </c>
     </row>
@@ -76557,7 +76059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84907,19 +84409,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45908.04166666666</v>
+        <v>45908.5</v>
       </c>
       <c r="B182" t="n">
-        <v>2.457745736376769</v>
+        <v>2.468294961207607</v>
       </c>
       <c r="C182" t="n">
-        <v>0.004917620470416662</v>
+        <v>0.00711537564350806</v>
       </c>
       <c r="D182" t="n">
-        <v>0.005936579257381468</v>
+        <v>0.006028881491419133</v>
       </c>
       <c r="E182" t="n">
-        <v>2305005.096016407</v>
+        <v>2376300.168062449</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -84936,7 +84438,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.07780727288034556</v>
+        <v>0.08272365679298009</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -84948,52 +84450,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45908.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.468294961207607</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.00466860653939527</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.006213435796664827</v>
-      </c>
-      <c r="E183" t="n">
-        <v>2178186.872898474</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2.468294961207607</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.1177411181276595</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>700</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>

--- a/results/momentum_portfolio_simulation_latest.xlsx
+++ b/results/momentum_portfolio_simulation_latest.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>314.8843153777411</v>
+        <v>310.5568590660085</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.75</v>
+        <v>69.14893617021278</v>
       </c>
     </row>
     <row r="10">
@@ -575,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1710,52 +1710,6 @@
         <v>10</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45909.5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2.578472179942546</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.0004567096661927117</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.008797184670342035</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1486870.515517965</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.463697429461014</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-0.9194224365570376</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1200</v>
-      </c>
-      <c r="M25" t="n">
-        <v>10</v>
-      </c>
-      <c r="N25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1770,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10120,19 +10074,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45909.04166666666</v>
+        <v>45909.5</v>
       </c>
       <c r="B182" t="n">
-        <v>213.2123253304509</v>
+        <v>214.0895669066531</v>
       </c>
       <c r="C182" t="n">
-        <v>0.5433939957687244</v>
+        <v>0.7261526574775417</v>
       </c>
       <c r="D182" t="n">
-        <v>0.5443969446186265</v>
+        <v>0.5522865066021958</v>
       </c>
       <c r="E182" t="n">
-        <v>623437406.2311153</v>
+        <v>606356789.4917364</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -10149,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.0008191127271465499</v>
+        <v>0.1415815329967408</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -10161,52 +10115,6 @@
         <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45909.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>214.0895669066531</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.349011284816072</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.5829584802296387</v>
-      </c>
-      <c r="E183" t="n">
-        <v>309339001.9328499</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>206.5184884685637</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.2225042885912019</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>2400</v>
-      </c>
-      <c r="M183" t="n">
-        <v>20</v>
-      </c>
-      <c r="N183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11462,7 +11370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19812,19 +19720,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45909.04166666666</v>
+        <v>45909.5</v>
       </c>
       <c r="B182" t="n">
-        <v>3.483959096809452</v>
+        <v>3.497173304154544</v>
       </c>
       <c r="C182" t="n">
-        <v>0.00556272086777021</v>
+        <v>0.008315680731331376</v>
       </c>
       <c r="D182" t="n">
-        <v>0.01033978023595106</v>
+        <v>0.01044530382680418</v>
       </c>
       <c r="E182" t="n">
-        <v>81098209.55002296</v>
+        <v>52003654.9869827</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -19841,7 +19749,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.2909302769139817</v>
+        <v>-0.1294803452410561</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -19853,52 +19761,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45909.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>3.497173304154544</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.003771478437402553</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.01013820696761905</v>
-      </c>
-      <c r="E183" t="n">
-        <v>15943631.99955225</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>3.399478436447107</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.5340391915716218</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1200</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -21338,7 +21200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29688,19 +29550,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45909.04166666666</v>
+        <v>45909.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.3303843449819752</v>
+        <v>0.3313207200289712</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0006025635876080182</v>
+        <v>0.0007976417223988785</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0004540223732749398</v>
+        <v>0.0004629139781914363</v>
       </c>
       <c r="E182" t="n">
-        <v>-74009217.0377537</v>
+        <v>-75739237.61178553</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -29717,7 +29579,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1295419161216927</v>
+        <v>0.2907027701061677</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -29729,52 +29591,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45909.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.3313207200289712</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.0006354328363308848</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.0004981693474122604</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-44493586.64041722</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.1431387844737457</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1200</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -31076,7 +30892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39426,19 +39242,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45909.04166666666</v>
+        <v>45909.5</v>
       </c>
       <c r="B182" t="n">
-        <v>2.953380521786896</v>
+        <v>2.969375217889497</v>
       </c>
       <c r="C182" t="n">
-        <v>0.005433037353158365</v>
+        <v>0.008765265707866732</v>
       </c>
       <c r="D182" t="n">
-        <v>0.007504788499148506</v>
+        <v>0.007642170747047366</v>
       </c>
       <c r="E182" t="n">
-        <v>299034472.3649597</v>
+        <v>250331134.3165035</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -39455,7 +39271,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.1842671496503287</v>
+        <v>0.09942580975814123</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -39467,52 +39283,6 @@
         <v>20</v>
       </c>
       <c r="N182" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45909.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.969375217889497</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.00461851583699513</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.007857230267407547</v>
-      </c>
-      <c r="E183" t="n">
-        <v>122585015.2921305</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2.881098102223723</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.3289006392974347</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>2400</v>
-      </c>
-      <c r="M183" t="n">
-        <v>20</v>
-      </c>
-      <c r="N183" t="n">
         <v>20</v>
       </c>
     </row>
@@ -40492,7 +40262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L198"/>
+  <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42581,43 +42351,43 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45909.04166666666</v>
+        <v>45824.5</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>111426.5447059293</v>
+        <v>2554.587723830736</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1362411177283565</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-38.39240194502054</v>
+        <v>2.768760781474157</v>
       </c>
       <c r="G50" t="n">
-        <v>168.3565307554</v>
+        <v>-7.774817143994432</v>
       </c>
       <c r="H50" t="n">
-        <v>1672078454.29211</v>
+        <v>698707523.6090584</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.8794890995556196</v>
+        <v>0.9551822237065296</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="L50" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -42627,30 +42397,30 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45824.5</v>
+        <v>45825.5</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2554.587723830736</v>
+        <v>2538.158272072787</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>-0.6431351565923714</v>
       </c>
       <c r="F51" t="n">
-        <v>2.768760781474157</v>
+        <v>-0.9481783529613494</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.774817143994432</v>
+        <v>-4.966766456189381</v>
       </c>
       <c r="H51" t="n">
-        <v>698707523.6090584</v>
+        <v>1335280221.528507</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9551822237065296</v>
+        <v>0.3453799517101395</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -42669,30 +42439,30 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45825.5</v>
+        <v>45826</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2538.158272072787</v>
+        <v>2514.986700576147</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.6431351565923714</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9481783529613494</v>
+        <v>-4.072188894426745</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.966766456189381</v>
+        <v>-4.620875528929227</v>
       </c>
       <c r="H52" t="n">
-        <v>1335280221.528507</v>
+        <v>971888500.6574173</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3453799517101395</v>
+        <v>0.04858040858115181</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -42711,30 +42481,30 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45826</v>
+        <v>45826.5</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2514.986700576147</v>
+        <v>2518.160061986319</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.1261780592893493</v>
       </c>
       <c r="F53" t="n">
-        <v>-4.072188894426745</v>
+        <v>-0.2363261507616699</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.620875528929227</v>
+        <v>-3.962712129303046</v>
       </c>
       <c r="H53" t="n">
-        <v>971888500.6574173</v>
+        <v>-304558535.884861</v>
       </c>
       <c r="I53" t="n">
-        <v>0.04858040858115181</v>
+        <v>0.3333791658053031</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -42753,30 +42523,30 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45826.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2518.160061986319</v>
+        <v>2325.664185452888</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1261780592893493</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.2363261507616699</v>
+        <v>20.78374726568427</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.962712129303046</v>
+        <v>-2.196692011407514</v>
       </c>
       <c r="H54" t="n">
-        <v>-304558535.884861</v>
+        <v>808159962.6181641</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3333791658053031</v>
+        <v>1.910285290241397</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -42795,30 +42565,30 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45831.5</v>
+        <v>45832.5</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2325.664185452888</v>
+        <v>2435.219472906829</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>4.710709660457987</v>
       </c>
       <c r="F55" t="n">
-        <v>20.78374726568427</v>
+        <v>26.37458406489532</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.196692011407514</v>
+        <v>2.783995107113958</v>
       </c>
       <c r="H55" t="n">
-        <v>808159962.6181641</v>
+        <v>-663216188.5613174</v>
       </c>
       <c r="I55" t="n">
-        <v>1.910285290241397</v>
+        <v>1.486052001018847</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -42837,30 +42607,30 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45832.5</v>
+        <v>45838</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2435.219472906829</v>
+        <v>2502.667272117708</v>
       </c>
       <c r="E56" t="n">
-        <v>4.710709660457987</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>26.37458406489532</v>
+        <v>11.07847256561945</v>
       </c>
       <c r="G56" t="n">
-        <v>2.783995107113958</v>
+        <v>8.257645298544174</v>
       </c>
       <c r="H56" t="n">
-        <v>-663216188.5613174</v>
+        <v>657895342.6986656</v>
       </c>
       <c r="I56" t="n">
-        <v>1.486052001018847</v>
+        <v>0.2208808954214227</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -42879,30 +42649,30 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2502.667272117708</v>
+        <v>2488.190781689803</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>-0.578442471725605</v>
       </c>
       <c r="F57" t="n">
-        <v>11.07847256561945</v>
+        <v>-0.4019198834394047</v>
       </c>
       <c r="G57" t="n">
-        <v>8.257645298544174</v>
+        <v>8.539975731350916</v>
       </c>
       <c r="H57" t="n">
-        <v>657895342.6986656</v>
+        <v>1443502016.39992</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2208808954214227</v>
+        <v>-0.7044011370802956</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -42921,30 +42691,30 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45839</v>
+        <v>45840.5</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2488.190781689803</v>
+        <v>2489.586138887576</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.578442471725605</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.4019198834394047</v>
+        <v>8.575598808817631</v>
       </c>
       <c r="G58" t="n">
-        <v>8.539975731350916</v>
+        <v>8.078408024778479</v>
       </c>
       <c r="H58" t="n">
-        <v>1443502016.39992</v>
+        <v>970152098.6810303</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.7044011370802956</v>
+        <v>0.03735999332500801</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -42963,30 +42733,30 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45840.5</v>
+        <v>45842.5</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2489.586138887576</v>
+        <v>2549.684288686792</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>2.413981539360186</v>
       </c>
       <c r="F59" t="n">
-        <v>8.575598808817631</v>
+        <v>-6.34959856207206</v>
       </c>
       <c r="G59" t="n">
-        <v>8.078408024778479</v>
+        <v>9.648250278495189</v>
       </c>
       <c r="H59" t="n">
-        <v>970152098.6810303</v>
+        <v>-427124915.1415253</v>
       </c>
       <c r="I59" t="n">
-        <v>0.03735999332500801</v>
+        <v>-1.138950516478628</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -43005,30 +42775,30 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45842.5</v>
+        <v>45847</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2549.684288686792</v>
+        <v>2615.775988894505</v>
       </c>
       <c r="E60" t="n">
-        <v>2.413981539360186</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-6.34959856207206</v>
+        <v>8.796640419266623</v>
       </c>
       <c r="G60" t="n">
-        <v>9.648250278495189</v>
+        <v>8.048665485112345</v>
       </c>
       <c r="H60" t="n">
-        <v>-427124915.1415253</v>
+        <v>268156245.0895023</v>
       </c>
       <c r="I60" t="n">
-        <v>-1.138950516478628</v>
+        <v>0.07772735267177956</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -43047,30 +42817,30 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45847</v>
+        <v>45850.5</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2615.775988894505</v>
+        <v>2950.906525318955</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>12.811897419629</v>
       </c>
       <c r="F61" t="n">
-        <v>8.796640419266623</v>
+        <v>-6.80085006399031</v>
       </c>
       <c r="G61" t="n">
-        <v>8.048665485112345</v>
+        <v>11.12549783028462</v>
       </c>
       <c r="H61" t="n">
-        <v>268156245.0895023</v>
+        <v>-2595313279.158916</v>
       </c>
       <c r="I61" t="n">
-        <v>0.07772735267177956</v>
+        <v>-1.483405485817131</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -43089,30 +42859,30 @@
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45850.5</v>
+        <v>45854</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2950.906525318955</v>
+        <v>3133.069857747011</v>
       </c>
       <c r="E62" t="n">
-        <v>12.811897419629</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-6.80085006399031</v>
+        <v>10.91315930824157</v>
       </c>
       <c r="G62" t="n">
-        <v>11.12549783028462</v>
+        <v>9.867949762378048</v>
       </c>
       <c r="H62" t="n">
-        <v>-2595313279.158916</v>
+        <v>1096526136.987633</v>
       </c>
       <c r="I62" t="n">
-        <v>-1.483405485817131</v>
+        <v>0.0800911010835683</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -43131,30 +42901,30 @@
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45854</v>
+        <v>45857.5</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3133.069857747011</v>
+        <v>3570.81779004109</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>13.97185355480273</v>
       </c>
       <c r="F63" t="n">
-        <v>10.91315930824157</v>
+        <v>-4.193881177584899</v>
       </c>
       <c r="G63" t="n">
-        <v>9.867949762378048</v>
+        <v>13.06296080190818</v>
       </c>
       <c r="H63" t="n">
-        <v>1096526136.987633</v>
+        <v>-3384703050.994392</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0800911010835683</v>
+        <v>-1.240245742199274</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -43173,30 +42943,30 @@
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45857.5</v>
+        <v>45873.5</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3570.81779004109</v>
+        <v>3606.641071338737</v>
       </c>
       <c r="E64" t="n">
-        <v>13.97185355480273</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>-4.193881177584899</v>
+        <v>36.76037754685285</v>
       </c>
       <c r="G64" t="n">
-        <v>13.06296080190818</v>
+        <v>-1.228856509551871</v>
       </c>
       <c r="H64" t="n">
-        <v>-3384703050.994392</v>
+        <v>130409728.8837318</v>
       </c>
       <c r="I64" t="n">
-        <v>-1.240245742199274</v>
+        <v>2.2253877010014</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -43215,30 +42985,30 @@
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45873.5</v>
+        <v>45875</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3606.641071338737</v>
+        <v>3612.442432236669</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>0.16085218304738</v>
       </c>
       <c r="F65" t="n">
-        <v>36.76037754685285</v>
+        <v>-0.5641934997433964</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.228856509551871</v>
+        <v>2.649644708452731</v>
       </c>
       <c r="H65" t="n">
-        <v>130409728.8837318</v>
+        <v>827964678.9135246</v>
       </c>
       <c r="I65" t="n">
-        <v>2.2253877010014</v>
+        <v>-0.1586203314450961</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -43257,30 +43027,30 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45875</v>
+        <v>45876.5</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3612.442432236669</v>
+        <v>3797.653432920877</v>
       </c>
       <c r="E66" t="n">
-        <v>0.16085218304738</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5641934997433964</v>
+        <v>29.64329815122755</v>
       </c>
       <c r="G66" t="n">
-        <v>2.649644708452731</v>
+        <v>6.858670693391371</v>
       </c>
       <c r="H66" t="n">
-        <v>827964678.9135246</v>
+        <v>680324249.2185173</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.1586203314450961</v>
+        <v>1.097067717657225</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -43299,30 +43069,30 @@
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45876.5</v>
+        <v>45879.5</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3797.653432920877</v>
+        <v>4259.577438642351</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>12.16340600532881</v>
       </c>
       <c r="F67" t="n">
-        <v>29.64329815122755</v>
+        <v>12.6882497341594</v>
       </c>
       <c r="G67" t="n">
-        <v>6.858670693391371</v>
+        <v>16.77306128216038</v>
       </c>
       <c r="H67" t="n">
-        <v>680324249.2185173</v>
+        <v>-1134334059.548874</v>
       </c>
       <c r="I67" t="n">
-        <v>1.097067717657225</v>
+        <v>-0.1734933743503614</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -43341,30 +43111,30 @@
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45879.5</v>
+        <v>45881.5</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4259.577438642351</v>
+        <v>4417.816820485343</v>
       </c>
       <c r="E68" t="n">
-        <v>12.16340600532881</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>12.6882497341594</v>
+        <v>20.34586352100541</v>
       </c>
       <c r="G68" t="n">
-        <v>16.77306128216038</v>
+        <v>16.13593223794366</v>
       </c>
       <c r="H68" t="n">
-        <v>-1134334059.548874</v>
+        <v>2098686483.821472</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.1734933743503614</v>
+        <v>0.1736616924790182</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -43383,30 +43153,30 @@
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45881.5</v>
+        <v>45883.5</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4417.816820485343</v>
+        <v>4658.97201843039</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>5.458696178320801</v>
       </c>
       <c r="F69" t="n">
-        <v>20.34586352100541</v>
+        <v>-21.35724793458212</v>
       </c>
       <c r="G69" t="n">
-        <v>16.13593223794366</v>
+        <v>20.59981916078855</v>
       </c>
       <c r="H69" t="n">
-        <v>2098686483.821472</v>
+        <v>1120469156.576965</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1736616924790182</v>
+        <v>-1.639653407932999</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -43425,30 +43195,30 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45883.5</v>
+        <v>45891.5</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>4658.97201843039</v>
+        <v>4526.832067189515</v>
       </c>
       <c r="E70" t="n">
-        <v>5.458696178320801</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>-21.35724793458212</v>
+        <v>62.80623771442606</v>
       </c>
       <c r="G70" t="n">
-        <v>20.59981916078855</v>
+        <v>15.14362358725142</v>
       </c>
       <c r="H70" t="n">
-        <v>1120469156.576965</v>
+        <v>2709121127.82251</v>
       </c>
       <c r="I70" t="n">
-        <v>-1.639653407932999</v>
+        <v>1.469861703086403</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -43467,30 +43237,30 @@
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45891.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4526.832067189515</v>
+        <v>4801.554815198555</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>6.068763849232014</v>
       </c>
       <c r="F71" t="n">
-        <v>62.80623771442606</v>
+        <v>47.28430370631941</v>
       </c>
       <c r="G71" t="n">
-        <v>15.14362358725142</v>
+        <v>20.1044109083721</v>
       </c>
       <c r="H71" t="n">
-        <v>2709121127.82251</v>
+        <v>-266232877.133812</v>
       </c>
       <c r="I71" t="n">
-        <v>1.469861703086403</v>
+        <v>0.7310008421276023</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -43509,30 +43279,30 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45892.5</v>
+        <v>45903.5</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4801.554815198555</v>
+        <v>4387.861701977134</v>
       </c>
       <c r="E72" t="n">
-        <v>6.068763849232014</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>47.28430370631941</v>
+        <v>18.44527702339474</v>
       </c>
       <c r="G72" t="n">
-        <v>20.1044109083721</v>
+        <v>16.10979471491981</v>
       </c>
       <c r="H72" t="n">
-        <v>-266232877.133812</v>
+        <v>393284318.0841255</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7310008421276023</v>
+        <v>0.07164420517001803</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -43551,30 +43321,30 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45903.5</v>
+        <v>45904.5</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4387.861701977134</v>
+        <v>4373.98087913646</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>-0.3163459512504402</v>
       </c>
       <c r="F73" t="n">
-        <v>18.44527702339474</v>
+        <v>-0.2811014825483653</v>
       </c>
       <c r="G73" t="n">
-        <v>16.10979471491981</v>
+        <v>18.03147967012588</v>
       </c>
       <c r="H73" t="n">
-        <v>393284318.0841255</v>
+        <v>-76616337.44316101</v>
       </c>
       <c r="I73" t="n">
-        <v>0.07164420517001803</v>
+        <v>-0.5807227431242411</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -43593,30 +43363,30 @@
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45904.5</v>
+        <v>45908.5</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4373.98087913646</v>
+        <v>4306.85906192402</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3163459512504402</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.2811014825483653</v>
+        <v>6.116140647301108</v>
       </c>
       <c r="G74" t="n">
-        <v>18.03147967012588</v>
+        <v>2.672361484665019</v>
       </c>
       <c r="H74" t="n">
-        <v>-76616337.44316101</v>
+        <v>992299807.4444199</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.5807227431242411</v>
+        <v>0.1795368854801427</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -43631,11 +43401,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45908.5</v>
+        <v>45824.5</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -43643,31 +43413,31 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4306.85906192402</v>
+        <v>2.257505695322998</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>6.116140647301108</v>
+        <v>0.01210303628203979</v>
       </c>
       <c r="G75" t="n">
-        <v>2.672361484665019</v>
+        <v>-0.00641763685103252</v>
       </c>
       <c r="H75" t="n">
-        <v>992299807.4444199</v>
+        <v>1958544.882206976</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1795368854801427</v>
+        <v>1.023720156622727</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="L75" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -43677,30 +43447,30 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45824.5</v>
+        <v>45825.5</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2.257505695322998</v>
+        <v>2.219411380251871</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>-1.68745155992515</v>
       </c>
       <c r="F76" t="n">
-        <v>0.01210303628203979</v>
+        <v>-0.001551236233696685</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.00641763685103252</v>
+        <v>-0.002046795961349667</v>
       </c>
       <c r="H76" t="n">
-        <v>1958544.882206976</v>
+        <v>9802433.280797184</v>
       </c>
       <c r="I76" t="n">
-        <v>1.023720156622727</v>
+        <v>0.02594130281794508</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -43719,30 +43489,30 @@
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45825.5</v>
+        <v>45826.5</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2.219411380251871</v>
+        <v>2.167279242058078</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.68745155992515</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.001551236233696685</v>
+        <v>-0.0002920234995338333</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.002046795961349667</v>
+        <v>-0.001924804957018557</v>
       </c>
       <c r="H77" t="n">
-        <v>9802433.280797184</v>
+        <v>1887391.519844204</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02594130281794508</v>
+        <v>0.09155580546225399</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -43761,30 +43531,30 @@
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45826.5</v>
+        <v>45827</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2.167279242058078</v>
+        <v>2.1838916614514</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.7665103356753565</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.0002920234995338333</v>
+        <v>0.006731272990334158</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.001924804957018557</v>
+        <v>-0.0007831855747206188</v>
       </c>
       <c r="H78" t="n">
-        <v>1887391.519844204</v>
+        <v>-2950224.111303329</v>
       </c>
       <c r="I78" t="n">
-        <v>0.09155580546225399</v>
+        <v>0.4227802962727764</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -43803,30 +43573,30 @@
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45827</v>
+        <v>45831.5</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2.1838916614514</v>
+        <v>2.015522952261405</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7665103356753565</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.006731272990334158</v>
+        <v>0.02558579249807313</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.0007831855747206188</v>
+        <v>0.0009356918201649366</v>
       </c>
       <c r="H79" t="n">
-        <v>-2950224.111303329</v>
+        <v>10349660.70761761</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4227802962727764</v>
+        <v>1.502194432143992</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -43845,30 +43615,30 @@
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45831.5</v>
+        <v>45833.5</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2.015522952261405</v>
+        <v>2.161679454106587</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>7.251542418864321</v>
       </c>
       <c r="F80" t="n">
-        <v>0.02558579249807313</v>
+        <v>0.01030611715590402</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0009356918201649366</v>
+        <v>0.008019083088624871</v>
       </c>
       <c r="H80" t="n">
-        <v>10349660.70761761</v>
+        <v>-11568400.45066845</v>
       </c>
       <c r="I80" t="n">
-        <v>1.502194432143992</v>
+        <v>0.1123598973049538</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -43887,30 +43657,30 @@
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45833.5</v>
+        <v>45838</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2.161679454106587</v>
+        <v>2.262159994562039</v>
       </c>
       <c r="E81" t="n">
-        <v>7.251542418864321</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01030611715590402</v>
+        <v>0.01765775748999499</v>
       </c>
       <c r="G81" t="n">
-        <v>0.008019083088624871</v>
+        <v>0.01240599641715219</v>
       </c>
       <c r="H81" t="n">
-        <v>-11568400.45066845</v>
+        <v>4313537.720857218</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1123598973049538</v>
+        <v>0.3492307712213073</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -43929,30 +43699,30 @@
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45838</v>
+        <v>45838.5</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2.262159994562039</v>
+        <v>2.204518638345326</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>-2.548067172758591</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01765775748999499</v>
+        <v>-0.00364379946850546</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01240599641715219</v>
+        <v>0.01231808814640082</v>
       </c>
       <c r="H82" t="n">
-        <v>4313537.720857218</v>
+        <v>6072744.378619105</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3492307712213073</v>
+        <v>-1.057695792389506</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -43971,30 +43741,30 @@
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45838.5</v>
+        <v>45841</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2.204518638345326</v>
+        <v>2.220620211695997</v>
       </c>
       <c r="E83" t="n">
-        <v>-2.548067172758591</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.00364379946850546</v>
+        <v>0.02267850417938755</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01231808814640082</v>
+        <v>0.01149732630465882</v>
       </c>
       <c r="H83" t="n">
-        <v>6072744.378619105</v>
+        <v>16292622.96889192</v>
       </c>
       <c r="I83" t="n">
-        <v>-1.057695792389506</v>
+        <v>0.6630126282261187</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -44013,30 +43783,30 @@
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45841</v>
+        <v>45842.5</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.220620211695997</v>
+        <v>2.200986691160097</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>-0.8841458090172812</v>
       </c>
       <c r="F84" t="n">
-        <v>0.02267850417938755</v>
+        <v>-0.007598200573808445</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01149732630465882</v>
+        <v>0.01208605952842003</v>
       </c>
       <c r="H84" t="n">
-        <v>16292622.96889192</v>
+        <v>-4968526.404092759</v>
       </c>
       <c r="I84" t="n">
-        <v>0.6630126282261187</v>
+        <v>-1.138748108251481</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -44055,30 +43825,30 @@
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45842.5</v>
+        <v>45847</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2.200986691160097</v>
+        <v>2.241477389718983</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.8841458090172812</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.007598200573808445</v>
+        <v>0.01260432894362307</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01208605952842003</v>
+        <v>0.009924245458307186</v>
       </c>
       <c r="H85" t="n">
-        <v>-4968526.404092759</v>
+        <v>6362963.556892008</v>
       </c>
       <c r="I85" t="n">
-        <v>-1.138748108251481</v>
+        <v>0.1856198568331337</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -44097,30 +43867,30 @@
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45847</v>
+        <v>45850.5</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2.241477389718983</v>
+        <v>2.493259660094832</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>11.23287129866679</v>
       </c>
       <c r="F86" t="n">
-        <v>0.01260432894362307</v>
+        <v>-0.007232466422903983</v>
       </c>
       <c r="G86" t="n">
-        <v>0.009924245458307186</v>
+        <v>0.01159621979321956</v>
       </c>
       <c r="H86" t="n">
-        <v>6362963.556892008</v>
+        <v>-3826821.125466257</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1856198568331337</v>
+        <v>-1.317159435793332</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -44139,30 +43909,30 @@
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45850.5</v>
+        <v>45874</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2.493259660094832</v>
+        <v>2.552572405849011</v>
       </c>
       <c r="E87" t="n">
-        <v>11.23287129866679</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.007232466422903983</v>
+        <v>0.03269420442222026</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01159621979321956</v>
+        <v>0.003501016047103187</v>
       </c>
       <c r="H87" t="n">
-        <v>-3826821.125466257</v>
+        <v>5702473.114150852</v>
       </c>
       <c r="I87" t="n">
-        <v>-1.317159435793332</v>
+        <v>1.407384354125414</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -44181,30 +43951,30 @@
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2.552572405849011</v>
+        <v>2.463262772221802</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>-3.498809021932653</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03269420442222026</v>
+        <v>-1.156940759683422e-05</v>
       </c>
       <c r="G88" t="n">
-        <v>0.003501016047103187</v>
+        <v>0.004038069272309809</v>
       </c>
       <c r="H88" t="n">
-        <v>5702473.114150852</v>
+        <v>9942044.11744079</v>
       </c>
       <c r="I88" t="n">
-        <v>1.407384354125414</v>
+        <v>-0.1928130073685468</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -44223,30 +43993,30 @@
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45875</v>
+        <v>45875.5</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2.463262772221802</v>
+        <v>2.475734386918343</v>
       </c>
       <c r="E89" t="n">
-        <v>-3.498809021932653</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.156940759683422e-05</v>
+        <v>0.004671592978124028</v>
       </c>
       <c r="G89" t="n">
-        <v>0.004038069272309809</v>
+        <v>0.004454084011152034</v>
       </c>
       <c r="H89" t="n">
-        <v>9942044.11744079</v>
+        <v>4844376.702285826</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.1928130073685468</v>
+        <v>0.01030791669566701</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -44265,30 +44035,30 @@
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45875.5</v>
+        <v>45879</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2.475734386918343</v>
+        <v>2.830345055141985</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>14.32345368297128</v>
       </c>
       <c r="F90" t="n">
-        <v>0.004671592978124028</v>
+        <v>0.0212055297270477</v>
       </c>
       <c r="G90" t="n">
-        <v>0.004454084011152034</v>
+        <v>0.01303179799916131</v>
       </c>
       <c r="H90" t="n">
-        <v>4844376.702285826</v>
+        <v>-9263978.90683952</v>
       </c>
       <c r="I90" t="n">
-        <v>0.01030791669566701</v>
+        <v>0.4387488452221245</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -44307,30 +44077,30 @@
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45879</v>
+        <v>45882</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2.830345055141985</v>
+        <v>2.788537154608403</v>
       </c>
       <c r="E91" t="n">
-        <v>14.32345368297128</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0212055297270477</v>
+        <v>0.0168677057765807</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01303179799916131</v>
+        <v>0.01134834120838412</v>
       </c>
       <c r="H91" t="n">
-        <v>-9263978.90683952</v>
+        <v>12661981.56007284</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4387488452221245</v>
+        <v>0.2889980347950414</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -44349,30 +44119,30 @@
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45882</v>
+        <v>45883.5</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2.788537154608403</v>
+        <v>2.879444843095901</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>3.260049389597051</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0168677057765807</v>
+        <v>-0.007706157569623784</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01134834120838412</v>
+        <v>0.0150982712846225</v>
       </c>
       <c r="H92" t="n">
-        <v>12661981.56007284</v>
+        <v>9560063.583456755</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2889980347950414</v>
+        <v>-1.156995239609648</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -44391,30 +44161,30 @@
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45883.5</v>
+        <v>45891.5</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2.879444843095901</v>
+        <v>2.565535283173993</v>
       </c>
       <c r="E93" t="n">
-        <v>3.260049389597051</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.007706157569623784</v>
+        <v>0.02632386016216559</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0150982712846225</v>
+        <v>0.009016046042823979</v>
       </c>
       <c r="H93" t="n">
-        <v>9560063.583456755</v>
+        <v>15818805.8917959</v>
       </c>
       <c r="I93" t="n">
-        <v>-1.156995239609648</v>
+        <v>0.8160828141951216</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -44433,30 +44203,30 @@
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>45891.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2.565535283173993</v>
+        <v>2.692185948357456</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>4.936617555568161</v>
       </c>
       <c r="F94" t="n">
-        <v>0.02632386016216559</v>
+        <v>0.02714224781214236</v>
       </c>
       <c r="G94" t="n">
-        <v>0.009016046042823979</v>
+        <v>0.01002657547949893</v>
       </c>
       <c r="H94" t="n">
-        <v>15818805.8917959</v>
+        <v>-222988.9500783086</v>
       </c>
       <c r="I94" t="n">
-        <v>0.8160828141951216</v>
+        <v>0.7730403058090841</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -44475,30 +44245,30 @@
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>45892.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2.692185948357456</v>
+        <v>2.385852517158844</v>
       </c>
       <c r="E95" t="n">
-        <v>4.936617555568161</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02714224781214236</v>
+        <v>0.01156571891200198</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01002657547949893</v>
+        <v>0.007980500662272424</v>
       </c>
       <c r="H95" t="n">
-        <v>-222988.9500783086</v>
+        <v>6021526.702548385</v>
       </c>
       <c r="I95" t="n">
-        <v>0.7730403058090841</v>
+        <v>0.1957895677989703</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -44517,30 +44287,30 @@
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>45902.5</v>
+        <v>45903</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2.385852517158844</v>
+        <v>2.438355954449048</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>2.200615373859181</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01156571891200198</v>
+        <v>0.02021831342376545</v>
       </c>
       <c r="G96" t="n">
-        <v>0.007980500662272424</v>
+        <v>0.009384701336372798</v>
       </c>
       <c r="H96" t="n">
-        <v>6021526.702548385</v>
+        <v>-841713.5063202679</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1957895677989703</v>
+        <v>0.5943262070821806</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -44559,30 +44329,30 @@
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2.438355954449048</v>
+        <v>2.468294961207607</v>
       </c>
       <c r="E97" t="n">
-        <v>2.200615373859181</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.02021831342376545</v>
+        <v>0.01252840348345075</v>
       </c>
       <c r="G97" t="n">
-        <v>0.009384701336372798</v>
+        <v>0.00590547262629273</v>
       </c>
       <c r="H97" t="n">
-        <v>-841713.5063202679</v>
+        <v>2602204.790089563</v>
       </c>
       <c r="I97" t="n">
-        <v>0.5943262070821806</v>
+        <v>0.5061310933032575</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -44597,11 +44367,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>45908</v>
+        <v>45824</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -44609,41 +44379,41 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2.468294961207607</v>
+        <v>152.684889859998</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.01252840348345075</v>
+        <v>1.283027756716137</v>
       </c>
       <c r="G98" t="n">
-        <v>0.00590547262629273</v>
+        <v>-0.2025832526039939</v>
       </c>
       <c r="H98" t="n">
-        <v>2602204.790089563</v>
+        <v>39448915.20042038</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5061310933032575</v>
+        <v>1.505593513418395</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="L98" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>45909.5</v>
+        <v>45825.5</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -44651,31 +44421,31 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2.578472179942546</v>
+        <v>149.7137164524326</v>
       </c>
       <c r="E99" t="n">
-        <v>4.463697429461014</v>
+        <v>-1.945951174533213</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.0004567096661927117</v>
+        <v>-0.08954539725368704</v>
       </c>
       <c r="G99" t="n">
-        <v>0.008797184670342035</v>
+        <v>0.04926026185110999</v>
       </c>
       <c r="H99" t="n">
-        <v>1486870.515517965</v>
+        <v>120488410.3288431</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.9194224365570376</v>
+        <v>-0.1421136235136013</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="L99" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
@@ -44685,7 +44455,7 @@
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>45824</v>
+        <v>45831.5</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -44693,22 +44463,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>152.684889859998</v>
+        <v>138.2975212491284</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1.283027756716137</v>
+        <v>1.465737623887861</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2025832526039939</v>
+        <v>0.041213599032415</v>
       </c>
       <c r="H100" t="n">
-        <v>39448915.20042038</v>
+        <v>242908521.6263123</v>
       </c>
       <c r="I100" t="n">
-        <v>1.505593513418395</v>
+        <v>1.719733859529999</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -44727,30 +44497,30 @@
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>45825.5</v>
+        <v>45833</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>149.7137164524326</v>
+        <v>145.8019507474219</v>
       </c>
       <c r="E101" t="n">
-        <v>-1.945951174533213</v>
+        <v>5.426293566589028</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.08954539725368704</v>
+        <v>1.103990881357561</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04926026185110999</v>
+        <v>0.381355404044028</v>
       </c>
       <c r="H101" t="n">
-        <v>120488410.3288431</v>
+        <v>-385180261.9674101</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.1421136235136013</v>
+        <v>0.6923184600978942</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -44769,7 +44539,7 @@
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>45831.5</v>
+        <v>45847.5</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -44777,22 +44547,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>138.2975212491284</v>
+        <v>154.5192779712486</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1.465737623887861</v>
+        <v>0.7434671489321829</v>
       </c>
       <c r="G102" t="n">
-        <v>0.041213599032415</v>
+        <v>0.4286572023045137</v>
       </c>
       <c r="H102" t="n">
-        <v>242908521.6263123</v>
+        <v>152017852.9672332</v>
       </c>
       <c r="I102" t="n">
-        <v>1.719733859529999</v>
+        <v>0.4573856054409207</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -44811,30 +44581,30 @@
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>45833</v>
+        <v>45850</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>145.8019507474219</v>
+        <v>162.7531939800279</v>
       </c>
       <c r="E103" t="n">
-        <v>5.426293566589028</v>
+        <v>5.328730574518625</v>
       </c>
       <c r="F103" t="n">
-        <v>1.103990881357561</v>
+        <v>-0.09816930072960872</v>
       </c>
       <c r="G103" t="n">
-        <v>0.381355404044028</v>
+        <v>0.5493024623146816</v>
       </c>
       <c r="H103" t="n">
-        <v>-385180261.9674101</v>
+        <v>819165613.2711487</v>
       </c>
       <c r="I103" t="n">
-        <v>0.6923184600978942</v>
+        <v>-0.9181359943186705</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -44853,7 +44623,7 @@
         </is>
       </c>
       <c r="B104" s="2" t="n">
-        <v>45847.5</v>
+        <v>45854.5</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -44861,22 +44631,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>154.5192779712486</v>
+        <v>168.8973976597816</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7434671489321829</v>
+        <v>0.9529076831996406</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4286572023045137</v>
+        <v>0.3080356529969654</v>
       </c>
       <c r="H104" t="n">
-        <v>152017852.9672332</v>
+        <v>363484172.1708984</v>
       </c>
       <c r="I104" t="n">
-        <v>0.4573856054409207</v>
+        <v>1.037886069812958</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -44895,7 +44665,7 @@
         </is>
       </c>
       <c r="B105" s="2" t="n">
-        <v>45850</v>
+        <v>45857</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -44903,22 +44673,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>162.7531939800279</v>
+        <v>177.3697987441575</v>
       </c>
       <c r="E105" t="n">
-        <v>5.328730574518625</v>
+        <v>5.016300548006248</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.09816930072960872</v>
+        <v>-0.05041965603780341</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5493024623146816</v>
+        <v>0.4580487948758095</v>
       </c>
       <c r="H105" t="n">
-        <v>819165613.2711487</v>
+        <v>106943522.1245213</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.9181359943186705</v>
+        <v>-0.8231368472783879</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -44937,7 +44707,7 @@
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>45854.5</v>
+        <v>45859.5</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -44945,22 +44715,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>168.8973976597816</v>
+        <v>188.7080214820778</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9529076831996406</v>
+        <v>1.448729120004572</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3080356529969654</v>
+        <v>0.5460092946348755</v>
       </c>
       <c r="H106" t="n">
-        <v>363484172.1708984</v>
+        <v>1196790537.933931</v>
       </c>
       <c r="I106" t="n">
-        <v>1.037886069812958</v>
+        <v>1.467814160369153</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -44979,7 +44749,7 @@
         </is>
       </c>
       <c r="B107" s="2" t="n">
-        <v>45857</v>
+        <v>45861.5</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -44987,22 +44757,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>177.3697987441575</v>
+        <v>197.4416043041564</v>
       </c>
       <c r="E107" t="n">
-        <v>5.016300548006248</v>
+        <v>4.628093047389662</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.05041965603780341</v>
+        <v>-1.278829142734338</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4580487948758095</v>
+        <v>0.7803233709928494</v>
       </c>
       <c r="H107" t="n">
-        <v>106943522.1245213</v>
+        <v>-247154625.5567245</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.8231368472783879</v>
+        <v>-2.482736487193457</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -45021,7 +44791,7 @@
         </is>
       </c>
       <c r="B108" s="2" t="n">
-        <v>45859.5</v>
+        <v>45873</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -45029,22 +44799,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>188.7080214820778</v>
+        <v>161.9031238761136</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1.448729120004572</v>
+        <v>0.8965741848762718</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5460092946348755</v>
+        <v>0.1628689513299555</v>
       </c>
       <c r="H108" t="n">
-        <v>1196790537.933931</v>
+        <v>63125581.14286613</v>
       </c>
       <c r="I108" t="n">
-        <v>1.467814160369153</v>
+        <v>0.6018132905919181</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -45063,30 +44833,30 @@
         </is>
       </c>
       <c r="B109" s="2" t="n">
-        <v>45861.5</v>
+        <v>45876</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>197.4416043041564</v>
+        <v>168.1731958529984</v>
       </c>
       <c r="E109" t="n">
-        <v>4.628093047389662</v>
+        <v>3.872730696464233</v>
       </c>
       <c r="F109" t="n">
-        <v>-1.278829142734338</v>
+        <v>0.8825248644789667</v>
       </c>
       <c r="G109" t="n">
-        <v>0.7803233709928494</v>
+        <v>0.09265891896779066</v>
       </c>
       <c r="H109" t="n">
-        <v>-247154625.5567245</v>
+        <v>-19304010.87688065</v>
       </c>
       <c r="I109" t="n">
-        <v>-2.482736487193457</v>
+        <v>0.688195873409026</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -45105,7 +44875,7 @@
         </is>
       </c>
       <c r="B110" s="2" t="n">
-        <v>45873</v>
+        <v>45876.5</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -45113,22 +44883,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>161.9031238761136</v>
+        <v>171.7791719420661</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8965741848762718</v>
+        <v>1.343470910771885</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1628689513299555</v>
+        <v>0.1982872596197892</v>
       </c>
       <c r="H110" t="n">
-        <v>63125581.14286613</v>
+        <v>145344463.877244</v>
       </c>
       <c r="I110" t="n">
-        <v>0.6018132905919181</v>
+        <v>0.9670763444983994</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -45147,7 +44917,7 @@
         </is>
       </c>
       <c r="B111" s="2" t="n">
-        <v>45876</v>
+        <v>45879</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -45155,22 +44925,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>168.1731958529984</v>
+        <v>180.3863831264505</v>
       </c>
       <c r="E111" t="n">
-        <v>3.872730696464233</v>
+        <v>5.010625611402572</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8825248644789667</v>
+        <v>0.6087583391860676</v>
       </c>
       <c r="G111" t="n">
-        <v>0.09265891896779066</v>
+        <v>0.5544921883407837</v>
       </c>
       <c r="H111" t="n">
-        <v>-19304010.87688065</v>
+        <v>-61223356.92051888</v>
       </c>
       <c r="I111" t="n">
-        <v>0.688195873409026</v>
+        <v>0.05765846399713145</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -45189,7 +44959,7 @@
         </is>
       </c>
       <c r="B112" s="2" t="n">
-        <v>45876.5</v>
+        <v>45881.5</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -45197,22 +44967,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>171.7791719420661</v>
+        <v>183.8196271661214</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1.343470910771885</v>
+        <v>0.8735127058517094</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1982872596197892</v>
+        <v>0.5867899793022362</v>
       </c>
       <c r="H112" t="n">
-        <v>145344463.877244</v>
+        <v>183741550.3164721</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9670763444983994</v>
+        <v>0.2874923381548948</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -45231,30 +45001,30 @@
         </is>
       </c>
       <c r="B113" s="2" t="n">
-        <v>45879</v>
+        <v>45883.5</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>180.3863831264505</v>
+        <v>197.2877458967517</v>
       </c>
       <c r="E113" t="n">
-        <v>5.010625611402572</v>
+        <v>7.326812124615431</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6087583391860676</v>
+        <v>-0.2732464048213785</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5544921883407837</v>
+        <v>0.9216135721408265</v>
       </c>
       <c r="H113" t="n">
-        <v>-61223356.92051888</v>
+        <v>532309274.5675869</v>
       </c>
       <c r="I113" t="n">
-        <v>0.05765846399713145</v>
+        <v>-1.080821783878068</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -45273,7 +45043,7 @@
         </is>
       </c>
       <c r="B114" s="2" t="n">
-        <v>45881.5</v>
+        <v>45890</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -45281,22 +45051,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>183.8196271661214</v>
+        <v>187.2669439751863</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8735127058517094</v>
+        <v>1.46011311142766</v>
       </c>
       <c r="G114" t="n">
-        <v>0.5867899793022362</v>
+        <v>0.6915526211700941</v>
       </c>
       <c r="H114" t="n">
-        <v>183741550.3164721</v>
+        <v>125188177.4218864</v>
       </c>
       <c r="I114" t="n">
-        <v>0.2874923381548948</v>
+        <v>0.6153156561247117</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -45315,7 +45085,7 @@
         </is>
       </c>
       <c r="B115" s="2" t="n">
-        <v>45883.5</v>
+        <v>45891</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -45323,22 +45093,22 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>197.2877458967517</v>
+        <v>180.2429705120617</v>
       </c>
       <c r="E115" t="n">
-        <v>7.326812124615431</v>
+        <v>-3.750781271923401</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.2732464048213785</v>
+        <v>-0.5820512706725651</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9216135721408265</v>
+        <v>0.6247109511466055</v>
       </c>
       <c r="H115" t="n">
-        <v>532309274.5675869</v>
+        <v>-64914223.07429504</v>
       </c>
       <c r="I115" t="n">
-        <v>-1.080821783878068</v>
+        <v>-0.9728286361008582</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -45357,7 +45127,7 @@
         </is>
       </c>
       <c r="B116" s="2" t="n">
-        <v>45890</v>
+        <v>45891.5</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -45365,22 +45135,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>187.2669439751863</v>
+        <v>190.2517785062837</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>1.46011311142766</v>
+        <v>1.817461589893526</v>
       </c>
       <c r="G116" t="n">
-        <v>0.6915526211700941</v>
+        <v>0.6507566498541996</v>
       </c>
       <c r="H116" t="n">
-        <v>125188177.4218864</v>
+        <v>485958820.2321587</v>
       </c>
       <c r="I116" t="n">
-        <v>0.6153156561247117</v>
+        <v>0.9252517649035802</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -45399,30 +45169,30 @@
         </is>
       </c>
       <c r="B117" s="2" t="n">
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>180.2429705120617</v>
+        <v>204.0193160962218</v>
       </c>
       <c r="E117" t="n">
-        <v>-3.750781271923401</v>
+        <v>7.236482990083299</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.5820512706725651</v>
+        <v>1.38841251637561</v>
       </c>
       <c r="G117" t="n">
-        <v>0.6247109511466055</v>
+        <v>0.8399819719933563</v>
       </c>
       <c r="H117" t="n">
-        <v>-64914223.07429504</v>
+        <v>-181027060.1196022</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.9728286361008582</v>
+        <v>0.3882032273385686</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -45441,7 +45211,7 @@
         </is>
       </c>
       <c r="B118" s="2" t="n">
-        <v>45891.5</v>
+        <v>45896.5</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -45449,22 +45219,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>190.2517785062837</v>
+        <v>199.6396072805956</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>1.817461589893526</v>
+        <v>0.8207701734949922</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6507566498541996</v>
+        <v>0.7480853572349653</v>
       </c>
       <c r="H118" t="n">
-        <v>485958820.2321587</v>
+        <v>14486734.71739578</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9252517649035802</v>
+        <v>0.04602366081371173</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -45483,30 +45253,30 @@
         </is>
       </c>
       <c r="B119" s="2" t="n">
-        <v>45893</v>
+        <v>45898.5</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>204.0193160962218</v>
+        <v>209.8164711703309</v>
       </c>
       <c r="E119" t="n">
-        <v>7.236482990083299</v>
+        <v>5.097617666333936</v>
       </c>
       <c r="F119" t="n">
-        <v>1.38841251637561</v>
+        <v>-0.129704015575669</v>
       </c>
       <c r="G119" t="n">
-        <v>0.8399819719933563</v>
+        <v>0.6890168067053875</v>
       </c>
       <c r="H119" t="n">
-        <v>-181027060.1196022</v>
+        <v>63743123.29690361</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3882032273385686</v>
+        <v>-0.534434242974223</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -45525,7 +45295,7 @@
         </is>
       </c>
       <c r="B120" s="2" t="n">
-        <v>45896.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -45533,22 +45303,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>199.6396072805956</v>
+        <v>203.0570933347734</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8207701734949922</v>
+        <v>0.7397873634518248</v>
       </c>
       <c r="G120" t="n">
-        <v>0.7480853572349653</v>
+        <v>0.6971264631745421</v>
       </c>
       <c r="H120" t="n">
-        <v>14486734.71739578</v>
+        <v>394540989.0636425</v>
       </c>
       <c r="I120" t="n">
-        <v>0.04602366081371173</v>
+        <v>0.0285330892339561</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -45567,30 +45337,30 @@
         </is>
       </c>
       <c r="B121" s="2" t="n">
-        <v>45898.5</v>
+        <v>45904</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>209.8164711703309</v>
+        <v>210.678785187558</v>
       </c>
       <c r="E121" t="n">
-        <v>5.097617666333936</v>
+        <v>3.753472349876964</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.129704015575669</v>
+        <v>0.6664767776373992</v>
       </c>
       <c r="G121" t="n">
-        <v>0.6890168067053875</v>
+        <v>0.9439840146599047</v>
       </c>
       <c r="H121" t="n">
-        <v>63743123.29690361</v>
+        <v>-123311821.3687286</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.534434242974223</v>
+        <v>-0.1915524898901692</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -45609,7 +45379,7 @@
         </is>
       </c>
       <c r="B122" s="2" t="n">
-        <v>45902.5</v>
+        <v>45908</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -45617,22 +45387,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>203.0570933347734</v>
+        <v>206.5184884685637</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.7397873634518248</v>
+        <v>0.8550303229592942</v>
       </c>
       <c r="G122" t="n">
-        <v>0.6971264631745421</v>
+        <v>0.3976418792686757</v>
       </c>
       <c r="H122" t="n">
-        <v>394540989.0636425</v>
+        <v>116281787.7240515</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0285330892339561</v>
+        <v>0.3747890680491476</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -45647,85 +45417,85 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="B123" s="2" t="n">
-        <v>45904</v>
+        <v>45825</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>210.678785187558</v>
+        <v>3.016129590749879</v>
       </c>
       <c r="E123" t="n">
-        <v>3.753472349876964</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6664767776373992</v>
+        <v>0.01007107129845553</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9439840146599047</v>
+        <v>-0.006281694509974125</v>
       </c>
       <c r="H123" t="n">
-        <v>-123311821.3687286</v>
+        <v>32036926.33305359</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.1915524898901692</v>
+        <v>0.7888220996513184</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L123" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="B124" s="2" t="n">
-        <v>45908</v>
+        <v>45825.5</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>206.5184884685637</v>
+        <v>2.932902918590052</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>-2.759386480444105</v>
       </c>
       <c r="F124" t="n">
-        <v>0.8550303229592942</v>
+        <v>-0.007382180715967745</v>
       </c>
       <c r="G124" t="n">
-        <v>0.3976418792686757</v>
+        <v>-0.005901938461451615</v>
       </c>
       <c r="H124" t="n">
-        <v>116281787.7240515</v>
+        <v>-2872225.166428328</v>
       </c>
       <c r="I124" t="n">
-        <v>0.3747890680491476</v>
+        <v>-0.07421252908583324</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L124" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
@@ -45735,7 +45505,7 @@
         </is>
       </c>
       <c r="B125" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -45743,22 +45513,22 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3.016129590749879</v>
+        <v>2.827959672303814</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.01007107129845553</v>
+        <v>-0.0010641827092992</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.006281694509974125</v>
+        <v>-0.005300042655611934</v>
       </c>
       <c r="H125" t="n">
-        <v>32036926.33305359</v>
+        <v>35830884.79913509</v>
       </c>
       <c r="I125" t="n">
-        <v>0.7888220996513184</v>
+        <v>0.2326750629555221</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -45777,30 +45547,30 @@
         </is>
       </c>
       <c r="B126" s="2" t="n">
-        <v>45825.5</v>
+        <v>45827.5</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2.932902918590052</v>
+        <v>2.830224487533406</v>
       </c>
       <c r="E126" t="n">
-        <v>-2.759386480444105</v>
+        <v>0.08008654620405564</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.007382180715967745</v>
+        <v>0.005304708645187173</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.005901938461451615</v>
+        <v>-0.004038469120103106</v>
       </c>
       <c r="H126" t="n">
-        <v>-2872225.166428328</v>
+        <v>-24511777.6209327</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.07421252908583324</v>
+        <v>0.5115405935680041</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -45819,7 +45589,7 @@
         </is>
       </c>
       <c r="B127" s="2" t="n">
-        <v>45827</v>
+        <v>45831.5</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -45827,22 +45597,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2.827959672303814</v>
+        <v>2.639797050711826</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.0010641827092992</v>
+        <v>0.04183781082573113</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.005300042655611934</v>
+        <v>-0.0003152829715092637</v>
       </c>
       <c r="H127" t="n">
-        <v>35830884.79913509</v>
+        <v>89980587.56398237</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2326750629555221</v>
+        <v>2.188754860515688</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -45861,30 +45631,30 @@
         </is>
       </c>
       <c r="B128" s="2" t="n">
-        <v>45827.5</v>
+        <v>45834</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2.830224487533406</v>
+        <v>2.72730318727156</v>
       </c>
       <c r="E128" t="n">
-        <v>0.08008654620405564</v>
+        <v>3.314881215438036</v>
       </c>
       <c r="F128" t="n">
-        <v>0.005304708645187173</v>
+        <v>-0.002712507077002435</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.004038469120103106</v>
+        <v>0.009096651201710253</v>
       </c>
       <c r="H128" t="n">
-        <v>-24511777.6209327</v>
+        <v>-81484374.0798595</v>
       </c>
       <c r="I128" t="n">
-        <v>0.5115405935680041</v>
+        <v>-0.468881480603778</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -45903,7 +45673,7 @@
         </is>
       </c>
       <c r="B129" s="2" t="n">
-        <v>45831.5</v>
+        <v>45838</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -45911,22 +45681,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2.639797050711826</v>
+        <v>2.904015318956288</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.04183781082573113</v>
+        <v>0.02183322009556132</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.0003152829715092637</v>
+        <v>0.01654738988179377</v>
       </c>
       <c r="H129" t="n">
-        <v>89980587.56398237</v>
+        <v>15654102.80676925</v>
       </c>
       <c r="I129" t="n">
-        <v>2.188754860515688</v>
+        <v>0.2524638216344219</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -45945,7 +45715,7 @@
         </is>
       </c>
       <c r="B130" s="2" t="n">
-        <v>45834</v>
+        <v>45838.5</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -45953,22 +45723,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2.72730318727156</v>
+        <v>2.840682295224735</v>
       </c>
       <c r="E130" t="n">
-        <v>3.314881215438036</v>
+        <v>-2.180877742556667</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.002712507077002435</v>
+        <v>-0.002662626897215414</v>
       </c>
       <c r="G130" t="n">
-        <v>0.009096651201710253</v>
+        <v>0.01653432568855524</v>
       </c>
       <c r="H130" t="n">
-        <v>-81484374.0798595</v>
+        <v>21030823.2830956</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.468881480603778</v>
+        <v>-0.9165887909252124</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -45987,7 +45757,7 @@
         </is>
       </c>
       <c r="B131" s="2" t="n">
-        <v>45838</v>
+        <v>45841</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -45995,22 +45765,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2.904015318956288</v>
+        <v>2.901781662278681</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.02183322009556132</v>
+        <v>0.03002610722488885</v>
       </c>
       <c r="G131" t="n">
-        <v>0.01654738988179377</v>
+        <v>0.01625599071612573</v>
       </c>
       <c r="H131" t="n">
-        <v>15654102.80676925</v>
+        <v>77757892.34597266</v>
       </c>
       <c r="I131" t="n">
-        <v>0.2524638216344219</v>
+        <v>0.6112195890263705</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -46029,7 +45799,7 @@
         </is>
       </c>
       <c r="B132" s="2" t="n">
-        <v>45838.5</v>
+        <v>45842.5</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -46037,22 +45807,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2.840682295224735</v>
+        <v>2.948030283362101</v>
       </c>
       <c r="E132" t="n">
-        <v>-2.180877742556667</v>
+        <v>1.593800859817344</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.002662626897215414</v>
+        <v>-0.002894130860745747</v>
       </c>
       <c r="G132" t="n">
-        <v>0.01653432568855524</v>
+        <v>0.01841680381352211</v>
       </c>
       <c r="H132" t="n">
-        <v>21030823.2830956</v>
+        <v>-15515471.36306214</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.9165887909252124</v>
+        <v>-0.9208583124039166</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -46071,7 +45841,7 @@
         </is>
       </c>
       <c r="B133" s="2" t="n">
-        <v>45841</v>
+        <v>45847.5</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -46079,22 +45849,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2.901781662278681</v>
+        <v>2.989341953662318</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.03002610722488885</v>
+        <v>0.01961539419127201</v>
       </c>
       <c r="G133" t="n">
-        <v>0.01625599071612573</v>
+        <v>0.01086974279211781</v>
       </c>
       <c r="H133" t="n">
-        <v>77757892.34597266</v>
+        <v>31512729.20528746</v>
       </c>
       <c r="I133" t="n">
-        <v>0.6112195890263705</v>
+        <v>0.521079066907761</v>
       </c>
       <c r="J133" t="n">
         <v>1</v>
@@ -46113,7 +45883,7 @@
         </is>
       </c>
       <c r="B134" s="2" t="n">
-        <v>45842.5</v>
+        <v>45850</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -46121,22 +45891,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2.948030283362101</v>
+        <v>3.390990124062747</v>
       </c>
       <c r="E134" t="n">
-        <v>1.593800859817344</v>
+        <v>13.4360062055918</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.002894130860745747</v>
+        <v>-0.005298780336316256</v>
       </c>
       <c r="G134" t="n">
-        <v>0.01841680381352211</v>
+        <v>0.01980943221332659</v>
       </c>
       <c r="H134" t="n">
-        <v>-15515471.36306214</v>
+        <v>68944527.01943159</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.9208583124039166</v>
+        <v>-1.116084835640091</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -46155,7 +45925,7 @@
         </is>
       </c>
       <c r="B135" s="2" t="n">
-        <v>45847.5</v>
+        <v>45852.5</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -46163,22 +45933,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2.989341953662318</v>
+        <v>3.683926741045178</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.01961539419127201</v>
+        <v>0.03223991813223082</v>
       </c>
       <c r="G135" t="n">
-        <v>0.01086974279211781</v>
+        <v>0.0174786303959788</v>
       </c>
       <c r="H135" t="n">
-        <v>31512729.20528746</v>
+        <v>155546537.289438</v>
       </c>
       <c r="I135" t="n">
-        <v>0.521079066907761</v>
+        <v>0.6359143180027503</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -46197,7 +45967,7 @@
         </is>
       </c>
       <c r="B136" s="2" t="n">
-        <v>45850</v>
+        <v>45854.5</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -46205,22 +45975,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3.390990124062747</v>
+        <v>4.014209482374916</v>
       </c>
       <c r="E136" t="n">
-        <v>13.4360062055918</v>
+        <v>8.965507854698341</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.005298780336316256</v>
+        <v>-0.008716362203505135</v>
       </c>
       <c r="G136" t="n">
-        <v>0.01980943221332659</v>
+        <v>0.0225673336826788</v>
       </c>
       <c r="H136" t="n">
-        <v>68944527.01943159</v>
+        <v>-107910826.0207388</v>
       </c>
       <c r="I136" t="n">
-        <v>-1.116084835640091</v>
+        <v>-1.276298434438615</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
@@ -46239,7 +46009,7 @@
         </is>
       </c>
       <c r="B137" s="2" t="n">
-        <v>45852.5</v>
+        <v>45863.5</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -46247,22 +46017,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3.683926741045178</v>
+        <v>3.828341938941208</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.03223991813223082</v>
+        <v>0.01460148439970288</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0174786303959788</v>
+        <v>0.01011139265418987</v>
       </c>
       <c r="H137" t="n">
-        <v>155546537.289438</v>
+        <v>49787626.47348094</v>
       </c>
       <c r="I137" t="n">
-        <v>0.6359143180027503</v>
+        <v>0.1511849910156428</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
@@ -46281,7 +46051,7 @@
         </is>
       </c>
       <c r="B138" s="2" t="n">
-        <v>45854.5</v>
+        <v>45866.5</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -46289,22 +46059,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>4.014209482374916</v>
+        <v>4.110951732521133</v>
       </c>
       <c r="E138" t="n">
-        <v>8.965507854698341</v>
+        <v>7.382041575368913</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.008716362203505135</v>
+        <v>-0.03127095785801615</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0225673336826788</v>
+        <v>0.01449865996142518</v>
       </c>
       <c r="H138" t="n">
-        <v>-107910826.0207388</v>
+        <v>34963414.72724485</v>
       </c>
       <c r="I138" t="n">
-        <v>-1.276298434438615</v>
+        <v>-1.45195843541582</v>
       </c>
       <c r="J138" t="n">
         <v>1</v>
@@ -46323,7 +46093,7 @@
         </is>
       </c>
       <c r="B139" s="2" t="n">
-        <v>45863.5</v>
+        <v>45873.5</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -46331,22 +46101,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3.828341938941208</v>
+        <v>3.518317461946312</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.01460148439970288</v>
+        <v>0.03727759366966676</v>
       </c>
       <c r="G139" t="n">
-        <v>0.01011139265418987</v>
+        <v>0.008244171557714381</v>
       </c>
       <c r="H139" t="n">
-        <v>49787626.47348094</v>
+        <v>5326295.696876287</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1511849910156428</v>
+        <v>0.9412868594891128</v>
       </c>
       <c r="J139" t="n">
         <v>1</v>
@@ -46365,7 +46135,7 @@
         </is>
       </c>
       <c r="B140" s="2" t="n">
-        <v>45866.5</v>
+        <v>45875</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -46373,22 +46143,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>4.110951732521133</v>
+        <v>3.410582823750509</v>
       </c>
       <c r="E140" t="n">
-        <v>7.382041575368913</v>
+        <v>-3.062106798520793</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.03127095785801615</v>
+        <v>-0.009806296901604838</v>
       </c>
       <c r="G140" t="n">
-        <v>0.01449865996142518</v>
+        <v>0.01020624545019599</v>
       </c>
       <c r="H140" t="n">
-        <v>34963414.72724485</v>
+        <v>-6532813.983025312</v>
       </c>
       <c r="I140" t="n">
-        <v>-1.45195843541582</v>
+        <v>-0.6217913569811816</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -46407,7 +46177,7 @@
         </is>
       </c>
       <c r="B141" s="2" t="n">
-        <v>45873.5</v>
+        <v>45876.5</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -46415,22 +46185,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3.518317461946312</v>
+        <v>3.63438601332124</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.03727759366966676</v>
+        <v>0.04086867729249244</v>
       </c>
       <c r="G141" t="n">
-        <v>0.008244171557714381</v>
+        <v>0.01369132959287839</v>
       </c>
       <c r="H141" t="n">
-        <v>5326295.696876287</v>
+        <v>65700955.2067585</v>
       </c>
       <c r="I141" t="n">
-        <v>0.9412868594891128</v>
+        <v>0.820211596322992</v>
       </c>
       <c r="J141" t="n">
         <v>1</v>
@@ -46449,30 +46219,30 @@
         </is>
       </c>
       <c r="B142" s="2" t="n">
-        <v>45875</v>
+        <v>45878.5</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>3.410582823750509</v>
+        <v>3.871665842458039</v>
       </c>
       <c r="E142" t="n">
-        <v>-3.062106798520793</v>
+        <v>6.528745935822165</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.009806296901604838</v>
+        <v>0.01793314471899521</v>
       </c>
       <c r="G142" t="n">
-        <v>0.01020624545019599</v>
+        <v>0.0212460779422922</v>
       </c>
       <c r="H142" t="n">
-        <v>-6532813.983025312</v>
+        <v>-13939765.97608757</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.6217913569811816</v>
+        <v>-0.09855673219482076</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -46491,7 +46261,7 @@
         </is>
       </c>
       <c r="B143" s="2" t="n">
-        <v>45876.5</v>
+        <v>45882</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -46499,22 +46269,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3.63438601332124</v>
+        <v>3.886979731632727</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.04086867729249244</v>
+        <v>0.01998194327193348</v>
       </c>
       <c r="G143" t="n">
-        <v>0.01369132959287839</v>
+        <v>0.01372690576422695</v>
       </c>
       <c r="H143" t="n">
-        <v>65700955.2067585</v>
+        <v>71444318.80472779</v>
       </c>
       <c r="I143" t="n">
-        <v>0.820211596322992</v>
+        <v>0.2189981784162015</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -46533,30 +46303,30 @@
         </is>
       </c>
       <c r="B144" s="2" t="n">
-        <v>45878.5</v>
+        <v>45883.5</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3.871665842458039</v>
+        <v>3.891363173736707</v>
       </c>
       <c r="E144" t="n">
-        <v>6.528745935822165</v>
+        <v>0.1127724456165</v>
       </c>
       <c r="F144" t="n">
-        <v>0.01793314471899521</v>
+        <v>-0.01671517853205939</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0212460779422922</v>
+        <v>0.01738847060569269</v>
       </c>
       <c r="H144" t="n">
-        <v>-13939765.97608757</v>
+        <v>114544293.2317266</v>
       </c>
       <c r="I144" t="n">
-        <v>-0.09855673219482076</v>
+        <v>-1.316524332507242</v>
       </c>
       <c r="J144" t="n">
         <v>1</v>
@@ -46575,7 +46345,7 @@
         </is>
       </c>
       <c r="B145" s="2" t="n">
-        <v>45882</v>
+        <v>45891.5</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -46583,22 +46353,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3.886979731632727</v>
+        <v>3.584763402876916</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.01998194327193348</v>
+        <v>0.0344409891036026</v>
       </c>
       <c r="G145" t="n">
-        <v>0.01372690576422695</v>
+        <v>0.01086750182150541</v>
       </c>
       <c r="H145" t="n">
-        <v>71444318.80472779</v>
+        <v>100956195.7082858</v>
       </c>
       <c r="I145" t="n">
-        <v>0.2189981784162015</v>
+        <v>0.9351392064434441</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -46617,30 +46387,30 @@
         </is>
       </c>
       <c r="B146" s="2" t="n">
-        <v>45883.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>3.891363173736707</v>
+        <v>3.746666312960748</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1127724456165</v>
+        <v>4.516418292875305</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.01671517853205939</v>
+        <v>0.03300538130413555</v>
       </c>
       <c r="G146" t="n">
-        <v>0.01738847060569269</v>
+        <v>0.01108359169032185</v>
       </c>
       <c r="H146" t="n">
-        <v>114544293.2317266</v>
+        <v>-673203.3627033234</v>
       </c>
       <c r="I146" t="n">
-        <v>-1.316524332507242</v>
+        <v>0.8596713854438329</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -46659,7 +46429,7 @@
         </is>
       </c>
       <c r="B147" s="2" t="n">
-        <v>45891.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -46667,22 +46437,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3.584763402876916</v>
+        <v>3.254698811423597</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0344409891036026</v>
+        <v>0.01526081595403905</v>
       </c>
       <c r="G147" t="n">
-        <v>0.01086750182150541</v>
+        <v>0.00960810393694473</v>
       </c>
       <c r="H147" t="n">
-        <v>100956195.7082858</v>
+        <v>35543612.66707575</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9351392064434441</v>
+        <v>0.2386742417693537</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
@@ -46701,7 +46471,7 @@
         </is>
       </c>
       <c r="B148" s="2" t="n">
-        <v>45892.5</v>
+        <v>45903</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -46709,22 +46479,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3.746666312960748</v>
+        <v>3.3176143802287</v>
       </c>
       <c r="E148" t="n">
-        <v>4.516418292875305</v>
+        <v>1.933068847546732</v>
       </c>
       <c r="F148" t="n">
-        <v>0.03300538130413555</v>
+        <v>0.02578299132036044</v>
       </c>
       <c r="G148" t="n">
-        <v>0.01108359169032185</v>
+        <v>0.0114033364713854</v>
       </c>
       <c r="H148" t="n">
-        <v>-673203.3627033234</v>
+        <v>-24664725.21943486</v>
       </c>
       <c r="I148" t="n">
-        <v>0.8596713854438329</v>
+        <v>0.6062031694373541</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -46743,7 +46513,7 @@
         </is>
       </c>
       <c r="B149" s="2" t="n">
-        <v>45902.5</v>
+        <v>45904</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -46751,22 +46521,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>3.254698811423597</v>
+        <v>3.384090214867991</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.01526081595403905</v>
+        <v>0.02298326709189347</v>
       </c>
       <c r="G149" t="n">
-        <v>0.00960810393694473</v>
+        <v>0.01469458150718902</v>
       </c>
       <c r="H149" t="n">
-        <v>35543612.66707575</v>
+        <v>7035208.983371139</v>
       </c>
       <c r="I149" t="n">
-        <v>0.2386742417693537</v>
+        <v>0.3671472848230368</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -46785,7 +46555,7 @@
         </is>
       </c>
       <c r="B150" s="2" t="n">
-        <v>45903</v>
+        <v>45904.5</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -46793,22 +46563,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>3.3176143802287</v>
+        <v>3.336554756859905</v>
       </c>
       <c r="E150" t="n">
-        <v>1.933068847546732</v>
+        <v>-1.404674668519165</v>
       </c>
       <c r="F150" t="n">
-        <v>0.02578299132036044</v>
+        <v>0.004217538481424477</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0114033364713854</v>
+        <v>0.01485902254071069</v>
       </c>
       <c r="H150" t="n">
-        <v>-24664725.21943486</v>
+        <v>-9916359.569326878</v>
       </c>
       <c r="I150" t="n">
-        <v>0.6062031694373541</v>
+        <v>-0.4716688571346208</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -46827,7 +46597,7 @@
         </is>
       </c>
       <c r="B151" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -46835,22 +46605,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>3.384090214867991</v>
+        <v>3.399478436447107</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.02298326709189347</v>
+        <v>0.009372312758283208</v>
       </c>
       <c r="G151" t="n">
-        <v>0.01469458150718902</v>
+        <v>0.008264541919538838</v>
       </c>
       <c r="H151" t="n">
-        <v>7035208.983371139</v>
+        <v>3859366.966993928</v>
       </c>
       <c r="I151" t="n">
-        <v>0.3671472848230368</v>
+        <v>0.06305179619474501</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
@@ -46865,34 +46635,34 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="B152" s="2" t="n">
-        <v>45904.5</v>
+        <v>45820.5</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3.336554756859905</v>
+        <v>0.2756960112597504</v>
       </c>
       <c r="E152" t="n">
-        <v>-1.404674668519165</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.004217538481424477</v>
+        <v>-0.002104738032733477</v>
       </c>
       <c r="G152" t="n">
-        <v>0.01485902254071069</v>
+        <v>-0.002115997185924853</v>
       </c>
       <c r="H152" t="n">
-        <v>-9916359.569326878</v>
+        <v>13466029.44841015</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.4716688571346208</v>
+        <v>0.2071067811865468</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -46907,34 +46677,34 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="B153" s="2" t="n">
-        <v>45908</v>
+        <v>45821</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>3.399478436447107</v>
+        <v>0.2721159586819218</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>-1.298550734002324</v>
       </c>
       <c r="F153" t="n">
-        <v>0.009372312758283208</v>
+        <v>-0.001972192602254952</v>
       </c>
       <c r="G153" t="n">
-        <v>0.008264541919538838</v>
+        <v>-0.002033213872245456</v>
       </c>
       <c r="H153" t="n">
-        <v>3859366.966993928</v>
+        <v>-1283427.465281487</v>
       </c>
       <c r="I153" t="n">
-        <v>0.06305179619474501</v>
+        <v>0.5760007221423489</v>
       </c>
       <c r="J153" t="n">
         <v>1</v>
@@ -46953,7 +46723,7 @@
         </is>
       </c>
       <c r="B154" s="2" t="n">
-        <v>45820.5</v>
+        <v>45824.5</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -46961,22 +46731,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.2756960112597504</v>
+        <v>0.2745675775082441</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.002104738032733477</v>
+        <v>0.0007012246525400223</v>
       </c>
       <c r="G154" t="n">
-        <v>-0.002115997185924853</v>
+        <v>-3.390472246889576e-05</v>
       </c>
       <c r="H154" t="n">
-        <v>13466029.44841015</v>
+        <v>122875773.3359403</v>
       </c>
       <c r="I154" t="n">
-        <v>0.2071067811865468</v>
+        <v>0.6122027491945607</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -46995,7 +46765,7 @@
         </is>
       </c>
       <c r="B155" s="2" t="n">
-        <v>45821</v>
+        <v>45826</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -47003,22 +46773,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.2721159586819218</v>
+        <v>0.2717577802149598</v>
       </c>
       <c r="E155" t="n">
-        <v>-1.298550734002324</v>
+        <v>-1.023353638031032</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.001972192602254952</v>
+        <v>-0.0002608337020795215</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.002033213872245456</v>
+        <v>0.0001006537099709715</v>
       </c>
       <c r="H155" t="n">
-        <v>-1283427.465281487</v>
+        <v>-54876504.35671616</v>
       </c>
       <c r="I155" t="n">
-        <v>0.5760007221423489</v>
+        <v>-0.3256664821087477</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -47037,7 +46807,7 @@
         </is>
       </c>
       <c r="B156" s="2" t="n">
-        <v>45824.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -47045,22 +46815,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.2745675775082441</v>
+        <v>0.268317425423677</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0007012246525400223</v>
+        <v>0.0004792505964680838</v>
       </c>
       <c r="G156" t="n">
-        <v>-3.390472246889576e-05</v>
+        <v>0.0001476551068314034</v>
       </c>
       <c r="H156" t="n">
-        <v>122875773.3359403</v>
+        <v>41912908.66840923</v>
       </c>
       <c r="I156" t="n">
-        <v>0.6122027491945607</v>
+        <v>0.3733525152814224</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -47079,30 +46849,30 @@
         </is>
       </c>
       <c r="B157" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.2717577802149598</v>
+        <v>0.2739217753188412</v>
       </c>
       <c r="E157" t="n">
-        <v>-1.023353638031032</v>
+        <v>2.088701427540469</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.0002608337020795215</v>
+        <v>0.0006753170417337362</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0001006537099709715</v>
+        <v>0.0003174930809174791</v>
       </c>
       <c r="H157" t="n">
-        <v>-54876504.35671616</v>
+        <v>-88421202.15764666</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.3256664821087477</v>
+        <v>0.3812020629546378</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
@@ -47121,7 +46891,7 @@
         </is>
       </c>
       <c r="B158" s="2" t="n">
-        <v>45831.5</v>
+        <v>45838.5</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -47129,22 +46899,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.268317425423677</v>
+        <v>0.2783606128535416</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0004792505964680838</v>
+        <v>0.0004818282970026067</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0001476551068314034</v>
+        <v>0.0004425924368545581</v>
       </c>
       <c r="H158" t="n">
-        <v>41912908.66840923</v>
+        <v>19150811.36726099</v>
       </c>
       <c r="I158" t="n">
-        <v>0.3733525152814224</v>
+        <v>0.07672799712512303</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
@@ -47163,30 +46933,30 @@
         </is>
       </c>
       <c r="B159" s="2" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.2739217753188412</v>
+        <v>0.2787627479884452</v>
       </c>
       <c r="E159" t="n">
-        <v>2.088701427540469</v>
+        <v>0.1444655300839029</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0006753170417337362</v>
+        <v>-0.0001861168488541676</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0003174930809174791</v>
+        <v>0.000375155418240382</v>
       </c>
       <c r="H159" t="n">
-        <v>-88421202.15764666</v>
+        <v>6845472.678718626</v>
       </c>
       <c r="I159" t="n">
-        <v>0.3812020629546378</v>
+        <v>-1.146931054505869</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -47205,7 +46975,7 @@
         </is>
       </c>
       <c r="B160" s="2" t="n">
-        <v>45838.5</v>
+        <v>45840.5</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -47213,22 +46983,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.2783606128535416</v>
+        <v>0.2817584964143807</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0004818282970026067</v>
+        <v>0.0004133711488161218</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0004425924368545581</v>
+        <v>0.0003879141297694802</v>
       </c>
       <c r="H160" t="n">
-        <v>19150811.36726099</v>
+        <v>18426559.55366075</v>
       </c>
       <c r="I160" t="n">
-        <v>0.07672799712512303</v>
+        <v>0.05175159245296798</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
@@ -47247,7 +47017,7 @@
         </is>
       </c>
       <c r="B161" s="2" t="n">
-        <v>45840</v>
+        <v>45842.5</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -47255,22 +47025,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.2787627479884452</v>
+        <v>0.2847070033553019</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1444655300839029</v>
+        <v>1.046466026204506</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.0001861168488541676</v>
+        <v>-0.0004483053166401962</v>
       </c>
       <c r="G161" t="n">
-        <v>0.000375155418240382</v>
+        <v>0.0004251961872640993</v>
       </c>
       <c r="H161" t="n">
-        <v>6845472.678718626</v>
+        <v>3507873.517659843</v>
       </c>
       <c r="I161" t="n">
-        <v>-1.146931054505869</v>
+        <v>-1.698588758090974</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
@@ -47289,7 +47059,7 @@
         </is>
       </c>
       <c r="B162" s="2" t="n">
-        <v>45840.5</v>
+        <v>45848.5</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -47297,22 +47067,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.2817584964143807</v>
+        <v>0.2917647951343454</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0004133711488161218</v>
+        <v>0.000389241492383452</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0003879141297694802</v>
+        <v>0.0002745178554024699</v>
       </c>
       <c r="H162" t="n">
-        <v>18426559.55366075</v>
+        <v>76806050.4770695</v>
       </c>
       <c r="I162" t="n">
-        <v>0.05175159245296798</v>
+        <v>0.3090944257555274</v>
       </c>
       <c r="J162" t="n">
         <v>1</v>
@@ -47331,7 +47101,7 @@
         </is>
       </c>
       <c r="B163" s="2" t="n">
-        <v>45842.5</v>
+        <v>45851.5</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -47339,22 +47109,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.2847070033553019</v>
+        <v>0.302735538596902</v>
       </c>
       <c r="E163" t="n">
-        <v>1.046466026204506</v>
+        <v>3.76013269781402</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.0004483053166401962</v>
+        <v>-7.253142696866943e-05</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0004251961872640993</v>
+        <v>0.0004073284929714105</v>
       </c>
       <c r="H163" t="n">
-        <v>3507873.517659843</v>
+        <v>-161793471.8767972</v>
       </c>
       <c r="I163" t="n">
-        <v>-1.698588758090974</v>
+        <v>-1.111565159428154</v>
       </c>
       <c r="J163" t="n">
         <v>1</v>
@@ -47373,7 +47143,7 @@
         </is>
       </c>
       <c r="B164" s="2" t="n">
-        <v>45848.5</v>
+        <v>45855.5</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -47381,22 +47151,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.2917647951343454</v>
+        <v>0.3125877657923776</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.000389241492383452</v>
+        <v>0.001046918493308902</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0002745178554024699</v>
+        <v>0.000374513801100434</v>
       </c>
       <c r="H164" t="n">
-        <v>76806050.4770695</v>
+        <v>139523489.3454525</v>
       </c>
       <c r="I164" t="n">
-        <v>0.3090944257555274</v>
+        <v>1.20615366490001</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -47415,7 +47185,7 @@
         </is>
       </c>
       <c r="B165" s="2" t="n">
-        <v>45851.5</v>
+        <v>45857.5</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -47423,22 +47193,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.302735538596902</v>
+        <v>0.3218198585060033</v>
       </c>
       <c r="E165" t="n">
-        <v>3.76013269781402</v>
+        <v>2.953440193100081</v>
       </c>
       <c r="F165" t="n">
-        <v>-7.253142696866943e-05</v>
+        <v>-0.0003647549429432462</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0004073284929714105</v>
+        <v>0.0005039970051228475</v>
       </c>
       <c r="H165" t="n">
-        <v>-161793471.8767972</v>
+        <v>-128924121.95717</v>
       </c>
       <c r="I165" t="n">
-        <v>-1.111565159428154</v>
+        <v>-1.320841953833646</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
@@ -47457,7 +47227,7 @@
         </is>
       </c>
       <c r="B166" s="2" t="n">
-        <v>45855.5</v>
+        <v>45867.5</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -47465,22 +47235,22 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.3125877657923776</v>
+        <v>0.3300358571220755</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.001046918493308902</v>
+        <v>0.001631556135825274</v>
       </c>
       <c r="G166" t="n">
-        <v>0.000374513801100434</v>
+        <v>0.0004192706097844234</v>
       </c>
       <c r="H166" t="n">
-        <v>139523489.3454525</v>
+        <v>247085363.7363601</v>
       </c>
       <c r="I166" t="n">
-        <v>1.20615366490001</v>
+        <v>1.338721173482782</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
@@ -47499,7 +47269,7 @@
         </is>
       </c>
       <c r="B167" s="2" t="n">
-        <v>45857.5</v>
+        <v>45869</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -47507,22 +47277,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.3218198585060033</v>
+        <v>0.3275810251017437</v>
       </c>
       <c r="E167" t="n">
-        <v>2.953440193100081</v>
+        <v>-0.7438076703961906</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.0003647549429432462</v>
+        <v>-0.001366494334261004</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0005039970051228475</v>
+        <v>0.0005812772026898603</v>
       </c>
       <c r="H167" t="n">
-        <v>-128924121.95717</v>
+        <v>-138895958.7567077</v>
       </c>
       <c r="I167" t="n">
-        <v>-1.320841953833646</v>
+        <v>-1.920045139219781</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -47541,7 +47311,7 @@
         </is>
       </c>
       <c r="B168" s="2" t="n">
-        <v>45867.5</v>
+        <v>45874.5</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -47549,22 +47319,22 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.3300358571220755</v>
+        <v>0.3331680746835551</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.001631556135825274</v>
+        <v>0.0005201611277014795</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0004192706097844234</v>
+        <v>0.000440875462689942</v>
       </c>
       <c r="H168" t="n">
-        <v>247085363.7363601</v>
+        <v>47462570.01715088</v>
       </c>
       <c r="I168" t="n">
-        <v>1.338721173482782</v>
+        <v>0.08845432985743126</v>
       </c>
       <c r="J168" t="n">
         <v>1</v>
@@ -47583,7 +47353,7 @@
         </is>
       </c>
       <c r="B169" s="2" t="n">
-        <v>45869</v>
+        <v>45877.5</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -47591,22 +47361,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.3275810251017437</v>
+        <v>0.3382871402130892</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.7438076703961906</v>
+        <v>1.536481409389594</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.001366494334261004</v>
+        <v>-0.0001952183200799595</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0005812772026898603</v>
+        <v>0.0005656384487872866</v>
       </c>
       <c r="H169" t="n">
-        <v>-138895958.7567077</v>
+        <v>54576851.24660683</v>
       </c>
       <c r="I169" t="n">
-        <v>-1.920045139219781</v>
+        <v>-0.9156128867775538</v>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -47625,7 +47395,7 @@
         </is>
       </c>
       <c r="B170" s="2" t="n">
-        <v>45874.5</v>
+        <v>45880.5</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -47633,22 +47403,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.3331680746835551</v>
+        <v>0.3418650094309428</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0005201611277014795</v>
+        <v>0.0006705060844198196</v>
       </c>
       <c r="G170" t="n">
-        <v>0.000440875462689942</v>
+        <v>0.0004415926009874527</v>
       </c>
       <c r="H170" t="n">
-        <v>47462570.01715088</v>
+        <v>43309713.16087949</v>
       </c>
       <c r="I170" t="n">
-        <v>0.08845432985743126</v>
+        <v>0.2678619275471008</v>
       </c>
       <c r="J170" t="n">
         <v>1</v>
@@ -47667,7 +47437,7 @@
         </is>
       </c>
       <c r="B171" s="2" t="n">
-        <v>45877.5</v>
+        <v>45884</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -47675,22 +47445,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.3382871402130892</v>
+        <v>0.3584784483629515</v>
       </c>
       <c r="E171" t="n">
-        <v>1.536481409389594</v>
+        <v>4.859648830297917</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.0001952183200799595</v>
+        <v>-0.0007240318028570725</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0005656384487872866</v>
+        <v>0.0005079869532538242</v>
       </c>
       <c r="H171" t="n">
-        <v>54576851.24660683</v>
+        <v>181200952.1556191</v>
       </c>
       <c r="I171" t="n">
-        <v>-0.9156128867775538</v>
+        <v>-1.520083455083172</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -47709,7 +47479,7 @@
         </is>
       </c>
       <c r="B172" s="2" t="n">
-        <v>45880.5</v>
+        <v>45890</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -47717,22 +47487,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.3418650094309428</v>
+        <v>0.3543091308054578</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0006705060844198196</v>
+        <v>0.0008001595011584706</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0004415926009874527</v>
+        <v>0.0003622194414516558</v>
       </c>
       <c r="H172" t="n">
-        <v>43309713.16087949</v>
+        <v>4268879.132735491</v>
       </c>
       <c r="I172" t="n">
-        <v>0.2678619275471008</v>
+        <v>0.4851646291855037</v>
       </c>
       <c r="J172" t="n">
         <v>1</v>
@@ -47751,30 +47521,30 @@
         </is>
       </c>
       <c r="B173" s="2" t="n">
-        <v>45884</v>
+        <v>45890.5</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.3584784483629515</v>
+        <v>0.3538682207719828</v>
       </c>
       <c r="E173" t="n">
-        <v>4.859648830297917</v>
+        <v>-0.1244421876661048</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.0007240318028570725</v>
+        <v>0.0003318298819959264</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0005079869532538242</v>
+        <v>0.0003614236803113683</v>
       </c>
       <c r="H173" t="n">
-        <v>181200952.1556191</v>
+        <v>-9422721.69231081</v>
       </c>
       <c r="I173" t="n">
-        <v>-1.520083455083172</v>
+        <v>-0.03279644909166134</v>
       </c>
       <c r="J173" t="n">
         <v>1</v>
@@ -47793,7 +47563,7 @@
         </is>
       </c>
       <c r="B174" s="2" t="n">
-        <v>45890</v>
+        <v>45891.5</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -47801,22 +47571,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.3543091308054578</v>
+        <v>0.3599039170145206</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0008001595011584706</v>
+        <v>0.001316665978542186</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0003622194414516558</v>
+        <v>0.0004015124717145221</v>
       </c>
       <c r="H174" t="n">
-        <v>4268879.132735491</v>
+        <v>26699893.59009409</v>
       </c>
       <c r="I174" t="n">
-        <v>0.4851646291855037</v>
+        <v>0.9808169281185524</v>
       </c>
       <c r="J174" t="n">
         <v>1</v>
@@ -47835,7 +47605,7 @@
         </is>
       </c>
       <c r="B175" s="2" t="n">
-        <v>45890.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -47843,22 +47613,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.3538682207719828</v>
+        <v>0.3643294283113314</v>
       </c>
       <c r="E175" t="n">
-        <v>-0.1244421876661048</v>
+        <v>1.229636880176617</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0003318298819959264</v>
+        <v>0.0005444088909913325</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0003614236803113683</v>
+        <v>0.0005297146808586744</v>
       </c>
       <c r="H175" t="n">
-        <v>-9422721.69231081</v>
+        <v>-25369346.49066067</v>
       </c>
       <c r="I175" t="n">
-        <v>-0.03279644909166134</v>
+        <v>0.01453830775520747</v>
       </c>
       <c r="J175" t="n">
         <v>1</v>
@@ -47877,7 +47647,7 @@
         </is>
       </c>
       <c r="B176" s="2" t="n">
-        <v>45891.5</v>
+        <v>45907.5</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -47885,22 +47655,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.3599039170145206</v>
+        <v>0.3226810987117928</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.001316665978542186</v>
+        <v>0.0005281944213604284</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0004015124717145221</v>
+        <v>6.683701027420833e-05</v>
       </c>
       <c r="H176" t="n">
-        <v>26699893.59009409</v>
+        <v>63020279.58403623</v>
       </c>
       <c r="I176" t="n">
-        <v>0.9808169281185524</v>
+        <v>0.4562270762388893</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
@@ -47919,7 +47689,7 @@
         </is>
       </c>
       <c r="B177" s="2" t="n">
-        <v>45892.5</v>
+        <v>45909</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -47927,22 +47697,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.3643294283113314</v>
+        <v>0.3313207200289712</v>
       </c>
       <c r="E177" t="n">
-        <v>1.229636880176617</v>
+        <v>2.677448834675929</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0005444088909913325</v>
+        <v>0.001172015367108259</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0005297146808586744</v>
+        <v>0.0003858284945897305</v>
       </c>
       <c r="H177" t="n">
-        <v>-25369346.49066067</v>
+        <v>-125252567.0414572</v>
       </c>
       <c r="I177" t="n">
-        <v>0.01453830775520747</v>
+        <v>0.6466936975223773</v>
       </c>
       <c r="J177" t="n">
         <v>1</v>
@@ -47957,11 +47727,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="B178" s="2" t="n">
-        <v>45907.5</v>
+        <v>45824.5</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -47969,73 +47739,73 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.3226810987117928</v>
+        <v>2.210927953443365</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0005281944213604284</v>
+        <v>0.0136699482316045</v>
       </c>
       <c r="G178" t="n">
-        <v>6.683701027420833e-05</v>
+        <v>-0.0006235708842021017</v>
       </c>
       <c r="H178" t="n">
-        <v>63020279.58403623</v>
+        <v>250453897.7312098</v>
       </c>
       <c r="I178" t="n">
-        <v>0.4562270762388893</v>
+        <v>1.432520129793459</v>
       </c>
       <c r="J178" t="n">
         <v>1</v>
       </c>
       <c r="K178" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="L178" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="B179" s="2" t="n">
-        <v>45909</v>
+        <v>45826</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.3313207200289712</v>
+        <v>2.163231775939699</v>
       </c>
       <c r="E179" t="n">
-        <v>2.677448834675929</v>
+        <v>-2.157292255018163</v>
       </c>
       <c r="F179" t="n">
-        <v>0.001172015367108259</v>
+        <v>-0.009207133260662026</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0003858284945897305</v>
+        <v>0.001923025616557404</v>
       </c>
       <c r="H179" t="n">
-        <v>-125252567.0414572</v>
+        <v>-29889895.43114567</v>
       </c>
       <c r="I179" t="n">
-        <v>0.6466936975223773</v>
+        <v>-1.011455299013019</v>
       </c>
       <c r="J179" t="n">
         <v>1</v>
       </c>
       <c r="K179" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="L179" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180">
@@ -48045,7 +47815,7 @@
         </is>
       </c>
       <c r="B180" s="2" t="n">
-        <v>45824.5</v>
+        <v>45831.5</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -48053,22 +47823,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2.210927953443365</v>
+        <v>2.088760137377982</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0136699482316045</v>
+        <v>0.01486492966859476</v>
       </c>
       <c r="G180" t="n">
-        <v>-0.0006235708842021017</v>
+        <v>0.001035194656203734</v>
       </c>
       <c r="H180" t="n">
-        <v>250453897.7312098</v>
+        <v>154715761.447947</v>
       </c>
       <c r="I180" t="n">
-        <v>1.432520129793459</v>
+        <v>1.486528034358411</v>
       </c>
       <c r="J180" t="n">
         <v>1</v>
@@ -48087,30 +47857,30 @@
         </is>
       </c>
       <c r="B181" s="2" t="n">
-        <v>45826</v>
+        <v>45833.5</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2.163231775939699</v>
+        <v>2.186476900305086</v>
       </c>
       <c r="E181" t="n">
-        <v>-2.157292255018163</v>
+        <v>4.678218488493711</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.009207133260662026</v>
+        <v>0.00699565744403996</v>
       </c>
       <c r="G181" t="n">
-        <v>0.001923025616557404</v>
+        <v>0.005006952078236694</v>
       </c>
       <c r="H181" t="n">
-        <v>-29889895.43114567</v>
+        <v>-210695661.8755474</v>
       </c>
       <c r="I181" t="n">
-        <v>-1.011455299013019</v>
+        <v>0.172829335986206</v>
       </c>
       <c r="J181" t="n">
         <v>1</v>
@@ -48129,7 +47899,7 @@
         </is>
       </c>
       <c r="B182" s="2" t="n">
-        <v>45831.5</v>
+        <v>45847.5</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -48137,22 +47907,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2.088760137377982</v>
+        <v>2.357941413071812</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.01486492966859476</v>
+        <v>0.01104274758703472</v>
       </c>
       <c r="G182" t="n">
-        <v>0.001035194656203734</v>
+        <v>0.00475130436261844</v>
       </c>
       <c r="H182" t="n">
-        <v>154715761.447947</v>
+        <v>114060796.6551976</v>
       </c>
       <c r="I182" t="n">
-        <v>1.486528034358411</v>
+        <v>0.9926221336101752</v>
       </c>
       <c r="J182" t="n">
         <v>1</v>
@@ -48171,30 +47941,30 @@
         </is>
       </c>
       <c r="B183" s="2" t="n">
-        <v>45833.5</v>
+        <v>45853.5</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SELL_VOLUME</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2.186476900305086</v>
+        <v>2.936004628778936</v>
       </c>
       <c r="E183" t="n">
-        <v>4.678218488493711</v>
+        <v>24.51558857664965</v>
       </c>
       <c r="F183" t="n">
-        <v>0.00699565744403996</v>
+        <v>-0.007133683517837053</v>
       </c>
       <c r="G183" t="n">
-        <v>0.005006952078236694</v>
+        <v>0.01051482515638282</v>
       </c>
       <c r="H183" t="n">
-        <v>-210695661.8755474</v>
+        <v>-145106084.5385532</v>
       </c>
       <c r="I183" t="n">
-        <v>0.172829335986206</v>
+        <v>-1.72983710136922</v>
       </c>
       <c r="J183" t="n">
         <v>1</v>
@@ -48213,7 +47983,7 @@
         </is>
       </c>
       <c r="B184" s="2" t="n">
-        <v>45847.5</v>
+        <v>45855.5</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -48221,22 +47991,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2.357941413071812</v>
+        <v>3.267675369404749</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.01104274758703472</v>
+        <v>0.04200698692475369</v>
       </c>
       <c r="G184" t="n">
-        <v>0.00475130436261844</v>
+        <v>0.01285608175063692</v>
       </c>
       <c r="H184" t="n">
-        <v>114060796.6551976</v>
+        <v>1081654140.701865</v>
       </c>
       <c r="I184" t="n">
-        <v>0.9926221336101752</v>
+        <v>2.364119103648554</v>
       </c>
       <c r="J184" t="n">
         <v>1</v>
@@ -48255,7 +48025,7 @@
         </is>
       </c>
       <c r="B185" s="2" t="n">
-        <v>45853.5</v>
+        <v>45857</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -48263,22 +48033,22 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2.936004628778936</v>
+        <v>3.417044710420229</v>
       </c>
       <c r="E185" t="n">
-        <v>24.51558857664965</v>
+        <v>4.571119347228472</v>
       </c>
       <c r="F185" t="n">
-        <v>-0.007133683517837053</v>
+        <v>-0.01058440673957328</v>
       </c>
       <c r="G185" t="n">
-        <v>0.01051482515638282</v>
+        <v>0.01674953301728384</v>
       </c>
       <c r="H185" t="n">
-        <v>-145106084.5385532</v>
+        <v>-200365495.2610607</v>
       </c>
       <c r="I185" t="n">
-        <v>-1.72983710136922</v>
+        <v>-1.662853534058789</v>
       </c>
       <c r="J185" t="n">
         <v>1</v>
@@ -48297,7 +48067,7 @@
         </is>
       </c>
       <c r="B186" s="2" t="n">
-        <v>45855.5</v>
+        <v>45876.5</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -48305,22 +48075,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>3.267675369404749</v>
+        <v>3.153739489446899</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.04200698692475369</v>
+        <v>0.03691217959442561</v>
       </c>
       <c r="G186" t="n">
-        <v>0.01285608175063692</v>
+        <v>0.008503144743068016</v>
       </c>
       <c r="H186" t="n">
-        <v>1081654140.701865</v>
+        <v>359580240.767417</v>
       </c>
       <c r="I186" t="n">
-        <v>2.364119103648554</v>
+        <v>1.201627714096317</v>
       </c>
       <c r="J186" t="n">
         <v>1</v>
@@ -48339,7 +48109,7 @@
         </is>
       </c>
       <c r="B187" s="2" t="n">
-        <v>45857</v>
+        <v>45878.5</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -48347,22 +48117,22 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>3.417044710420229</v>
+        <v>3.258835895366054</v>
       </c>
       <c r="E187" t="n">
-        <v>4.571119347228472</v>
+        <v>3.332437770171912</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.01058440673957328</v>
+        <v>-0.005970649058068656</v>
       </c>
       <c r="G187" t="n">
-        <v>0.01674953301728384</v>
+        <v>0.01449355259858687</v>
       </c>
       <c r="H187" t="n">
-        <v>-200365495.2610607</v>
+        <v>-253941684.227375</v>
       </c>
       <c r="I187" t="n">
-        <v>-1.662853534058789</v>
+        <v>-1.109079275986783</v>
       </c>
       <c r="J187" t="n">
         <v>1</v>
@@ -48381,7 +48151,7 @@
         </is>
       </c>
       <c r="B188" s="2" t="n">
-        <v>45876.5</v>
+        <v>45882</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -48389,22 +48159,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>3.153739489446899</v>
+        <v>3.26747236546907</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.03691217959442561</v>
+        <v>0.01407219190853182</v>
       </c>
       <c r="G188" t="n">
-        <v>0.008503144743068016</v>
+        <v>0.01253020871461937</v>
       </c>
       <c r="H188" t="n">
-        <v>359580240.767417</v>
+        <v>298849571.1437731</v>
       </c>
       <c r="I188" t="n">
-        <v>1.201627714096317</v>
+        <v>0.0778418750195686</v>
       </c>
       <c r="J188" t="n">
         <v>1</v>
@@ -48423,7 +48193,7 @@
         </is>
       </c>
       <c r="B189" s="2" t="n">
-        <v>45878.5</v>
+        <v>45883.5</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -48431,22 +48201,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>3.258835895366054</v>
+        <v>3.186945905201149</v>
       </c>
       <c r="E189" t="n">
-        <v>3.332437770171912</v>
+        <v>-2.464487875059974</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.005970649058068656</v>
+        <v>-0.02001160819109327</v>
       </c>
       <c r="G189" t="n">
-        <v>0.01449355259858687</v>
+        <v>0.01270242921170287</v>
       </c>
       <c r="H189" t="n">
-        <v>-253941684.227375</v>
+        <v>303885835.3385611</v>
       </c>
       <c r="I189" t="n">
-        <v>-1.109079275986783</v>
+        <v>-1.617132562699669</v>
       </c>
       <c r="J189" t="n">
         <v>1</v>
@@ -48465,7 +48235,7 @@
         </is>
       </c>
       <c r="B190" s="2" t="n">
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -48473,22 +48243,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>3.26747236546907</v>
+        <v>2.952309340790555</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.01407219190853182</v>
+        <v>0.01082555663730611</v>
       </c>
       <c r="G190" t="n">
-        <v>0.01253020871461937</v>
+        <v>0.007441877724894171</v>
       </c>
       <c r="H190" t="n">
-        <v>298849571.1437731</v>
+        <v>43827841.31850338</v>
       </c>
       <c r="I190" t="n">
-        <v>0.0778418750195686</v>
+        <v>0.1792525538946588</v>
       </c>
       <c r="J190" t="n">
         <v>1</v>
@@ -48507,7 +48277,7 @@
         </is>
       </c>
       <c r="B191" s="2" t="n">
-        <v>45883.5</v>
+        <v>45890.5</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -48515,22 +48285,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>3.186945905201149</v>
+        <v>2.901066174357815</v>
       </c>
       <c r="E191" t="n">
-        <v>-2.464487875059974</v>
+        <v>-1.735697737521566</v>
       </c>
       <c r="F191" t="n">
-        <v>-0.02001160819109327</v>
+        <v>-0.0009501258603874518</v>
       </c>
       <c r="G191" t="n">
-        <v>0.01270242921170287</v>
+        <v>0.007367844180052161</v>
       </c>
       <c r="H191" t="n">
-        <v>303885835.3385611</v>
+        <v>-228659661.1411896</v>
       </c>
       <c r="I191" t="n">
-        <v>-1.617132562699669</v>
+        <v>-0.4408405543264862</v>
       </c>
       <c r="J191" t="n">
         <v>1</v>
@@ -48549,7 +48319,7 @@
         </is>
       </c>
       <c r="B192" s="2" t="n">
-        <v>45890</v>
+        <v>45891.5</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -48557,22 +48327,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2.952309340790555</v>
+        <v>2.961548895020256</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.01082555663730611</v>
+        <v>0.02251244456848189</v>
       </c>
       <c r="G192" t="n">
-        <v>0.007441877724894171</v>
+        <v>0.006040177084133864</v>
       </c>
       <c r="H192" t="n">
-        <v>43827841.31850338</v>
+        <v>349435963.2458496</v>
       </c>
       <c r="I192" t="n">
-        <v>0.1792525538946588</v>
+        <v>0.9160404318878156</v>
       </c>
       <c r="J192" t="n">
         <v>1</v>
@@ -48591,30 +48361,30 @@
         </is>
       </c>
       <c r="B193" s="2" t="n">
-        <v>45890.5</v>
+        <v>45892.5</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>SELL_VOLUME</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2.901066174357815</v>
+        <v>3.059550124367895</v>
       </c>
       <c r="E193" t="n">
-        <v>-1.735697737521566</v>
+        <v>3.309120761518586</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.0009501258603874518</v>
+        <v>0.02123466475467994</v>
       </c>
       <c r="G193" t="n">
-        <v>0.007367844180052161</v>
+        <v>0.004499636166002064</v>
       </c>
       <c r="H193" t="n">
-        <v>-228659661.1411896</v>
+        <v>-123132194.8514957</v>
       </c>
       <c r="I193" t="n">
-        <v>-0.4408405543264862</v>
+        <v>1.032363633766611</v>
       </c>
       <c r="J193" t="n">
         <v>1</v>
@@ -48633,7 +48403,7 @@
         </is>
       </c>
       <c r="B194" s="2" t="n">
-        <v>45891.5</v>
+        <v>45902.5</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -48641,22 +48411,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>2.961548895020256</v>
+        <v>2.806723591636079</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.02251244456848189</v>
+        <v>0.01420647421846422</v>
       </c>
       <c r="G194" t="n">
-        <v>0.006040177084133864</v>
+        <v>0.006650164733717385</v>
       </c>
       <c r="H194" t="n">
-        <v>349435963.2458496</v>
+        <v>445569893.2843523</v>
       </c>
       <c r="I194" t="n">
-        <v>0.9160404318878156</v>
+        <v>0.4968932840220217</v>
       </c>
       <c r="J194" t="n">
         <v>1</v>
@@ -48675,7 +48445,7 @@
         </is>
       </c>
       <c r="B195" s="2" t="n">
-        <v>45892.5</v>
+        <v>45903.5</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -48683,22 +48453,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>3.059550124367895</v>
+        <v>2.852681735633498</v>
       </c>
       <c r="E195" t="n">
-        <v>3.309120761518586</v>
+        <v>1.637430352399929</v>
       </c>
       <c r="F195" t="n">
-        <v>0.02123466475467994</v>
+        <v>0.01274604448192074</v>
       </c>
       <c r="G195" t="n">
-        <v>0.004499636166002064</v>
+        <v>0.008738267994225928</v>
       </c>
       <c r="H195" t="n">
-        <v>-123132194.8514957</v>
+        <v>-281668949.5671759</v>
       </c>
       <c r="I195" t="n">
-        <v>1.032363633766611</v>
+        <v>0.2600654786251684</v>
       </c>
       <c r="J195" t="n">
         <v>1</v>
@@ -48717,7 +48487,7 @@
         </is>
       </c>
       <c r="B196" s="2" t="n">
-        <v>45902.5</v>
+        <v>45908</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -48725,22 +48495,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2.806723591636079</v>
+        <v>2.881098102223723</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.01420647421846422</v>
+        <v>0.0127880607568418</v>
       </c>
       <c r="G196" t="n">
-        <v>0.006650164733717385</v>
+        <v>0.005577198911556085</v>
       </c>
       <c r="H196" t="n">
-        <v>445569893.2843523</v>
+        <v>187985430.6149087</v>
       </c>
       <c r="I196" t="n">
-        <v>0.4968932840220217</v>
+        <v>0.6591199209375115</v>
       </c>
       <c r="J196" t="n">
         <v>1</v>
@@ -48749,90 +48519,6 @@
         <v>2400</v>
       </c>
       <c r="L196" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>XRP</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="n">
-        <v>45903.5</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>SELL_VOLUME</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
-        <v>2.852681735633498</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1.637430352399929</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.01274604448192074</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.008738267994225928</v>
-      </c>
-      <c r="H197" t="n">
-        <v>-281668949.5671759</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0.2600654786251684</v>
-      </c>
-      <c r="J197" t="n">
-        <v>1</v>
-      </c>
-      <c r="K197" t="n">
-        <v>2400</v>
-      </c>
-      <c r="L197" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>XRP</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="n">
-        <v>45908</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
-        <v>2.881098102223723</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.0127880607568418</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.005577198911556085</v>
-      </c>
-      <c r="H198" t="n">
-        <v>187985430.6149087</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0.6591199209375115</v>
-      </c>
-      <c r="J198" t="n">
-        <v>1</v>
-      </c>
-      <c r="K198" t="n">
-        <v>2400</v>
-      </c>
-      <c r="L198" t="n">
         <v>20</v>
       </c>
     </row>
@@ -48847,7 +48533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57197,19 +56883,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45909.04166666666</v>
+        <v>45909.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.5132799553809768</v>
+        <v>0.5123896956669521</v>
       </c>
       <c r="C182" t="n">
-        <v>0.001943582583203707</v>
+        <v>0.001758111809448515</v>
       </c>
       <c r="D182" t="n">
-        <v>0.001263420289636243</v>
+        <v>0.001255128304578668</v>
       </c>
       <c r="E182" t="n">
-        <v>25371770.92553157</v>
+        <v>19664841.73492211</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -57226,7 +56912,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1835309576808001</v>
+        <v>0.1358767800229867</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -57238,52 +56924,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45909.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.5123896956669521</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.0007387962081295552</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.001275432595565375</v>
-      </c>
-      <c r="E183" t="n">
-        <v>9289422.794378698</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0.5043559311479918</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.1936641152169982</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1200</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
@@ -58447,7 +58087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66797,36 +66437,36 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45909.04166666666</v>
+        <v>45909.5</v>
       </c>
       <c r="B182" t="n">
-        <v>111426.5447059293</v>
+        <v>112025.1287811877</v>
       </c>
       <c r="C182" t="n">
-        <v>-38.39240194502054</v>
+        <v>86.3126137338113</v>
       </c>
       <c r="D182" t="n">
-        <v>168.3565307554</v>
+        <v>172.248413571049</v>
       </c>
       <c r="E182" t="n">
-        <v>1672078454.29211</v>
+        <v>1621594492.259129</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>HOLD</t>
         </is>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>111578.5605840142</v>
       </c>
       <c r="I182" t="n">
-        <v>-0.1362411177283565</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.8794890995556196</v>
+        <v>-0.3663881156901372</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -66838,52 +66478,6 @@
         <v>40</v>
       </c>
       <c r="N182" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45909.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>112025.1287811877</v>
-      </c>
-      <c r="C183" t="n">
-        <v>86.54204996980843</v>
-      </c>
-      <c r="D183" t="n">
-        <v>174.73418996776</v>
-      </c>
-      <c r="E183" t="n">
-        <v>991289436.1666031</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.4311572568851906</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>4800</v>
-      </c>
-      <c r="M183" t="n">
-        <v>40</v>
-      </c>
-      <c r="N183" t="n">
         <v>40</v>
       </c>
     </row>
@@ -66898,7 +66492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68125,52 +67719,6 @@
         <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45909.04166666666</v>
-      </c>
-      <c r="B27" t="n">
-        <v>111426.5447059293</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-38.39240194502054</v>
-      </c>
-      <c r="D27" t="n">
-        <v>168.3565307554</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1672078454.29211</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-0.1362411177283565</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-0.8794890995556196</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4800</v>
-      </c>
-      <c r="M27" t="n">
-        <v>40</v>
-      </c>
-      <c r="N27" t="n">
         <v>40</v>
       </c>
     </row>
@@ -68185,7 +67733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76535,19 +76083,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45909.04166666666</v>
+        <v>45909.5</v>
       </c>
       <c r="B182" t="n">
-        <v>4290.013695810016</v>
+        <v>4309.685702772004</v>
       </c>
       <c r="C182" t="n">
-        <v>0.06993346011404356</v>
+        <v>4.168268243860439</v>
       </c>
       <c r="D182" t="n">
-        <v>3.855522945671695</v>
+        <v>4.020063807102388</v>
       </c>
       <c r="E182" t="n">
-        <v>1422477820.013374</v>
+        <v>1298193420.232441</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -76564,7 +76112,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.2183588609189129</v>
+        <v>0.008521213276165484</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -76576,52 +76124,6 @@
         <v>25</v>
       </c>
       <c r="N182" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45909.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>4309.685702772004</v>
-      </c>
-      <c r="C183" t="n">
-        <v>5.15452131380971</v>
-      </c>
-      <c r="D183" t="n">
-        <v>3.361247836109571</v>
-      </c>
-      <c r="E183" t="n">
-        <v>781975759.4317169</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>4306.85906192402</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.1645103277800767</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>3000</v>
-      </c>
-      <c r="M183" t="n">
-        <v>25</v>
-      </c>
-      <c r="N183" t="n">
         <v>25</v>
       </c>
     </row>
@@ -77877,7 +77379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86227,19 +85729,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45909.04166666666</v>
+        <v>45909.5</v>
       </c>
       <c r="B182" t="n">
-        <v>2.623932642629666</v>
+        <v>2.578472179942546</v>
       </c>
       <c r="C182" t="n">
-        <v>0.02007052125225472</v>
+        <v>0.01059959152577106</v>
       </c>
       <c r="D182" t="n">
-        <v>0.00896222460234122</v>
+        <v>0.008482564336384947</v>
       </c>
       <c r="E182" t="n">
-        <v>8188368.157098725</v>
+        <v>4977901.949407741</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -86256,7 +85758,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.8363719860624014</v>
+        <v>0.1634315548437633</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -86268,52 +85770,6 @@
         <v>10</v>
       </c>
       <c r="N182" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>45909.5</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.578472179942546</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-0.0004567096661927117</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.008797184670342035</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1486870.515517965</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>4.463697429461014</v>
-      </c>
-      <c r="J183" t="n">
-        <v>-0.9194224365570376</v>
-      </c>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1200</v>
-      </c>
-      <c r="M183" t="n">
-        <v>10</v>
-      </c>
-      <c r="N183" t="n">
         <v>10</v>
       </c>
     </row>
